--- a/RuntimeResources/System/resources.xlsx
+++ b/RuntimeResources/System/resources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="891">
   <si>
     <t xml:space="preserve">stringName</t>
   </si>
@@ -44,6 +44,12 @@
     <t xml:space="preserve">ja-JP.items</t>
   </si>
   <si>
+    <t xml:space="preserve">zh-CN.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zh-CN.items</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgLanguageName</t>
   </si>
   <si>
@@ -63,15 +69,28 @@
   </si>
   <si>
     <t xml:space="preserve">Display Language can be selected.\n
-Default language is English.\n
-Changing language will be affected after rebooting DTXMania.</t>
+Default language is English.\n</t>
   </si>
   <si>
     <t xml:space="preserve">言語</t>
   </si>
   <si>
-    <t xml:space="preserve">表示言語を切り替えます。
-言語の切り替えは、DTXManiaの再起動後に有効になります。</t>
+    <t xml:space="preserve">表示言語を切り替えます。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">您可以切换显示语言。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgBaseFontFileName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base Font filename</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mplus-1p-heavy.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基本のフォントファイル名</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgOn</t>
@@ -80,10 +99,16 @@
     <t xml:space="preserve">On</t>
   </si>
   <si>
+    <t xml:space="preserve">开</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgOff</t>
   </si>
   <si>
     <t xml:space="preserve">Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">关</t>
   </si>
   <si>
     <t xml:space="preserve">strTitleCaution</t>
@@ -1023,11 +1048,10 @@
   </si>
   <si>
     <t xml:space="preserve">Sound output type:\n
-You can choose WASAPI, ASIO or DShow(DirectShow).\n
-WASAPI can use only after Vista.\n
-ASIO can use on XP or later OSs, but you need \"ASIO-supported\" sound device.\n
+You can choose WASAPI(Exclueive/Shared), ASIO or DSound(DirectSound).\n
+ASIO needs \"ASIO-supported\" sound device.\n
 \n
-You should use WASAPI or ASIO to decrease the sound lag.\n
+You should use WASAPI(Exclusive) or ASIO to decrease the sound lag.\n
 \n
 Note: Exit CONFIGURATION to make the setting take effect.</t>
   </si>
@@ -1040,7 +1064,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Dsound</t>
+      <t xml:space="preserve">ASIO</t>
     </r>
     <r>
       <rPr>
@@ -1060,36 +1084,48 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ASIO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FFA31515"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WASAPI</t>
+      <t xml:space="preserve">WASAPI(Exclusive),WASAPI(Shared),DSound</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">サウンドの出力方式:\n
-WASAPI, ASIO, DSound(DirectSound)の中からサウンド出力方式を選択します。\n
-WASAPIはVista以降でのみ使用可能です。ASIOはXPでも使用可能ですが、対応機器でのみ使用できます。\n
-WASAPIかASIOを指定することで、遅延の少ない演奏を楽しむことができます。\n
+WASAPI(排他/共有), ASIO, DSound(DirectSound)の中からサウンド出力方式を選択します。\n
+ASIOは対応機器でのみ使用できます。\n
+WASAPI排他かASIOを指定することで、遅延の少ない演奏を楽しむことができます。\n
 \n
 ※ 設定はCONFIGURATION画面の終了時に有効になります。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ASIO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WASAPI排他,WASAPI共有,DSound</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">strCfgSysWASAPIBufSize</t>
@@ -1521,14 +1557,14 @@
     <t xml:space="preserve">Turn OFF if you don't want to play hitting chip sound.\n
 It is useful to play with real/electric drums kit.\n
 \n
-Warning: You should not use (BD Group = [Group]) with HitSound OFF.</t>
+Warning: You should not use (BD Group = [BD-1]) with HitSound OFF.</t>
   </si>
   <si>
     <t xml:space="preserve">打撃音の再生：\n
-これをOFFにすると、パッドを叩いたときの音を再生しなくなります（ドラムのみ）。\n
+これをOFFにすると、パッドを叩いたときの音を再生しなくなります(ドラムのみ)。\n
 電子ドラム本来の音色で演奏したい場合などにOFF にします。\n
 \n
-注意：BD Group が [Group] である場合は不具合が生じます。</t>
+注意：BD Group が [BD-1] である場合は不具合が生じます。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgDrChipSound</t>
@@ -1674,17 +1710,17 @@
     <t xml:space="preserve">HH Grouping</t>
   </si>
   <si>
-    <t xml:space="preserve">Off:   LC|HC|HO;\n
+    <t xml:space="preserve">HH-0: LC|HC|HO;\n
  all are separated.\n
-HO_HC: LC&amp;(HC|HO);\n
+HH-1: LC&amp;(HC|HO);\n
  HC and HO are separated.\n
  LC is grouped with HC and HHO.\n
-LC_HH: LC|(HC&amp;HO);\n
+HH-2: LC|(HC&amp;HO);\n
  LC and HHs are separated.\n
  HC and HO are grouped.\n
-Group: LC&amp;HC&amp;HO; all are grouped.\n
+HH-3: LC&amp;HC&amp;HO; all are grouped.\n
 \n
-* This value cannot be changed while BD Group is set as [Group].</t>
+* This value cannot be changed while BD Group is set as [BD-1].</t>
   </si>
   <si>
     <r>
@@ -1761,12 +1797,12 @@
   <si>
     <t xml:space="preserve">ハイハットレーン打ち分け設定：\n
 左シンバル、ハイハットオープン、ハイハットクローズの打ち分け方法を指定します。\n
-  Off:   ... LC | HHC | HHO\n
-  HO_HC: ... LC &amp; ( HHC | HHO )\n
-  LC_HH: ... LC | ( HHC &amp; HHO )\n
-  Group ... LC &amp; HHC &amp; HHO\n
+  HH-0: ... LC | HHC | HHO\n
+  HH-1: ... LC &amp; ( HHC | HHO )\n
+  HH-2: ... LC | ( HHC &amp; HHO )\n
+  HH-3: ... LC &amp; HHC &amp; HHO\n
 \n
-※BD Grouping が [Group] である場合、この項目は変更できません。</t>
+※BD Grouping が [BD-1] である場合、この項目は変更できません。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgDrFTGroup</t>
@@ -1775,9 +1811,9 @@
     <t xml:space="preserve">FT Grouping</t>
   </si>
   <si>
-    <t xml:space="preserve">Off:   LT|FT\n
+    <t xml:space="preserve">FT-0: LT|FT\n
  LT and FT are separated.\n
-Group: LT&amp;FT\n
+FT-1: LT&amp;FT\n
  LT and FT are grouped.</t>
   </si>
   <si>
@@ -1815,8 +1851,8 @@
   <si>
     <t xml:space="preserve">フロアタム打ち分け設定：\n
 ロータムとフロアタムの打ち分け方法を指定します。\n
-  Off:   ... LT | FT\n
-  Group: ... LT &amp; FT</t>
+  FT-0: ... LT | FT\n
+  FT-1: … LT &amp; FT</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgDrCYGroup</t>
@@ -1825,9 +1861,9 @@
     <t xml:space="preserve">CY Grouping</t>
   </si>
   <si>
-    <t xml:space="preserve">Off:   CY|RD\n
+    <t xml:space="preserve">CY-0: CY|RD\n
  CY and RD are separated.\n
-Group: CY&amp;RD\n
+CY-1: CY&amp;RD\n
  CY and RD are grouped.</t>
   </si>
   <si>
@@ -1873,7 +1909,7 @@
       </rPr>
       <t xml:space="preserve">シンバルレーン打ち分け設定：\n
 右シンバルとライドシンバルの打ち分け方法を指定します。\n
-  Off:   ... CY | RD</t>
+  CY-0: … CY | RD</t>
     </r>
     <r>
       <rPr>
@@ -1894,7 +1930,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">  Group: ... CY &amp; RD</t>
+      <t xml:space="preserve">  CY-1: ... CY &amp; RD</t>
     </r>
   </si>
   <si>
@@ -1904,9 +1940,9 @@
     <t xml:space="preserve">BD Grouping</t>
   </si>
   <si>
-    <t xml:space="preserve">Off:   HP|BD\n
+    <t xml:space="preserve">BD-0: HP|BD\n
  HiHatPedal is HiHat.\n
-Group: HP&amp;BD\n
+BD-1: HP&amp;BD\n
  HiHatPedal is Bass.\n
 \n
 Warning: You should not use [Group] with HitSound OFF.
@@ -1947,11 +1983,11 @@
   <si>
     <t xml:space="preserve">バス数設定：\n
 ハイハットペダルをバスとして利用する方法を指定します。\n
-  Off:   ... HP | BD\n
-  Group: ... FP &amp; BD\n
+  BD-0: ... HP | BD\n
+  BD-1: ... FP &amp; BD\n
 \n
 注意：HitSound が OFF である場合は不具合が生じます。\n
-また、[Group] を選択している間はいくつかのオプションが変更できなくなります。</t>
+また、[BD-1] を選択している間はいくつかのオプションが変更できなくなります。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgDrCymbalFree</t>
@@ -1976,12 +2012,12 @@
   <si>
     <t xml:space="preserve">To specify playing sound in case you're using (HH Grouping=[Off]).\n
 \n
-Chip:\n
+C&gt;P:\n
  Chip sound is prior to the pad sound.\n
-Pad:\n
+P&gt;C:\n
  Pad sound is prior to the chip sound.\n
 \n
-* This value cannot be changed while BD Group is set as [Group].</t>
+* This value cannot be changed while BD Group is set as [BD-1].</t>
   </si>
   <si>
     <r>
@@ -2018,10 +2054,10 @@
   <si>
     <t xml:space="preserve">発声音決定の優先順位：\n
 ハイハットレーン打ち分け有効時に、チップの発声音をどのように決定するかを指定します。\n
-  Chip ... チップの音が優先\n
-  Pad  … 叩いたパッドの音が優先\n
+  C&gt;P ... チップの音が優先\n
+  P&gt;C ... 叩いたパッドの音が優先\n
 \n
-※BD Grouping が [Group] である場合、この項目は変更できません。</t>
+※BD Grouping が [BD-1] である場合、この項目は変更できません。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgDrFTPriority</t>
@@ -2030,18 +2066,18 @@
     <t xml:space="preserve">FT Priority</t>
   </si>
   <si>
-    <t xml:space="preserve">To specify playing sound in case you're using (FT Grouping=[Off]).\n
+    <t xml:space="preserve">To specify playing sound in case you're using (FT Grouping=[FT-0]).\n
 \n
-Chip:\n
+C&gt;P:\n
  Chip sound is prior to the pad sound.\n
-Pad:\n
+P&gt;C:\n
  Pad sound is prior to the chip sound.</t>
   </si>
   <si>
     <t xml:space="preserve">発声音決定の優先順位：\n
 フロアタム打ち分け有効時に、チップの発声音をどのように決定するかを指定します。\n
-  Chip ... チップの音が優先\n
-  Pad  … 叩いたパッドの音が優先</t>
+  C&gt;P ... チップの音が優先\n
+  P&gt;C ... 叩いたパッドの音が優先</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgDrCYPriority</t>
@@ -2050,18 +2086,18 @@
     <t xml:space="preserve">CY Priority</t>
   </si>
   <si>
-    <t xml:space="preserve">To specify playing sound in case you're using (CY Grouping=[Off].\n
+    <t xml:space="preserve">To specify playing sound in case you're using (CY Grouping=[CY-0].\n
 \n
-Chip:\n
+C&gt;P:\n
  Chip sound is prior to the pad sound.\n
-Pad:\n
+P&gt;C:\n
  Pad sound is prior to the chip sound.</t>
   </si>
   <si>
     <t xml:space="preserve">発声音決定の優先順位：\n
 シンバル打ち分け有効時に、チップの発声音をどのように決定するかを指定します。\n
-  Chip ... チップの音が優先\n
-  Pad  … 叩いたパッドの音が優先</t>
+  C&gt;P ... チップの音が優先\n
+  P&gt;C ... 叩いたパッドの音が優先</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgDrFillin</t>
@@ -4341,7 +4377,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -4371,6 +4407,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4454,7 +4495,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4471,16 +4512,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -4491,11 +4524,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4580,23 +4625,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G269"/>
+  <dimension ref="A1:I270"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F50" activeCellId="0" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.5738636363636"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6988636363636"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="102.073863636364"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.8181818181818"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7897727272727"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="203.397727272727"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="88.5454545454546"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="65.6931818181818"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.4261363636364"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.0340909090909"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9545454545455"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="93.9261363636364"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.6988636363636"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.7443181818182"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="93.1477272727273"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.1193181818182"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="72.3068181818182"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.0454545454545"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="12.4772727272727"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4621,3310 +4667,3351 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="1"/>
+      <c r="H6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="F10" s="0" t="s">
-        <v>33</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="6"/>
       <c r="F11" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="6"/>
       <c r="F12" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="6"/>
       <c r="F13" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="6"/>
       <c r="F14" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="6"/>
       <c r="F15" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="F16" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>85</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>106</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="108.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>114</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="108.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>142</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>149</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>154</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>158</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>166</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>170</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>174</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>178</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>192</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="89.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>196</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="89.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>205</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>210</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>214</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>218</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="89.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F56" s="7" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="C55" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="F55" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C57" s="7" t="s">
+    </row>
+    <row r="56" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="B56" s="0" t="s">
         <v>226</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="89.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>233</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="5"/>
-      <c r="C60" s="7"/>
-      <c r="F60" s="7"/>
+      <c r="A60" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="8"/>
+      <c r="F61" s="8"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="F62" s="5"/>
+      <c r="A62" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>239</v>
-      </c>
+      <c r="A63" s="9"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="F63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>253</v>
+        <v>258</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="F68" s="0" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>259</v>
+        <v>264</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>279</v>
+        <v>282</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="C77" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="B75" s="6" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>298</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="5"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="F85" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="6"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>305</v>
+        <v>310</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>311</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>309</v>
+        <v>313</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>315</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>313</v>
+        <v>317</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>319</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>317</v>
+        <v>321</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>323</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>321</v>
+        <v>325</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="F92" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>305</v>
+        <v>333</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>334</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>309</v>
+        <v>336</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>315</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>313</v>
+        <v>338</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>319</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>317</v>
+        <v>340</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>323</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>321</v>
+        <v>342</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>351</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>358</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>363</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>368</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>373</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="B112" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F110" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>389</v>
+        <v>395</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="F120" s="0" t="s">
-        <v>399</v>
+        <v>402</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>407</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>411</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>414</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="B124" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="F124" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>420</v>
+        <v>424</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>425</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>421</v>
+      <c r="A126" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>426</v>
-      </c>
-      <c r="F127" s="0" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>435</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="F128" s="0" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="F129" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="B132" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C130" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>451</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>453</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="B135" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="F138" s="7" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="C143" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="F143" s="5" t="s">
+      <c r="C136" s="3" t="s">
         <v>460</v>
       </c>
+      <c r="F136" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>464</v>
+      <c r="A144" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="B145" s="10" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="B146" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>470</v>
+      <c r="A145" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>512</v>
+        <v>546</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>560</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>561</v>
+        <v>567</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>546</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
-        <v>564</v>
-      </c>
-      <c r="B174" s="0" t="s">
-        <v>565</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="F174" s="5" t="s">
-        <v>567</v>
+        <v>569</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="F175" s="5" t="s">
-        <v>571</v>
+        <v>575</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>573</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="F176" s="5" t="s">
-        <v>575</v>
+        <v>579</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>577</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="F177" s="5" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>583</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>581</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="F178" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
-        <v>584</v>
-      </c>
-      <c r="C183" s="0" t="s">
-        <v>585</v>
-      </c>
-      <c r="F183" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C187" s="11"/>
+        <v>596</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="F185" s="0" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
-        <v>590</v>
-      </c>
-      <c r="B188" s="0" t="s">
-        <v>591</v>
-      </c>
-      <c r="C188" s="0" t="s">
-        <v>592</v>
-      </c>
-      <c r="F188" s="0" t="s">
-        <v>593</v>
-      </c>
+      <c r="C188" s="12"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>599</v>
+        <v>653</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>650</v>
+        <v>609</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>615</v>
+        <v>668</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>668</v>
+        <v>629</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>599</v>
+        <v>682</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>679</v>
+        <v>609</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>654</v>
+        <v>689</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>611</v>
+        <v>664</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="F213" s="0" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>695</v>
+        <v>629</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>707</v>
+        <v>737</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>708</v>
+        <v>738</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>709</v>
+        <v>739</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>779</v>
-      </c>
-      <c r="C240" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="F240" s="7" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0" t="s">
-        <v>782</v>
-      </c>
-      <c r="B242" s="0" t="s">
-        <v>783</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="F242" s="3" t="s">
         <v>785</v>
+      </c>
+      <c r="C240" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="F240" s="0" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="F241" s="8" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="s">
-        <v>818</v>
-      </c>
-      <c r="B252" s="0" t="s">
-        <v>819</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="F252" s="3" t="s">
-        <v>821</v>
+        <v>823</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
-        <v>834</v>
-      </c>
-      <c r="B257" s="0" t="s">
-        <v>835</v>
-      </c>
-      <c r="E257" s="0" t="s">
-        <v>836</v>
+        <v>839</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="E259" s="0" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="8" t="s">
-        <v>846</v>
+      <c r="A261" s="0" t="s">
+        <v>853</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="s">
-        <v>849</v>
+      <c r="A262" s="9" t="s">
+        <v>856</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="E262" s="0" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="E263" s="0" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="E264" s="0" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="E265" s="0" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="5" t="s">
-        <v>861</v>
-      </c>
-      <c r="B267" s="0" t="s">
-        <v>862</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="D267" s="0" t="s">
-        <v>864</v>
-      </c>
-      <c r="E267" s="0" t="s">
-        <v>862</v>
-      </c>
-      <c r="F267" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="G267" s="0" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="5" t="s">
         <v>867</v>
       </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="E266" s="0" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="6" t="s">
+        <v>871</v>
+      </c>
       <c r="B268" s="0" t="s">
-        <v>868</v>
-      </c>
-      <c r="C268" s="0" t="s">
-        <v>869</v>
+        <v>872</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="D268" s="0" t="s">
+        <v>874</v>
       </c>
       <c r="E268" s="0" t="s">
-        <v>868</v>
-      </c>
-      <c r="F268" s="0" t="s">
-        <v>870</v>
+        <v>872</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="G268" s="0" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="5" t="s">
-        <v>871</v>
+      <c r="A269" s="6" t="s">
+        <v>877</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="F269" s="0" t="s">
-        <v>874</v>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="B270" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="C270" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="E270" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="F270" s="0" t="s">
+        <v>884</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C110" r:id="rId1" display="C:\"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7948,38 +8035,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="67.6477272727273"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.47159090909091"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="74.5625"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.375"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>875</v>
+        <v>885</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>877</v>
+        <v>887</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>878</v>
+        <v>888</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>879</v>
+        <v>889</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
     </row>
   </sheetData>

--- a/RuntimeResources/System/resources.xlsx
+++ b/RuntimeResources/System/resources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="894">
   <si>
     <t xml:space="preserve">stringName</t>
   </si>
@@ -121,6 +121,9 @@
 especially in the night.\n
 Do not wield a stick, the guitar and so on.\n
 It’s too dangerous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WARNING</t>
   </si>
   <si>
     <r>
@@ -1308,6 +1311,14 @@
   </si>
   <si>
     <t xml:space="preserve">システムのキー入力に関する項目を設定します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgHitKeyToAssign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hit key\n
+to assign.\n
+(Cancel: ESC)</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgDrReturnToMenu</t>
@@ -4377,7 +4388,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -4412,6 +4423,7 @@
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4438,12 +4450,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9.5"/>
@@ -4495,7 +4501,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4537,10 +4543,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4625,24 +4627,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I270"/>
+  <dimension ref="A1:I271"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F50" activeCellId="0" sqref="F50"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.0340909090909"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9545454545455"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="93.9261363636364"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.6988636363636"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.7443181818182"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="93.1477272727273"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.1193181818182"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="72.3068181818182"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.0454545454545"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="12.4772727272727"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.7897727272727"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5113636363636"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="103.278409090909"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.3125"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.6988636363636"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="102.528409090909"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.6875"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="79.5227272727273"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="13.6818181818182"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4767,1054 +4769,1052 @@
       <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F7" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="6"/>
       <c r="F11" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="6"/>
       <c r="F12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="6"/>
       <c r="F13" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" s="6"/>
       <c r="F14" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" s="6"/>
       <c r="F15" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="6"/>
       <c r="F16" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="108.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="89.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="89.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>246</v>
+      </c>
       <c r="B61" s="6"/>
-      <c r="C61" s="8"/>
+      <c r="C61" s="8" t="s">
+        <v>247</v>
+      </c>
       <c r="F61" s="8"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C62" s="6" t="s">
+      <c r="B62" s="6"/>
+      <c r="C62" s="8"/>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="C63" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="F63" s="6"/>
+      <c r="F63" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>249</v>
-      </c>
+      <c r="A64" s="9"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="F64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="C65" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="F65" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="C66" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="F66" s="0" t="s">
         <v>256</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="C67" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="F67" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="6" t="s">
         <v>263</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="B70" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="F70" s="6" t="s">
-        <v>269</v>
+      <c r="F70" s="0" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="C71" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="F71" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="C72" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="F72" s="6" t="s">
         <v>276</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="C73" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="F73" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="C74" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="F74" s="6" t="s">
         <v>284</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="C75" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="F75" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="C76" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="F76" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="F76" s="0" t="s">
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="B77" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="C77" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="F77" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="F78" s="6" t="s">
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="B79" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="C79" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="F79" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="D79" s="6" t="s">
+    </row>
+    <row r="80" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="B80" s="6" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="C80" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="D80" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="F80" s="8" t="s">
         <v>305</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="C81" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C81" s="8" t="s">
-        <v>305</v>
-      </c>
       <c r="F81" s="8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="6"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C84" s="6" t="s">
+    </row>
+    <row r="82" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="6"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="C85" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="F86" s="0" t="s">
-        <v>312</v>
+      <c r="F85" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5822,82 +5822,82 @@
         <v>313</v>
       </c>
       <c r="B87" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="F87" s="0" t="s">
         <v>315</v>
-      </c>
-      <c r="F87" s="0" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="C88" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="F88" s="0" t="s">
         <v>319</v>
-      </c>
-      <c r="F88" s="0" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="C89" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="F89" s="0" t="s">
         <v>323</v>
-      </c>
-      <c r="F89" s="0" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="C90" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="F90" s="0" t="s">
         <v>327</v>
-      </c>
-      <c r="F90" s="0" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="C91" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="F91" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="F91" s="0" t="s">
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="B92" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="B93" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C93" s="6" t="s">
+      <c r="C92" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="F93" s="0" t="s">
+      <c r="F92" s="0" t="s">
         <v>335</v>
       </c>
     </row>
@@ -5906,827 +5906,827 @@
         <v>336</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B95" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>319</v>
-      </c>
       <c r="F95" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B96" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>323</v>
-      </c>
       <c r="F96" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B97" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>327</v>
-      </c>
       <c r="F97" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B98" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>331</v>
-      </c>
       <c r="F98" s="0" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="B100" s="0" t="s">
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="B99" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="F99" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="F100" s="3" t="s">
+    </row>
+    <row r="101" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="B101" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="C101" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C103" s="0" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F101" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="C104" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="C104" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="B105" s="0" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="C105" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="D105" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="F105" s="8" t="s">
         <v>359</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C106" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="D106" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="F106" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D106" s="6" t="s">
+    </row>
+    <row r="107" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="F106" s="8" t="s">
+      <c r="B107" s="0" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="C107" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="D107" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="F107" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="D107" s="6" t="s">
+    </row>
+    <row r="108" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="B108" s="0" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="C108" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="D108" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="F108" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="F108" s="8" t="s">
+    </row>
+    <row r="109" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="B109" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="C109" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="F109" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="D109" s="6" t="s">
+    </row>
+    <row r="110" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="F109" s="8" t="s">
+      <c r="B110" s="0" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="C110" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="D110" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="F110" s="8" t="s">
         <v>383</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B111" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="C111" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="D111" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="F111" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="D111" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="F111" s="8" t="s">
+    </row>
+    <row r="112" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="B112" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="C112" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="D112" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="F112" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="F113" s="8" t="s">
+    </row>
+    <row r="114" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="B114" s="0" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C114" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="C116" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="F116" s="3" t="s">
+    </row>
+    <row r="117" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="B117" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="C117" s="6" t="s">
         <v>399</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="B120" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="C120" s="8" t="s">
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="B119" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="B121" s="0" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="C121" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="D121" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="F121" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="F121" s="0" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B122" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="C122" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="F122" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="F122" s="6" t="s">
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="123" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+      <c r="B123" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="C123" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="F123" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="F123" s="8" t="s">
+    </row>
+    <row r="124" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="B124" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="C124" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="F124" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="D124" s="6" t="s">
+    </row>
+    <row r="125" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="F124" s="8" t="s">
+      <c r="B125" s="6" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+      <c r="C125" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="D125" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="F125" s="8" t="s">
         <v>425</v>
-      </c>
-      <c r="F125" s="0" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="B126" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="C126" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="F126" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="D126" s="6" t="s">
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="F126" s="0" t="s">
+      <c r="B127" s="0" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="9" t="s">
+      <c r="C127" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="D127" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C127" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="F127" s="6" t="s">
-        <v>431</v>
+      <c r="F127" s="0" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+      <c r="A128" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="F128" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="B128" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="F128" s="0" t="s">
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="129" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+      <c r="B129" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="C129" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="F129" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="D129" s="6" t="s">
+    </row>
+    <row r="130" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="F129" s="8" t="s">
+      <c r="B130" s="0" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="130" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+      <c r="C130" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="B130" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="C130" s="8" t="s">
+      <c r="D130" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="D130" s="6" t="s">
+      <c r="F130" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F130" s="8" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="C131" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="B131" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>444</v>
-      </c>
       <c r="D131" s="6" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F131" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="D132" s="6" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="133" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="C133" s="8" t="s">
+      <c r="F132" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="F133" s="3" t="s">
+    </row>
+    <row r="134" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="134" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+      <c r="B134" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="C134" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="F134" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="F134" s="3" t="s">
+    </row>
+    <row r="135" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+      <c r="B135" s="0" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="136" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C135" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="B136" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="C136" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="F136" s="3" t="s">
+    </row>
+    <row r="137" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+      <c r="B137" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="C137" s="3" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="139" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+      <c r="F137" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C139" s="8" t="s">
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="F139" s="8" t="s">
+      <c r="B138" s="0" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="10" t="s">
+    <row r="140" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="C140" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="C144" s="6" t="s">
+      <c r="F140" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="F144" s="6" t="s">
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="4" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="10" t="s">
+      <c r="B145" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="C145" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="C145" s="6" t="s">
+      <c r="F145" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="F145" s="6" t="s">
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="4" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="10" t="s">
+      <c r="B146" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="C146" s="6" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="147" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+      <c r="F146" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="B147" s="0" t="s">
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="B147" s="10" t="s">
         <v>479</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="B148" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="B148" s="0" t="s">
+      <c r="C148" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="F148" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="B149" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="C149" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="F149" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="B150" s="0" t="s">
         <v>489</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="C150" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="F150" s="3" t="s">
         <v>491</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="B151" s="0" t="s">
         <v>493</v>
       </c>
-      <c r="B151" s="0" t="s">
+      <c r="C151" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="F151" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="B152" s="0" t="s">
         <v>497</v>
       </c>
-      <c r="B152" s="0" t="s">
+      <c r="C152" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="F152" s="3" t="s">
         <v>499</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="B153" s="0" t="s">
         <v>501</v>
       </c>
-      <c r="B153" s="0" t="s">
+      <c r="C153" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="F153" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="B154" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="B154" s="0" t="s">
+      <c r="C154" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="F154" s="3" t="s">
         <v>507</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="B155" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="B155" s="0" t="s">
+      <c r="C155" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="F155" s="3" t="s">
         <v>511</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="B156" s="0" t="s">
         <v>513</v>
       </c>
-      <c r="B156" s="0" t="s">
+      <c r="C156" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="F156" s="3" t="s">
         <v>515</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="B157" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="C157" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="F157" s="3" t="s">
         <v>519</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="B158" s="0" t="s">
         <v>521</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="C158" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="F158" s="3" t="s">
         <v>523</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="B159" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="C159" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="F159" s="3" t="s">
         <v>527</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="B160" s="0" t="s">
         <v>529</v>
       </c>
-      <c r="B160" s="0" t="s">
+      <c r="C160" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="F160" s="3" t="s">
         <v>531</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="B161" s="0" t="s">
         <v>533</v>
       </c>
-      <c r="B161" s="0" t="s">
+      <c r="C161" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="F161" s="3" t="s">
         <v>535</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="B162" s="0" t="s">
         <v>537</v>
       </c>
-      <c r="B162" s="0" t="s">
+      <c r="C162" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="F162" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="B163" s="0" t="s">
         <v>541</v>
       </c>
-      <c r="B163" s="0" t="s">
+      <c r="C163" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="F163" s="3" t="s">
         <v>543</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="B164" s="0" t="s">
         <v>545</v>
       </c>
-      <c r="B164" s="0" t="s">
+      <c r="C164" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="F164" s="3" t="s">
         <v>547</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="B165" s="0" t="s">
         <v>549</v>
-      </c>
-      <c r="B165" s="0" t="s">
-        <v>522</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>550</v>
@@ -6740,7 +6740,7 @@
         <v>552</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>553</v>
@@ -6754,7 +6754,7 @@
         <v>555</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>556</v>
@@ -6768,7 +6768,7 @@
         <v>558</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>559</v>
@@ -6782,7 +6782,7 @@
         <v>561</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>562</v>
@@ -6796,7 +6796,7 @@
         <v>564</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>565</v>
@@ -6810,7 +6810,7 @@
         <v>567</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>568</v>
@@ -6819,98 +6819,101 @@
         <v>569</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
         <v>570</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B172" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="F172" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="F172" s="3" t="s">
+    </row>
+    <row r="173" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
+      <c r="B173" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="B175" s="0" t="s">
+      <c r="C173" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="C175" s="6" t="s">
+      <c r="F173" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="F175" s="6" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="B176" s="0" t="s">
         <v>578</v>
       </c>
-      <c r="B176" s="0" t="s">
+      <c r="C176" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="F176" s="6" t="s">
         <v>580</v>
-      </c>
-      <c r="F176" s="6" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="B177" s="0" t="s">
         <v>582</v>
       </c>
-      <c r="B177" s="0" t="s">
+      <c r="C177" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="F177" s="6" t="s">
         <v>584</v>
-      </c>
-      <c r="F177" s="6" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="B178" s="0" t="s">
         <v>586</v>
       </c>
-      <c r="B178" s="0" t="s">
+      <c r="C178" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="C178" s="6" t="s">
+      <c r="F178" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="F178" s="6" t="s">
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="179" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
+      <c r="B179" s="0" t="s">
         <v>590</v>
       </c>
-      <c r="B179" s="0" t="s">
+      <c r="C179" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="C179" s="8" t="s">
+      <c r="F179" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="F179" s="6" t="s">
+    </row>
+    <row r="180" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
+      <c r="B180" s="0" t="s">
         <v>594</v>
       </c>
-      <c r="C184" s="0" t="s">
+      <c r="C180" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="F184" s="0" t="s">
+      <c r="F180" s="6" t="s">
         <v>596</v>
       </c>
     </row>
@@ -6925,211 +6928,208 @@
         <v>599</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C188" s="12"/>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="F186" s="0" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
-        <v>600</v>
-      </c>
-      <c r="B189" s="0" t="s">
-        <v>601</v>
-      </c>
-      <c r="C189" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="F189" s="0" t="s">
-        <v>603</v>
-      </c>
+      <c r="C189" s="11"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B190" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="B190" s="0" t="s">
+      <c r="C190" s="0" t="s">
         <v>605</v>
       </c>
-      <c r="C190" s="0" t="s">
+      <c r="F190" s="0" t="s">
         <v>606</v>
-      </c>
-      <c r="F190" s="0" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="B191" s="0" t="s">
         <v>608</v>
       </c>
-      <c r="B191" s="0" t="s">
+      <c r="C191" s="0" t="s">
         <v>609</v>
       </c>
-      <c r="C191" s="0" t="s">
+      <c r="F191" s="0" t="s">
         <v>610</v>
-      </c>
-      <c r="F191" s="0" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="B192" s="0" t="s">
         <v>612</v>
       </c>
-      <c r="B192" s="0" t="s">
+      <c r="C192" s="0" t="s">
         <v>613</v>
       </c>
-      <c r="C192" s="0" t="s">
+      <c r="F192" s="0" t="s">
         <v>614</v>
-      </c>
-      <c r="F192" s="0" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="B193" s="0" t="s">
         <v>616</v>
       </c>
-      <c r="B193" s="0" t="s">
+      <c r="C193" s="0" t="s">
         <v>617</v>
       </c>
-      <c r="C193" s="0" t="s">
+      <c r="F193" s="0" t="s">
         <v>618</v>
-      </c>
-      <c r="F193" s="0" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="B194" s="0" t="s">
         <v>620</v>
       </c>
-      <c r="B194" s="0" t="s">
+      <c r="C194" s="0" t="s">
         <v>621</v>
       </c>
-      <c r="C194" s="0" t="s">
+      <c r="F194" s="0" t="s">
         <v>622</v>
-      </c>
-      <c r="F194" s="0" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="B195" s="0" t="s">
         <v>624</v>
       </c>
-      <c r="B195" s="0" t="s">
+      <c r="C195" s="0" t="s">
         <v>625</v>
       </c>
-      <c r="C195" s="0" t="s">
+      <c r="F195" s="0" t="s">
         <v>626</v>
-      </c>
-      <c r="F195" s="0" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="B196" s="0" t="s">
         <v>628</v>
       </c>
-      <c r="B196" s="0" t="s">
+      <c r="C196" s="0" t="s">
         <v>629</v>
       </c>
-      <c r="C196" s="0" t="s">
+      <c r="F196" s="0" t="s">
         <v>630</v>
-      </c>
-      <c r="F196" s="0" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="B197" s="0" t="s">
         <v>632</v>
       </c>
-      <c r="B197" s="0" t="s">
+      <c r="C197" s="0" t="s">
         <v>633</v>
       </c>
-      <c r="C197" s="0" t="s">
+      <c r="F197" s="0" t="s">
         <v>634</v>
-      </c>
-      <c r="F197" s="0" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="B198" s="0" t="s">
         <v>636</v>
       </c>
-      <c r="B198" s="0" t="s">
+      <c r="C198" s="0" t="s">
         <v>637</v>
       </c>
-      <c r="C198" s="0" t="s">
+      <c r="F198" s="0" t="s">
         <v>638</v>
-      </c>
-      <c r="F198" s="0" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="B199" s="0" t="s">
         <v>640</v>
       </c>
-      <c r="B199" s="0" t="s">
+      <c r="C199" s="0" t="s">
         <v>641</v>
       </c>
-      <c r="C199" s="0" t="s">
+      <c r="F199" s="0" t="s">
         <v>642</v>
-      </c>
-      <c r="F199" s="0" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="B200" s="0" t="s">
         <v>644</v>
       </c>
-      <c r="B200" s="0" t="s">
+      <c r="C200" s="0" t="s">
         <v>645</v>
       </c>
-      <c r="C200" s="0" t="s">
+      <c r="F200" s="0" t="s">
         <v>646</v>
-      </c>
-      <c r="F200" s="0" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="B201" s="0" t="s">
         <v>648</v>
       </c>
-      <c r="B201" s="0" t="s">
+      <c r="C201" s="0" t="s">
         <v>649</v>
       </c>
-      <c r="C201" s="0" t="s">
+      <c r="F201" s="0" t="s">
         <v>650</v>
-      </c>
-      <c r="F201" s="0" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="B202" s="0" t="s">
         <v>652</v>
       </c>
-      <c r="B202" s="0" t="s">
+      <c r="C202" s="0" t="s">
         <v>653</v>
       </c>
-      <c r="C202" s="0" t="s">
+      <c r="F202" s="0" t="s">
         <v>654</v>
-      </c>
-      <c r="F202" s="0" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="B203" s="0" t="s">
         <v>656</v>
-      </c>
-      <c r="B203" s="0" t="s">
-        <v>609</v>
       </c>
       <c r="C203" s="0" t="s">
         <v>657</v>
@@ -7143,49 +7143,49 @@
         <v>659</v>
       </c>
       <c r="B204" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="C204" s="0" t="s">
         <v>660</v>
       </c>
-      <c r="C204" s="0" t="s">
+      <c r="F204" s="0" t="s">
         <v>661</v>
-      </c>
-      <c r="F204" s="0" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="B205" s="0" t="s">
         <v>663</v>
       </c>
-      <c r="B205" s="0" t="s">
+      <c r="C205" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="C205" s="0" t="s">
+      <c r="F205" s="0" t="s">
         <v>665</v>
-      </c>
-      <c r="F205" s="0" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="B206" s="0" t="s">
         <v>667</v>
       </c>
-      <c r="B206" s="0" t="s">
+      <c r="C206" s="0" t="s">
         <v>668</v>
       </c>
-      <c r="C206" s="0" t="s">
+      <c r="F206" s="0" t="s">
         <v>669</v>
-      </c>
-      <c r="F206" s="0" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="B207" s="0" t="s">
         <v>671</v>
-      </c>
-      <c r="B207" s="0" t="s">
-        <v>625</v>
       </c>
       <c r="C207" s="0" t="s">
         <v>672</v>
@@ -7199,7 +7199,7 @@
         <v>674</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C208" s="0" t="s">
         <v>675</v>
@@ -7213,35 +7213,35 @@
         <v>677</v>
       </c>
       <c r="B209" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="C209" s="0" t="s">
         <v>678</v>
       </c>
-      <c r="C209" s="0" t="s">
+      <c r="F209" s="0" t="s">
         <v>679</v>
-      </c>
-      <c r="F209" s="0" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="B210" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="B210" s="0" t="s">
+      <c r="C210" s="0" t="s">
         <v>682</v>
       </c>
-      <c r="C210" s="0" t="s">
+      <c r="F210" s="0" t="s">
         <v>683</v>
-      </c>
-      <c r="F210" s="0" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="B211" s="0" t="s">
         <v>685</v>
-      </c>
-      <c r="B211" s="0" t="s">
-        <v>609</v>
       </c>
       <c r="C211" s="0" t="s">
         <v>686</v>
@@ -7255,21 +7255,21 @@
         <v>688</v>
       </c>
       <c r="B212" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="C212" s="0" t="s">
         <v>689</v>
       </c>
-      <c r="C212" s="0" t="s">
+      <c r="F212" s="0" t="s">
         <v>690</v>
-      </c>
-      <c r="F212" s="0" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="B213" s="0" t="s">
         <v>692</v>
-      </c>
-      <c r="B213" s="0" t="s">
-        <v>664</v>
       </c>
       <c r="C213" s="0" t="s">
         <v>693</v>
@@ -7283,7 +7283,7 @@
         <v>695</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>621</v>
+        <v>667</v>
       </c>
       <c r="C214" s="0" t="s">
         <v>696</v>
@@ -7297,7 +7297,7 @@
         <v>698</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C215" s="0" t="s">
         <v>699</v>
@@ -7311,7 +7311,7 @@
         <v>701</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C216" s="0" t="s">
         <v>702</v>
@@ -7325,541 +7325,544 @@
         <v>704</v>
       </c>
       <c r="B217" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="C217" s="0" t="s">
         <v>705</v>
       </c>
-      <c r="C217" s="0" t="s">
+      <c r="F217" s="0" t="s">
         <v>706</v>
-      </c>
-      <c r="F217" s="0" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="B218" s="0" t="s">
         <v>708</v>
       </c>
-      <c r="B218" s="0" t="s">
+      <c r="C218" s="0" t="s">
         <v>709</v>
       </c>
-      <c r="C218" s="0" t="s">
+      <c r="F218" s="0" t="s">
         <v>710</v>
-      </c>
-      <c r="F218" s="0" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="B219" s="0" t="s">
         <v>712</v>
       </c>
-      <c r="B219" s="0" t="s">
+      <c r="C219" s="0" t="s">
         <v>713</v>
       </c>
-      <c r="C219" s="0" t="s">
+      <c r="F219" s="0" t="s">
         <v>714</v>
-      </c>
-      <c r="F219" s="0" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="B220" s="0" t="s">
         <v>716</v>
       </c>
-      <c r="B220" s="0" t="s">
+      <c r="C220" s="0" t="s">
         <v>717</v>
       </c>
-      <c r="C220" s="0" t="s">
+      <c r="F220" s="0" t="s">
         <v>718</v>
-      </c>
-      <c r="F220" s="0" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="B221" s="0" t="s">
         <v>720</v>
       </c>
-      <c r="B221" s="0" t="s">
+      <c r="C221" s="0" t="s">
         <v>721</v>
       </c>
-      <c r="C221" s="0" t="s">
+      <c r="F221" s="0" t="s">
         <v>722</v>
-      </c>
-      <c r="F221" s="0" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="B222" s="0" t="s">
         <v>724</v>
       </c>
-      <c r="B222" s="0" t="s">
+      <c r="C222" s="0" t="s">
         <v>725</v>
       </c>
-      <c r="C222" s="0" t="s">
+      <c r="F222" s="0" t="s">
         <v>726</v>
-      </c>
-      <c r="F222" s="0" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="B223" s="0" t="s">
         <v>728</v>
       </c>
-      <c r="B223" s="0" t="s">
+      <c r="C223" s="0" t="s">
         <v>729</v>
       </c>
-      <c r="C223" s="0" t="s">
+      <c r="F223" s="0" t="s">
         <v>730</v>
-      </c>
-      <c r="F223" s="0" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="B224" s="0" t="s">
         <v>732</v>
       </c>
-      <c r="B224" s="0" t="s">
+      <c r="C224" s="0" t="s">
         <v>733</v>
       </c>
-      <c r="C224" s="0" t="s">
+      <c r="F224" s="0" t="s">
         <v>734</v>
-      </c>
-      <c r="F224" s="0" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="B225" s="0" t="s">
         <v>736</v>
       </c>
-      <c r="B225" s="0" t="s">
+      <c r="C225" s="0" t="s">
         <v>737</v>
       </c>
-      <c r="C225" s="0" t="s">
+      <c r="F225" s="0" t="s">
         <v>738</v>
-      </c>
-      <c r="F225" s="0" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="B226" s="0" t="s">
         <v>740</v>
       </c>
-      <c r="B226" s="0" t="s">
-        <v>717</v>
-      </c>
       <c r="C226" s="0" t="s">
-        <v>718</v>
+        <v>741</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>719</v>
+        <v>742</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B227" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="C227" s="0" t="s">
         <v>721</v>
       </c>
-      <c r="C227" s="0" t="s">
+      <c r="F227" s="0" t="s">
         <v>722</v>
-      </c>
-      <c r="F227" s="0" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B228" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="C228" s="0" t="s">
         <v>725</v>
       </c>
-      <c r="C228" s="0" t="s">
+      <c r="F228" s="0" t="s">
         <v>726</v>
-      </c>
-      <c r="F228" s="0" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B229" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="C229" s="0" t="s">
         <v>729</v>
       </c>
-      <c r="C229" s="0" t="s">
+      <c r="F229" s="0" t="s">
         <v>730</v>
-      </c>
-      <c r="F229" s="0" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="B231" s="0" t="s">
         <v>748</v>
       </c>
-      <c r="B231" s="0" t="s">
+      <c r="C231" s="0" t="s">
         <v>749</v>
       </c>
-      <c r="C231" s="0" t="s">
+      <c r="F231" s="0" t="s">
         <v>750</v>
-      </c>
-      <c r="F231" s="0" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="B232" s="0" t="s">
         <v>752</v>
       </c>
-      <c r="B232" s="0" t="s">
+      <c r="C232" s="0" t="s">
         <v>753</v>
       </c>
-      <c r="C232" s="0" t="s">
+      <c r="F232" s="0" t="s">
         <v>754</v>
-      </c>
-      <c r="F232" s="0" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="B233" s="0" t="s">
         <v>756</v>
       </c>
-      <c r="B233" s="0" t="s">
+      <c r="C233" s="0" t="s">
         <v>757</v>
       </c>
-      <c r="C233" s="0" t="s">
+      <c r="F233" s="0" t="s">
         <v>758</v>
-      </c>
-      <c r="F233" s="0" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="B234" s="0" t="s">
         <v>760</v>
       </c>
-      <c r="B234" s="0" t="s">
+      <c r="C234" s="0" t="s">
         <v>761</v>
       </c>
-      <c r="C234" s="0" t="s">
+      <c r="F234" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="F234" s="0" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="B235" s="0" t="s">
         <v>764</v>
       </c>
-      <c r="B235" s="0" t="s">
+      <c r="C235" s="0" t="s">
         <v>765</v>
       </c>
-      <c r="C235" s="0" t="s">
+      <c r="F235" s="0" t="s">
         <v>766</v>
-      </c>
-      <c r="F235" s="0" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="B236" s="0" t="s">
         <v>768</v>
       </c>
-      <c r="B236" s="0" t="s">
+      <c r="C236" s="0" t="s">
         <v>769</v>
       </c>
-      <c r="C236" s="0" t="s">
+      <c r="F236" s="0" t="s">
         <v>770</v>
-      </c>
-      <c r="F236" s="0" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="B237" s="0" t="s">
         <v>772</v>
       </c>
-      <c r="B237" s="0" t="s">
+      <c r="C237" s="0" t="s">
         <v>773</v>
       </c>
-      <c r="C237" s="0" t="s">
+      <c r="F237" s="0" t="s">
         <v>774</v>
-      </c>
-      <c r="F237" s="0" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="B238" s="0" t="s">
         <v>776</v>
       </c>
-      <c r="B238" s="0" t="s">
+      <c r="C238" s="0" t="s">
         <v>777</v>
       </c>
-      <c r="C238" s="0" t="s">
+      <c r="F238" s="0" t="s">
         <v>778</v>
-      </c>
-      <c r="F238" s="0" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="B239" s="0" t="s">
         <v>780</v>
       </c>
-      <c r="B239" s="0" t="s">
+      <c r="C239" s="0" t="s">
         <v>781</v>
       </c>
-      <c r="C239" s="0" t="s">
+      <c r="F239" s="0" t="s">
         <v>782</v>
-      </c>
-      <c r="F239" s="0" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="B240" s="0" t="s">
         <v>784</v>
       </c>
-      <c r="B240" s="0" t="s">
+      <c r="C240" s="0" t="s">
         <v>785</v>
       </c>
-      <c r="C240" s="0" t="s">
+      <c r="F240" s="0" t="s">
         <v>786</v>
       </c>
-      <c r="F240" s="0" t="s">
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="241" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="s">
+      <c r="B241" s="0" t="s">
         <v>788</v>
       </c>
-      <c r="B241" s="0" t="s">
+      <c r="C241" s="0" t="s">
         <v>789</v>
       </c>
-      <c r="C241" s="6" t="s">
+      <c r="F241" s="0" t="s">
         <v>790</v>
       </c>
-      <c r="F241" s="8" t="s">
+    </row>
+    <row r="242" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="243" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0" t="s">
+      <c r="B242" s="0" t="s">
         <v>792</v>
       </c>
-      <c r="B243" s="0" t="s">
+      <c r="C242" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="F242" s="8" t="s">
         <v>794</v>
-      </c>
-      <c r="F243" s="3" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="B244" s="0" t="s">
         <v>796</v>
       </c>
-      <c r="B244" s="0" t="s">
+      <c r="C244" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="F244" s="3" t="s">
         <v>798</v>
-      </c>
-      <c r="F244" s="3" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="B245" s="0" t="s">
         <v>800</v>
       </c>
-      <c r="B245" s="0" t="s">
+      <c r="C245" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="F245" s="3" t="s">
         <v>802</v>
-      </c>
-      <c r="F245" s="3" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="B246" s="0" t="s">
         <v>804</v>
       </c>
-      <c r="B246" s="0" t="s">
+      <c r="C246" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="F246" s="3" t="s">
         <v>806</v>
-      </c>
-      <c r="F246" s="3" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="B247" s="0" t="s">
         <v>808</v>
       </c>
-      <c r="B247" s="0" t="s">
+      <c r="C247" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="F247" s="3" t="s">
         <v>810</v>
-      </c>
-      <c r="F247" s="3" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="B248" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="B248" s="0" t="s">
+      <c r="C248" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="F248" s="3" t="s">
         <v>814</v>
-      </c>
-      <c r="F248" s="3" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="B249" s="0" t="s">
         <v>816</v>
       </c>
-      <c r="B249" s="0" t="s">
+      <c r="C249" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="F249" s="3" t="s">
         <v>818</v>
-      </c>
-      <c r="F249" s="3" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="B250" s="0" t="s">
         <v>820</v>
       </c>
-      <c r="B250" s="0" t="s">
+      <c r="C250" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="F250" s="3" t="s">
         <v>822</v>
-      </c>
-      <c r="F250" s="3" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="B251" s="0" t="s">
         <v>824</v>
       </c>
-      <c r="B251" s="0" t="s">
+      <c r="C251" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="F251" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="F251" s="3" t="s">
+    </row>
+    <row r="252" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="253" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0" t="s">
+      <c r="B252" s="0" t="s">
         <v>828</v>
       </c>
-      <c r="B253" s="0" t="s">
+      <c r="C252" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="F252" s="3" t="s">
         <v>830</v>
-      </c>
-      <c r="F253" s="3" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="B254" s="0" t="s">
         <v>832</v>
       </c>
-      <c r="B254" s="0" t="s">
+      <c r="C254" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="F254" s="3" t="s">
         <v>834</v>
-      </c>
-      <c r="F254" s="3" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="B255" s="0" t="s">
         <v>836</v>
       </c>
-      <c r="B255" s="0" t="s">
+      <c r="C255" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="C255" s="3" t="s">
+      <c r="F255" s="3" t="s">
         <v>838</v>
-      </c>
-      <c r="F255" s="3" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="B256" s="0" t="s">
         <v>840</v>
       </c>
-      <c r="B256" s="0" t="s">
+      <c r="C256" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="C256" s="3" t="s">
+      <c r="F256" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="F256" s="3" t="s">
+    </row>
+    <row r="257" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
+      <c r="B257" s="0" t="s">
         <v>844</v>
       </c>
-      <c r="B258" s="0" t="s">
+      <c r="C257" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="E258" s="0" t="s">
+      <c r="F257" s="3" t="s">
         <v>846</v>
       </c>
     </row>
@@ -7897,7 +7900,7 @@
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="9" t="s">
+      <c r="A262" s="0" t="s">
         <v>856</v>
       </c>
       <c r="B262" s="0" t="s">
@@ -7908,7 +7911,7 @@
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0" t="s">
+      <c r="A263" s="9" t="s">
         <v>859</v>
       </c>
       <c r="B263" s="0" t="s">
@@ -7951,66 +7954,77 @@
         <v>870</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="6" t="s">
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
         <v>871</v>
       </c>
-      <c r="B268" s="0" t="s">
+      <c r="B267" s="0" t="s">
         <v>872</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="E267" s="0" t="s">
         <v>873</v>
       </c>
-      <c r="D268" s="0" t="s">
+    </row>
+    <row r="269" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="E268" s="0" t="s">
-        <v>872</v>
-      </c>
-      <c r="F268" s="3" t="s">
+      <c r="B269" s="0" t="s">
         <v>875</v>
       </c>
-      <c r="G268" s="0" t="s">
+      <c r="C269" s="3" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="6" t="s">
+      <c r="D269" s="0" t="s">
         <v>877</v>
       </c>
-      <c r="B269" s="0" t="s">
+      <c r="E269" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="F269" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="C269" s="0" t="s">
+      <c r="G269" s="0" t="s">
         <v>879</v>
-      </c>
-      <c r="E269" s="0" t="s">
-        <v>878</v>
-      </c>
-      <c r="F269" s="0" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="B270" s="0" t="s">
         <v>881</v>
       </c>
-      <c r="B270" s="0" t="s">
+      <c r="C270" s="0" t="s">
         <v>882</v>
       </c>
-      <c r="C270" s="0" t="s">
+      <c r="E270" s="0" t="s">
+        <v>881</v>
+      </c>
+      <c r="F270" s="0" t="s">
         <v>883</v>
       </c>
-      <c r="E270" s="0" t="s">
-        <v>882</v>
-      </c>
-      <c r="F270" s="0" t="s">
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="6" t="s">
         <v>884</v>
+      </c>
+      <c r="B271" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="C271" s="0" t="s">
+        <v>886</v>
+      </c>
+      <c r="E271" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="F271" s="0" t="s">
+        <v>887</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C110" r:id="rId1" display="C:\"/>
+    <hyperlink ref="C111" r:id="rId1" display="To specify playing sound in case you're using (FT Grouping=[FT-0]).\n&#10;\n&#10;C&gt;P:\n&#10; Chip sound is prior to the pad sound.\n&#10;P&gt;C:\n&#10; Pad sound is prior to the chip sound."/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -8035,38 +8049,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="74.5625"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.375"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="82.0795454545454"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.4261363636364"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
     </row>
   </sheetData>

--- a/RuntimeResources/System/resources.xlsx
+++ b/RuntimeResources/System/resources.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="resources" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="933">
   <si>
     <t xml:space="preserve">stringName</t>
   </si>
@@ -44,6 +44,9 @@
     <t xml:space="preserve">ja-JP.items</t>
   </si>
   <si>
+    <t xml:space="preserve">zh-CN.title</t>
+  </si>
+  <si>
     <t xml:space="preserve">zh-CN.value</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
   </si>
   <si>
     <t xml:space="preserve">日本語</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中文</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgLanguage</t>
@@ -91,6 +97,36 @@
   </si>
   <si>
     <t xml:space="preserve">基本のフォントファイル名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgBootFontFileName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgTitleFontFileName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgSelectMusicSongListFontFileName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgSelectMusicSongCommentFontFileName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgSelectMusicSongAuthorFontFileName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgSelectMusicInformationFontFileName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgConfigurationFontFileName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgConfigurationTopItemsFontFileName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgConfigurationItemsFontFileName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgConfigurationDescriptionFontFileName</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgOn</t>
@@ -210,6 +246,107 @@
   </si>
   <si>
     <t xml:space="preserve">EXIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strSelectInfo01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[HH]→[HH](HiHat) or, Hold [G]and\n
+push [P]→[P]to change difficulty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[HH]→[HH](ハイハット) または[G]を\n
+押しながら[P]→[P]で、難易度を変更。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strSelectInfo02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[SD](Snare) and [LT](Low tom) to\n
+navigate through the songlist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[SD](スネア) または [LT](ロータム) で、\n
+曲リストを上下に移動。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strSelectInfo03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[R][G] and arrow keys (↑↓) also\n
+navigate through the songlist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[R][B]や、カーソルキーの上下 (↑↓) も、\n
+曲リストの移動。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strSelectInfo04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[CY](Cymbal) or [START], Enter to\n
+select the song.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[CY](シンバル) または [START] , Enterで\n
+演奏曲を決定。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strSelectInfo05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[BD]→[BD](Bass drum) to show\n
+Quick Config menu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[BD]→[BD](バスドラム) で、簡易設定\n
+メニュー(Quick Config)を表示。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strSelectInfo06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[BD]→[HT](Hi tom) or\n
+[G]→[G]→[G] to show sort menu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[BD]→[HT](ハイタム) または\n
+[G]→[G]→[G] で、ソート画面呼出し。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strSelectInfo07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[P]→[G]→[G]→[P] to FLIP\n
+the guitar and the bass.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[P]→[G]→[G]→[P] で、ギターと\n
+ベースを入れ替え。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strSelectInfo08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shift + F1 to go to\n
+Configuration menu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shift + F1 で、Config画面に移ります。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strSelectInfo09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[FT](Floor tom) or [CANCEL] to exit from\n
+the BOX or go back to the title menu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[FT](フロアタム) または [CANCEL] で、\n
+BOXを抜けるか、タイトル画面に復帰。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strSelectInfo10</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgReturnToMenu</t>
@@ -1052,7 +1189,7 @@
   <si>
     <t xml:space="preserve">Sound output type:\n
 You can choose WASAPI(Exclueive/Shared), ASIO or DSound(DirectSound).\n
-ASIO needs \"ASIO-supported\" sound device.\n
+ASIO needs "ASIO-supported" sound device.\n
 \n
 You should use WASAPI(Exclusive) or ASIO to decrease the sound lag.\n
 \n
@@ -4373,9 +4510,6 @@
   </si>
   <si>
     <t xml:space="preserve">Any attributes (colors, fonts,…) will be ignored.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currently “items” does not work.</t>
   </si>
   <si>
     <t xml:space="preserve">csv file must be saved with UTF-16</t>
@@ -4627,24 +4761,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I271"/>
+  <dimension ref="A1:J295"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C75" activeCellId="0" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.7897727272727"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5113636363636"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="103.278409090909"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.3125"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.6988636363636"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="102.528409090909"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.6875"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="79.5227272727273"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="13.6818181818182"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="60.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="58.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="32.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="13.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4675,3360 +4810,3595 @@
       <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>11</v>
+      <c r="H2" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="H5" s="4" t="s">
-        <v>25</v>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="H6" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="F11" s="0" t="s">
-        <v>43</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="F12" s="0" t="s">
-        <v>47</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="F13" s="0" t="s">
-        <v>51</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="F14" s="0" t="s">
-        <v>55</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="F15" s="0" t="s">
-        <v>59</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="F16" s="0" t="s">
-        <v>63</v>
-      </c>
+      <c r="C16" s="3"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="H17" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="H18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>93</v>
+        <v>51</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>55</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>101</v>
+        <v>58</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="2"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="2"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="F35" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="F36" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="F37" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="F38" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="F39" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="D40" s="6"/>
+      <c r="F40" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="6" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="B41" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="C41" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="8" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="B42" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="C42" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="D42" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="F42" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F28" s="8" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="B43" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="C43" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="F43" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="8" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="108.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="B44" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="C44" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="D44" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F44" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="45" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B45" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C45" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F45" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="46" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B46" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F46" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="47" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B47" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C47" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F47" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="48" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B48" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C48" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F48" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="49" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B49" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C49" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F49" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="50" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B50" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C50" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F50" s="8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="51" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B51" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F51" s="8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="52" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B52" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C52" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="8" t="s">
+      <c r="F52" s="8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="53" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B53" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C53" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F53" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="54" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B54" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F54" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="55" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B55" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C55" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F55" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="56" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B56" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F56" s="8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="57" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B57" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C57" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F57" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="58" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B58" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F58" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="59" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B59" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="F59" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="F45" s="8" t="s">
+    </row>
+    <row r="60" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="B60" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="C60" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="F60" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F46" s="8" t="s">
+    </row>
+    <row r="61" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="B61" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="C61" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="F61" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D47" s="6" t="s">
+    </row>
+    <row r="62" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="B62" s="6" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="C62" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="E62" s="6"/>
+      <c r="F62" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C48" s="8" t="s">
+    </row>
+    <row r="63" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="B63" s="0" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="C63" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="F63" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C49" s="8" t="s">
+    </row>
+    <row r="64" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="B64" s="0" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="C64" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="F64" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C50" s="8" t="s">
+    </row>
+    <row r="65" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="B65" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="C65" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="F65" s="8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="89.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="66" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B66" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C66" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F66" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="s">
+    <row r="67" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B67" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C67" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F67" s="8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="68" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B68" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F68" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="69" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B69" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C69" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="D69" s="6" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="F69" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B55" s="0" t="s">
+    </row>
+    <row r="70" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="B70" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="F70" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B56" s="0" t="s">
+    </row>
+    <row r="71" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="B71" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="89.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
+      <c r="D71" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="F71" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C57" s="8" t="s">
+    </row>
+    <row r="72" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="B72" s="0" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="C72" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="F72" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C58" s="8" t="s">
+    </row>
+    <row r="73" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="B73" s="0" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="C73" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="F73" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C59" s="8" t="s">
+    </row>
+    <row r="74" customFormat="false" ht="98.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="B74" s="0" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="C74" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="D74" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="F74" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="G74" s="6" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" customFormat="false" ht="127.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="8" t="s">
+      <c r="B75" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="F61" s="8"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="6"/>
-      <c r="C62" s="8"/>
-      <c r="F62" s="8"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9" t="s">
+      <c r="C75" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="F64" s="6"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="F75" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B65" s="6" t="s">
+    </row>
+    <row r="76" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="B76" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="C76" s="8" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="F76" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B66" s="6" t="s">
+    </row>
+    <row r="77" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="B77" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="F66" s="0" t="s">
+      <c r="C77" s="8" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="F77" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B67" s="6" t="s">
+    </row>
+    <row r="78" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="B78" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="C78" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="F78" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B68" s="6" t="s">
+    </row>
+    <row r="79" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="B79" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="C79" s="8" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="F79" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C69" s="0" t="s">
+    </row>
+    <row r="80" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="B80" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C80" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="F70" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="F80" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="B71" s="6" t="s">
+    </row>
+    <row r="81" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="B81" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="C81" s="8" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="F81" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="B72" s="6" t="s">
+    </row>
+    <row r="82" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="B82" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="C82" s="8" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="F82" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="B73" s="6" t="s">
+    </row>
+    <row r="83" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="B83" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="C83" s="8" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="F83" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="B74" s="6" t="s">
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="B84" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="C84" s="8" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="F84" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B75" s="6" t="s">
+    </row>
+    <row r="85" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="B85" s="6"/>
+      <c r="C85" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="F85" s="8"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="6"/>
+      <c r="C86" s="8"/>
+      <c r="F86" s="8"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="9" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="6"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>313</v>
-      </c>
       <c r="B87" s="6" t="s">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="F87" s="0" t="s">
-        <v>315</v>
+        <v>82</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="F88" s="0" t="s">
-        <v>319</v>
-      </c>
+      <c r="A88" s="9"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="F88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="F89" s="0" t="s">
-        <v>323</v>
+        <v>291</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>326</v>
+        <v>294</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>295</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="F91" s="0" t="s">
-        <v>331</v>
+        <v>299</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="F92" s="0" t="s">
-        <v>335</v>
+        <v>303</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>337</v>
+        <v>307</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>308</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="F95" s="0" t="s">
-        <v>340</v>
+        <v>311</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="F96" s="0" t="s">
-        <v>342</v>
+        <v>315</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="F97" s="0" t="s">
-        <v>344</v>
+        <v>319</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="F98" s="0" t="s">
-        <v>346</v>
+        <v>323</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B99" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="F99" s="0" t="s">
+      <c r="C105" s="8" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="F105" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="B101" s="0" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="B106" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="C106" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="6"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="9" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="B109" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B111" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C111" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C104" s="0" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="F111" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="B105" s="0" t="s">
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="B112" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="C112" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="F112" s="0" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B113" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C113" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="F113" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="F106" s="8" t="s">
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="B114" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="C114" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="F114" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D107" s="6" t="s">
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="B115" s="6" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="C115" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="F115" s="0" t="s">
         <v>371</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>400</v>
+        <v>372</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>402</v>
+        <v>376</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>379</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>408</v>
+        <v>383</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>410</v>
+        <v>385</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>369</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>411</v>
+        <v>370</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="D132" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="F132" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="C123" s="6" t="s">
+    </row>
+    <row r="133" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="F123" s="6" t="s">
+      <c r="B133" s="0" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="C133" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="F133" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="C124" s="8" t="s">
+    </row>
+    <row r="134" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="F124" s="8" t="s">
+      <c r="B134" s="0" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="125" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+      <c r="C134" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="D134" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="F134" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="D125" s="6" t="s">
+    </row>
+    <row r="135" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="F125" s="8" t="s">
+      <c r="B135" s="0" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+      <c r="C135" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="D135" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="F135" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="C126" s="6" t="s">
+    </row>
+    <row r="136" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="F126" s="0" t="s">
+      <c r="B136" s="0" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+      <c r="C136" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="D136" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="F136" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="C127" s="6" t="s">
+    </row>
+    <row r="138" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="D127" s="6" t="s">
+      <c r="B138" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="F127" s="0" t="s">
+      <c r="C138" s="6" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="9" t="s">
+      <c r="F138" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="B128" s="9" t="s">
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="C128" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="F128" s="6" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+    </row>
+    <row r="141" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B141" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="C141" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="F129" s="0" t="s">
+      <c r="F141" s="3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B142" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="C130" s="8" t="s">
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="D130" s="6" t="s">
+      <c r="B143" s="0" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="F130" s="8" t="s">
+      <c r="B145" s="0" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="131" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+      <c r="C145" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="B131" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="C131" s="8" t="s">
+      <c r="D145" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="D131" s="6" t="s">
+      <c r="F145" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="F131" s="8" t="s">
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="132" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+      <c r="B146" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="B132" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="F132" s="8" t="s">
+      <c r="C146" s="6" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="134" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+      <c r="F146" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="B134" s="0" t="s">
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="B147" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="F134" s="3" t="s">
+      <c r="C147" s="6" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="135" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+      <c r="F147" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="B135" s="0" t="s">
+    </row>
+    <row r="148" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="B148" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="F135" s="3" t="s">
+      <c r="C148" s="8" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+      <c r="F148" s="8" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+    <row r="149" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="B149" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C149" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="F137" s="3" t="s">
+      <c r="D149" s="6" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="F149" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="B138" s="0" t="s">
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="140" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+      <c r="B150" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C150" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="F140" s="8" t="s">
+      <c r="F150" s="0" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="4" t="s">
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B151" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="C145" s="6" t="s">
+      <c r="C151" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="F145" s="6" t="s">
+      <c r="D151" s="6" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="4" t="s">
+      <c r="F151" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="B146" s="10" t="s">
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="C146" s="6" t="s">
+      <c r="B152" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="F146" s="6" t="s">
+      <c r="C152" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="4" t="s">
+      <c r="B153" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="C153" s="0" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="148" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+      <c r="F153" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="B148" s="0" t="s">
+    </row>
+    <row r="154" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="B154" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="F148" s="3" t="s">
+      <c r="C154" s="8" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="149" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+      <c r="D154" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="F154" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="C149" s="3" t="s">
+    </row>
+    <row r="155" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="F149" s="3" t="s">
+      <c r="B155" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="C155" s="8" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="150" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+      <c r="D155" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="F155" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="C150" s="3" t="s">
+    </row>
+    <row r="156" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="F150" s="3" t="s">
+      <c r="B156" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="F156" s="8" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+    <row r="158" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="B151" s="0" t="s">
+      <c r="B158" s="0" t="s">
         <v>493</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C158" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="F151" s="3" t="s">
+      <c r="F158" s="3" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+    <row r="159" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="B152" s="0" t="s">
+      <c r="B159" s="0" t="s">
         <v>497</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C159" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="F152" s="3" t="s">
+      <c r="F159" s="3" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
         <v>500</v>
       </c>
-      <c r="B153" s="0" t="s">
+    </row>
+    <row r="161" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
         <v>501</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="B161" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="F153" s="3" t="s">
+      <c r="C161" s="3" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="154" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+      <c r="F161" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B154" s="0" t="s">
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="B162" s="0" t="s">
         <v>506</v>
       </c>
-      <c r="F154" s="3" t="s">
+    </row>
+    <row r="164" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="155" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+      <c r="C164" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="B155" s="0" t="s">
+      <c r="F164" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="C155" s="3" t="s">
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="F155" s="3" t="s">
+      <c r="B169" s="10" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="156" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+      <c r="C169" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="B156" s="0" t="s">
+      <c r="F169" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C156" s="3" t="s">
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="F156" s="3" t="s">
+      <c r="B170" s="10" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="157" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+      <c r="C170" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="F170" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="C157" s="3" t="s">
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="F157" s="3" t="s">
+      <c r="B171" s="10" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+    <row r="172" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="B172" s="0" t="s">
         <v>521</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C172" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="F158" s="3" t="s">
+      <c r="F172" s="3" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+    <row r="173" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="B173" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C173" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="F159" s="3" t="s">
+      <c r="F173" s="3" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+    <row r="174" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="B160" s="0" t="s">
+      <c r="B174" s="0" t="s">
         <v>529</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C174" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="F160" s="3" t="s">
+      <c r="F174" s="3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+    <row r="175" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
         <v>532</v>
       </c>
-      <c r="B161" s="0" t="s">
+      <c r="B175" s="0" t="s">
         <v>533</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C175" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="F161" s="3" t="s">
+      <c r="F175" s="3" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+    <row r="176" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
         <v>536</v>
       </c>
-      <c r="B162" s="0" t="s">
+      <c r="B176" s="0" t="s">
         <v>537</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C176" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="F162" s="3" t="s">
+      <c r="F176" s="3" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+    <row r="177" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="B163" s="0" t="s">
+      <c r="B177" s="0" t="s">
         <v>541</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C177" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="F163" s="3" t="s">
+      <c r="F177" s="3" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+    <row r="178" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
         <v>544</v>
       </c>
-      <c r="B164" s="0" t="s">
+      <c r="B178" s="0" t="s">
         <v>545</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C178" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="F164" s="3" t="s">
+      <c r="F178" s="3" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
+    <row r="179" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
         <v>548</v>
       </c>
-      <c r="B165" s="0" t="s">
+      <c r="B179" s="0" t="s">
         <v>549</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C179" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="F165" s="3" t="s">
+      <c r="F179" s="3" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
+    <row r="180" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
         <v>552</v>
       </c>
-      <c r="B166" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="C166" s="3" t="s">
+      <c r="B180" s="0" t="s">
         <v>553</v>
       </c>
-      <c r="F166" s="3" t="s">
+      <c r="C180" s="3" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="167" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+      <c r="F180" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="B167" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="C167" s="3" t="s">
+    </row>
+    <row r="181" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
         <v>556</v>
       </c>
-      <c r="F167" s="3" t="s">
+      <c r="B181" s="0" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="168" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+      <c r="C181" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="B168" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="C168" s="3" t="s">
+      <c r="F181" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="F168" s="3" t="s">
+    </row>
+    <row r="182" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="169" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+      <c r="B182" s="0" t="s">
         <v>561</v>
       </c>
-      <c r="B169" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="C169" s="3" t="s">
+      <c r="C182" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="F169" s="3" t="s">
+      <c r="F182" s="3" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+    <row r="183" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
         <v>564</v>
       </c>
-      <c r="B170" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="C170" s="3" t="s">
+      <c r="B183" s="0" t="s">
         <v>565</v>
       </c>
-      <c r="F170" s="3" t="s">
+      <c r="C183" s="3" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="171" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+      <c r="F183" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="B171" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="C171" s="3" t="s">
+    </row>
+    <row r="184" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
         <v>568</v>
       </c>
-      <c r="F171" s="3" t="s">
+      <c r="B184" s="0" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="172" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+      <c r="C184" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="B172" s="0" t="s">
-        <v>549</v>
-      </c>
-      <c r="C172" s="3" t="s">
+      <c r="F184" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="F172" s="3" t="s">
+    </row>
+    <row r="185" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="173" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
+      <c r="B185" s="0" t="s">
         <v>573</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="C185" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="F185" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="F173" s="3" t="s">
+    </row>
+    <row r="186" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+      <c r="B186" s="0" t="s">
         <v>577</v>
       </c>
-      <c r="B176" s="0" t="s">
+      <c r="C186" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="F186" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="F176" s="6" t="s">
+    </row>
+    <row r="187" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+      <c r="B187" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B177" s="0" t="s">
+      <c r="C187" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="F187" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="F177" s="6" t="s">
+    </row>
+    <row r="188" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+      <c r="B188" s="0" t="s">
         <v>585</v>
       </c>
-      <c r="B178" s="0" t="s">
+      <c r="C188" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="C178" s="6" t="s">
+      <c r="F188" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="F178" s="6" t="s">
+    </row>
+    <row r="189" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
+      <c r="B189" s="0" t="s">
         <v>589</v>
       </c>
-      <c r="B179" s="0" t="s">
+      <c r="C189" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="F189" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="F179" s="6" t="s">
+    </row>
+    <row r="190" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="180" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
+      <c r="B190" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="C190" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="B180" s="0" t="s">
+      <c r="F190" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="C180" s="8" t="s">
+    </row>
+    <row r="191" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
         <v>595</v>
       </c>
-      <c r="F180" s="6" t="s">
+      <c r="B191" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="C191" s="3" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
+      <c r="F191" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="C185" s="0" t="s">
+    </row>
+    <row r="192" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
         <v>598</v>
       </c>
-      <c r="F185" s="0" t="s">
+      <c r="B192" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="C192" s="3" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
+      <c r="F192" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="C186" s="0" t="s">
+    </row>
+    <row r="193" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
         <v>601</v>
       </c>
-      <c r="F186" s="0" t="s">
+      <c r="B193" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="C193" s="3" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C189" s="11"/>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
+      <c r="F193" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="B190" s="0" t="s">
+    </row>
+    <row r="194" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="C190" s="0" t="s">
+      <c r="B194" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="C194" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="F190" s="0" t="s">
+      <c r="F194" s="3" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
+    <row r="195" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
         <v>607</v>
       </c>
-      <c r="B191" s="0" t="s">
+      <c r="B195" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="C195" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="C191" s="0" t="s">
+      <c r="F195" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="F191" s="0" t="s">
+    </row>
+    <row r="196" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
+      <c r="B196" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="C196" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="B192" s="0" t="s">
+      <c r="F196" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="C192" s="0" t="s">
+    </row>
+    <row r="197" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
         <v>613</v>
       </c>
-      <c r="F192" s="0" t="s">
+      <c r="B197" s="6" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
+      <c r="C197" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="B193" s="0" t="s">
+      <c r="F197" s="3" t="s">
         <v>616</v>
-      </c>
-      <c r="C193" s="0" t="s">
-        <v>617</v>
-      </c>
-      <c r="F193" s="0" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
-        <v>619</v>
-      </c>
-      <c r="B194" s="0" t="s">
-        <v>620</v>
-      </c>
-      <c r="C194" s="0" t="s">
-        <v>621</v>
-      </c>
-      <c r="F194" s="0" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
-        <v>623</v>
-      </c>
-      <c r="B195" s="0" t="s">
-        <v>624</v>
-      </c>
-      <c r="C195" s="0" t="s">
-        <v>625</v>
-      </c>
-      <c r="F195" s="0" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
-        <v>627</v>
-      </c>
-      <c r="B196" s="0" t="s">
-        <v>628</v>
-      </c>
-      <c r="C196" s="0" t="s">
-        <v>629</v>
-      </c>
-      <c r="F196" s="0" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
-        <v>631</v>
-      </c>
-      <c r="B197" s="0" t="s">
-        <v>632</v>
-      </c>
-      <c r="C197" s="0" t="s">
-        <v>633</v>
-      </c>
-      <c r="F197" s="0" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
-        <v>635</v>
-      </c>
-      <c r="B198" s="0" t="s">
-        <v>636</v>
-      </c>
-      <c r="C198" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="F198" s="0" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
-        <v>639</v>
-      </c>
-      <c r="B199" s="0" t="s">
-        <v>640</v>
-      </c>
-      <c r="C199" s="0" t="s">
-        <v>641</v>
-      </c>
-      <c r="F199" s="0" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>643</v>
+        <v>617</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>644</v>
-      </c>
-      <c r="C200" s="0" t="s">
-        <v>645</v>
-      </c>
-      <c r="F200" s="0" t="s">
-        <v>646</v>
+        <v>618</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>647</v>
+        <v>621</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>648</v>
-      </c>
-      <c r="C201" s="0" t="s">
-        <v>649</v>
-      </c>
-      <c r="F201" s="0" t="s">
-        <v>650</v>
+        <v>622</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>651</v>
+        <v>625</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>652</v>
-      </c>
-      <c r="C202" s="0" t="s">
-        <v>653</v>
-      </c>
-      <c r="F202" s="0" t="s">
-        <v>654</v>
+        <v>626</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>655</v>
+        <v>629</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>656</v>
-      </c>
-      <c r="C203" s="0" t="s">
-        <v>657</v>
-      </c>
-      <c r="F203" s="0" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>630</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>659</v>
+        <v>633</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>612</v>
-      </c>
-      <c r="C204" s="0" t="s">
-        <v>660</v>
-      </c>
-      <c r="F204" s="0" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
-        <v>662</v>
-      </c>
-      <c r="B205" s="0" t="s">
-        <v>663</v>
-      </c>
-      <c r="C205" s="0" t="s">
-        <v>664</v>
-      </c>
-      <c r="F205" s="0" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
-        <v>666</v>
-      </c>
-      <c r="B206" s="0" t="s">
-        <v>667</v>
-      </c>
-      <c r="C206" s="0" t="s">
-        <v>668</v>
-      </c>
-      <c r="F206" s="0" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
-        <v>670</v>
-      </c>
-      <c r="B207" s="0" t="s">
-        <v>671</v>
-      </c>
-      <c r="C207" s="0" t="s">
-        <v>672</v>
-      </c>
-      <c r="F207" s="0" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
-        <v>674</v>
-      </c>
-      <c r="B208" s="0" t="s">
-        <v>628</v>
-      </c>
-      <c r="C208" s="0" t="s">
-        <v>675</v>
-      </c>
-      <c r="F208" s="0" t="s">
-        <v>676</v>
+        <v>634</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>677</v>
-      </c>
-      <c r="B209" s="0" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>678</v>
+        <v>638</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>679</v>
+        <v>639</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>680</v>
-      </c>
-      <c r="B210" s="0" t="s">
-        <v>681</v>
+        <v>640</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>682</v>
+        <v>641</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
-        <v>684</v>
-      </c>
-      <c r="B211" s="0" t="s">
-        <v>685</v>
-      </c>
-      <c r="C211" s="0" t="s">
-        <v>686</v>
-      </c>
-      <c r="F211" s="0" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
-        <v>688</v>
-      </c>
-      <c r="B212" s="0" t="s">
-        <v>612</v>
-      </c>
-      <c r="C212" s="0" t="s">
-        <v>689</v>
-      </c>
-      <c r="F212" s="0" t="s">
-        <v>690</v>
+        <v>642</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
-        <v>691</v>
-      </c>
-      <c r="B213" s="0" t="s">
-        <v>692</v>
-      </c>
-      <c r="C213" s="0" t="s">
-        <v>693</v>
-      </c>
-      <c r="F213" s="0" t="s">
-        <v>694</v>
-      </c>
+      <c r="C213" s="11"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>695</v>
+        <v>643</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>667</v>
+        <v>644</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>696</v>
+        <v>645</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>697</v>
+        <v>646</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>698</v>
+        <v>647</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>699</v>
+        <v>649</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>700</v>
+        <v>650</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>701</v>
+        <v>651</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>628</v>
+        <v>652</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>702</v>
+        <v>653</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>703</v>
+        <v>654</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>704</v>
+        <v>655</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>632</v>
+        <v>656</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>705</v>
+        <v>657</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>706</v>
+        <v>658</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>707</v>
+        <v>659</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>708</v>
+        <v>660</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>709</v>
+        <v>661</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>710</v>
+        <v>662</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>711</v>
+        <v>663</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>712</v>
+        <v>664</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>713</v>
+        <v>665</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>714</v>
+        <v>666</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>715</v>
+        <v>667</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>716</v>
+        <v>668</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>717</v>
+        <v>669</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>718</v>
+        <v>670</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>719</v>
+        <v>671</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>720</v>
+        <v>672</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>721</v>
+        <v>673</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>722</v>
+        <v>674</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>723</v>
+        <v>675</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>724</v>
+        <v>676</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>725</v>
+        <v>677</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>726</v>
+        <v>678</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>727</v>
+        <v>679</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>728</v>
+        <v>680</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>729</v>
+        <v>681</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>730</v>
+        <v>682</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>731</v>
+        <v>683</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>732</v>
+        <v>684</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>733</v>
+        <v>685</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>734</v>
+        <v>686</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>735</v>
+        <v>687</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>736</v>
+        <v>688</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>737</v>
+        <v>689</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>738</v>
+        <v>690</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>739</v>
+        <v>691</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>740</v>
+        <v>692</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>741</v>
+        <v>693</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>742</v>
+        <v>694</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>743</v>
+        <v>695</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>720</v>
+        <v>696</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>721</v>
+        <v>697</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>722</v>
+        <v>698</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>744</v>
+        <v>699</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>724</v>
+        <v>652</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>725</v>
+        <v>700</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>726</v>
+        <v>701</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>745</v>
+        <v>702</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>728</v>
+        <v>703</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>729</v>
+        <v>704</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>730</v>
+        <v>705</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>746</v>
+        <v>706</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>732</v>
+        <v>707</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>733</v>
+        <v>708</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>734</v>
+        <v>709</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>747</v>
+        <v>710</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>748</v>
+        <v>711</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>749</v>
+        <v>712</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>750</v>
+        <v>713</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>751</v>
+        <v>714</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>752</v>
+        <v>668</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>753</v>
+        <v>715</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>754</v>
+        <v>716</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>755</v>
+        <v>717</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>756</v>
+        <v>672</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>757</v>
+        <v>718</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>758</v>
+        <v>719</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>759</v>
+        <v>720</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>760</v>
+        <v>721</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>761</v>
+        <v>722</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>762</v>
+        <v>723</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>763</v>
+        <v>724</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>764</v>
+        <v>725</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>765</v>
+        <v>726</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>766</v>
+        <v>727</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>767</v>
+        <v>728</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>768</v>
+        <v>652</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>769</v>
+        <v>729</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>770</v>
+        <v>730</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>771</v>
+        <v>731</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>772</v>
+        <v>732</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>773</v>
+        <v>733</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>774</v>
+        <v>734</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>775</v>
+        <v>735</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>776</v>
+        <v>707</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>777</v>
+        <v>736</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>778</v>
+        <v>737</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>779</v>
+        <v>738</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>780</v>
+        <v>664</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>783</v>
+        <v>741</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>784</v>
+        <v>668</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>785</v>
+        <v>742</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>786</v>
+        <v>743</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="C241" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="F241" s="0" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="B242" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="C242" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="F242" s="0" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="B243" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="C243" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="F243" s="0" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="C244" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="F244" s="0" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="C245" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="F245" s="0" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="B246" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="C246" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="F246" s="0" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="C247" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="F247" s="0" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="C248" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="F248" s="0" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="C249" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="F249" s="0" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="C250" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="F250" s="0" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="C251" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="F251" s="0" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="C252" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="F252" s="0" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="C253" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="F253" s="0" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="C254" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="F254" s="0" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
         <v>787</v>
       </c>
-      <c r="B241" s="0" t="s">
+      <c r="B255" s="0" t="s">
         <v>788</v>
       </c>
-      <c r="C241" s="0" t="s">
+      <c r="C255" s="0" t="s">
         <v>789</v>
       </c>
-      <c r="F241" s="0" t="s">
+      <c r="F255" s="0" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0" t="s">
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
         <v>791</v>
       </c>
-      <c r="B242" s="0" t="s">
+      <c r="B256" s="0" t="s">
         <v>792</v>
       </c>
-      <c r="C242" s="6" t="s">
+      <c r="C256" s="0" t="s">
         <v>793</v>
       </c>
-      <c r="F242" s="8" t="s">
+      <c r="F256" s="0" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="0" t="s">
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
         <v>795</v>
       </c>
-      <c r="B244" s="0" t="s">
+      <c r="B257" s="0" t="s">
         <v>796</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="C257" s="0" t="s">
         <v>797</v>
       </c>
-      <c r="F244" s="3" t="s">
+      <c r="F257" s="0" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="0" t="s">
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
         <v>799</v>
       </c>
-      <c r="B245" s="0" t="s">
+      <c r="B258" s="0" t="s">
         <v>800</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="C258" s="0" t="s">
         <v>801</v>
       </c>
-      <c r="F245" s="3" t="s">
+      <c r="F258" s="0" t="s">
         <v>802</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="0" t="s">
-        <v>803</v>
-      </c>
-      <c r="B246" s="0" t="s">
-        <v>804</v>
-      </c>
-      <c r="C246" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="F246" s="3" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0" t="s">
-        <v>807</v>
-      </c>
-      <c r="B247" s="0" t="s">
-        <v>808</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="F247" s="3" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0" t="s">
-        <v>811</v>
-      </c>
-      <c r="B248" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="C248" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="F248" s="3" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0" t="s">
-        <v>815</v>
-      </c>
-      <c r="B249" s="0" t="s">
-        <v>816</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="F249" s="3" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0" t="s">
-        <v>819</v>
-      </c>
-      <c r="B250" s="0" t="s">
-        <v>820</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="F250" s="3" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
-        <v>823</v>
-      </c>
-      <c r="B251" s="0" t="s">
-        <v>824</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="F251" s="3" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="s">
-        <v>827</v>
-      </c>
-      <c r="B252" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="F252" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0" t="s">
-        <v>831</v>
-      </c>
-      <c r="B254" s="0" t="s">
-        <v>832</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="F254" s="3" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
-        <v>835</v>
-      </c>
-      <c r="B255" s="0" t="s">
-        <v>836</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="F255" s="3" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="s">
-        <v>839</v>
-      </c>
-      <c r="B256" s="0" t="s">
-        <v>840</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="F256" s="3" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
-        <v>843</v>
-      </c>
-      <c r="B257" s="0" t="s">
-        <v>844</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="F257" s="3" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>847</v>
+        <v>803</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>848</v>
-      </c>
-      <c r="E259" s="0" t="s">
-        <v>849</v>
+        <v>804</v>
+      </c>
+      <c r="C259" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="F259" s="0" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>850</v>
+        <v>807</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>851</v>
-      </c>
-      <c r="E260" s="0" t="s">
-        <v>852</v>
+        <v>808</v>
+      </c>
+      <c r="C260" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="F260" s="0" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>853</v>
+        <v>811</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>854</v>
-      </c>
-      <c r="E261" s="0" t="s">
-        <v>855</v>
+        <v>812</v>
+      </c>
+      <c r="C261" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="F261" s="0" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>856</v>
+        <v>815</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>857</v>
-      </c>
-      <c r="E262" s="0" t="s">
-        <v>858</v>
+        <v>816</v>
+      </c>
+      <c r="C262" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="F262" s="0" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="9" t="s">
-        <v>859</v>
+      <c r="A263" s="0" t="s">
+        <v>819</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>860</v>
-      </c>
-      <c r="E263" s="0" t="s">
-        <v>861</v>
+        <v>820</v>
+      </c>
+      <c r="C263" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="F263" s="0" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>862</v>
+        <v>823</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>863</v>
-      </c>
-      <c r="E264" s="0" t="s">
-        <v>864</v>
+        <v>824</v>
+      </c>
+      <c r="C264" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="F264" s="0" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="B265" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="C265" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="F265" s="0" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="F266" s="8" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="B268" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="B269" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="B270" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="B271" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="B272" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="B273" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="B274" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="B275" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="C275" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="B265" s="0" t="s">
+      <c r="F275" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="E265" s="0" t="s">
+    </row>
+    <row r="276" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0" t="s">
+      <c r="B276" s="0" t="s">
         <v>868</v>
       </c>
-      <c r="B266" s="0" t="s">
+      <c r="C276" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="E266" s="0" t="s">
+      <c r="F276" s="3" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="0" t="s">
+    <row r="278" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
         <v>871</v>
       </c>
-      <c r="B267" s="0" t="s">
+      <c r="B278" s="0" t="s">
         <v>872</v>
       </c>
-      <c r="E267" s="0" t="s">
+      <c r="C278" s="3" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="269" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="6" t="s">
+      <c r="F278" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="B269" s="0" t="s">
+    </row>
+    <row r="279" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
         <v>875</v>
       </c>
-      <c r="C269" s="3" t="s">
+      <c r="B279" s="0" t="s">
         <v>876</v>
       </c>
-      <c r="D269" s="0" t="s">
+      <c r="C279" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="E269" s="0" t="s">
-        <v>875</v>
-      </c>
-      <c r="F269" s="3" t="s">
+      <c r="F279" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="G269" s="0" t="s">
+    </row>
+    <row r="280" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="6" t="s">
+      <c r="B280" s="0" t="s">
         <v>880</v>
       </c>
-      <c r="B270" s="0" t="s">
+      <c r="C280" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="C270" s="0" t="s">
+      <c r="F280" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="E270" s="0" t="s">
-        <v>881</v>
-      </c>
-      <c r="F270" s="0" t="s">
+    </row>
+    <row r="281" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="6" t="s">
+      <c r="B281" s="0" t="s">
         <v>884</v>
       </c>
-      <c r="B271" s="0" t="s">
+      <c r="C281" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="C271" s="0" t="s">
+      <c r="F281" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="E271" s="0" t="s">
-        <v>885</v>
-      </c>
-      <c r="F271" s="0" t="s">
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="s">
         <v>887</v>
+      </c>
+      <c r="B283" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="E283" s="0" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B284" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="E284" s="0" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="B285" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="E285" s="0" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="s">
+        <v>896</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="E286" s="0" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="9" t="s">
+        <v>899</v>
+      </c>
+      <c r="B287" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="E287" s="0" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="B288" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="E288" s="0" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="B289" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="E289" s="0" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="B290" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="E290" s="0" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
+        <v>911</v>
+      </c>
+      <c r="B291" s="0" t="s">
+        <v>912</v>
+      </c>
+      <c r="E291" s="0" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="B293" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="D293" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="E293" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="G293" s="0" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="C294" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="E294" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="F294" s="0" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>925</v>
+      </c>
+      <c r="C295" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="E295" s="0" t="s">
+        <v>925</v>
+      </c>
+      <c r="F295" s="0" t="s">
+        <v>927</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C111" r:id="rId1" display="To specify playing sound in case you're using (FT Grouping=[FT-0]).\n&#10;\n&#10;C&gt;P:\n&#10; Chip sound is prior to the pad sound.\n&#10;P&gt;C:\n&#10; Pad sound is prior to the chip sound."/>
+    <hyperlink ref="C135" r:id="rId1" display="To specify playing sound in case you're using (FT Grouping=[FT-0]).\n&#10;\n&#10;C&gt;P:\n&#10; Chip sound is prior to the pad sound.\n&#10;P&gt;C:\n&#10; Pad sound is prior to the chip sound."/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -8041,52 +8411,47 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A7"/>
+  <dimension ref="A2:A6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="82.0795454545454"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.4261363636364"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="82.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.44"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>888</v>
+        <v>928</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>889</v>
+        <v>929</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>890</v>
+        <v>930</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>891</v>
+        <v>931</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>893</v>
+        <v>932</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>

--- a/RuntimeResources/System/resources.xlsx
+++ b/RuntimeResources/System/resources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="952">
   <si>
     <t xml:space="preserve">stringName</t>
   </si>
@@ -145,6 +145,94 @@
   </si>
   <si>
     <t xml:space="preserve">关</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strErrorLogWrite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Failed to write DTXManiaLog.txt. Please set it writable and try again.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">DTXManiaLog.txt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">への書き込みができませんでした。書き込みできるようにしてから、再度起動してください。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">strErrorDirectInputInitialize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Failed to initialize DirectInput (or MIDI-IN).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">DirectInput</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">または</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">MIDI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">入力の初期化に失敗しました。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">DTXManiaGR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を終了します。</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">strTitleCaution</t>
@@ -347,6 +435,105 @@
   </si>
   <si>
     <t xml:space="preserve">strSelectInfo10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strSelectMusicRandomSelect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; RANDOM SELECT &gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strSelectMusicRandomSelectLevelX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; RANDOM SELECT Lv.{0} &gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random select from the songs which has the level about L{0}. Non-leveled songs may also selected.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">難易度レベル </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">{0} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">付近の曲をランダムに選択します。難易度レベルを持たない曲も選択候補となります。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">strSelectBox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter into the BOX.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">BOX </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">に移動します。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">strSelectMusicBack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&lt; BACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exit from the BOX.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">BOX </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を出ます。</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">strCfgReturnToMenu</t>
@@ -4761,10 +4948,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J295"/>
+  <dimension ref="A1:J304"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C75" activeCellId="0" sqref="C75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4776,7 +4963,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="58.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="32.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="13.68"/>
@@ -5005,1199 +5192,1199 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="C19" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="B21" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="C21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>55</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="B24" s="0" t="s">
+        <v>57</v>
+      </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="2"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="2"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F30" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="34" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="2"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F34" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="F35" s="0" t="s">
+      <c r="C35" s="3" t="s">
         <v>83</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="F36" s="0" t="s">
-        <v>87</v>
-      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="F37" s="0" t="s">
-        <v>91</v>
-      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="F38" s="0" t="s">
-        <v>95</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="F39" s="0" t="s">
-        <v>99</v>
+        <v>88</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="F40" s="0" t="s">
-        <v>103</v>
+        <v>92</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E42" s="2"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E43" s="2"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="F44" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D45" s="6"/>
+      <c r="F45" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6" t="s">
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="B46" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="D46" s="6"/>
+      <c r="F46" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="6" t="s">
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="B47" s="6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="C47" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="D47" s="6"/>
+      <c r="F47" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="8" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="B48" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="C48" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="D48" s="6"/>
+      <c r="F48" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="8" t="s">
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="B49" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="C49" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="D49" s="6"/>
+      <c r="F49" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B45" s="0" t="s">
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="B50" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="C50" s="6" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B46" s="0" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="B51" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="F51" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="8" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="B52" s="0" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="C52" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="F52" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="6" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="B53" s="6" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="C53" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="D53" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="F53" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F49" s="8" t="s">
+    </row>
+    <row r="54" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="B54" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="C54" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="F54" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F50" s="8" t="s">
+    </row>
+    <row r="55" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="B55" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="C55" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="F55" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F51" s="8" t="s">
+    </row>
+    <row r="56" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="6" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="B56" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="C56" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="F56" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F52" s="8" t="s">
+    </row>
+    <row r="57" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="B57" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="C57" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="F57" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F53" s="8" t="s">
+    </row>
+    <row r="58" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="B58" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="C58" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="F58" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B63" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="C63" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="F63" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="F59" s="8" t="s">
+    </row>
+    <row r="64" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="B64" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="C64" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="F64" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F60" s="8" t="s">
+    </row>
+    <row r="65" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="B65" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="C65" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="F65" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F61" s="8" t="s">
+    </row>
+    <row r="66" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="B66" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="C66" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="F66" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="8" t="s">
+    </row>
+    <row r="67" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="B67" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="C67" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="F67" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="F63" s="8" t="s">
+    </row>
+    <row r="68" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="B68" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="C68" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="F68" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B73" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="C73" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="F73" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="D69" s="6" t="s">
+    </row>
+    <row r="74" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="B74" s="0" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="C74" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="F74" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C70" s="8" t="s">
+    </row>
+    <row r="75" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="B75" s="0" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="C75" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="F75" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C71" s="8" t="s">
+    </row>
+    <row r="76" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="B76" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="F76" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B72" s="0" t="s">
+    </row>
+    <row r="77" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="B77" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="C77" s="8" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="F77" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B73" s="0" t="s">
+    </row>
+    <row r="78" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="B78" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="C78" s="8" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="98.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="D78" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="F78" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C74" s="8" t="s">
+    </row>
+    <row r="79" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="B79" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="C79" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="F79" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="H74" s="6"/>
-    </row>
-    <row r="75" customFormat="false" ht="127.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+    </row>
+    <row r="80" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B80" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C80" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="D80" s="6" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="6" t="s">
+      <c r="F80" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="B76" s="0" t="s">
+    </row>
+    <row r="81" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="B81" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="C81" s="8" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="F81" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B77" s="0" t="s">
+    </row>
+    <row r="82" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="B82" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="F82" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B78" s="0" t="s">
+    </row>
+    <row r="83" customFormat="false" ht="98.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="B83" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="C83" s="8" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="D83" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="F83" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="G83" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" customFormat="false" ht="127.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="B84" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="C84" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="F84" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="F80" s="8" t="s">
+    </row>
+    <row r="85" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="6" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="6" t="s">
+      <c r="B85" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="C85" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="F85" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="F81" s="8" t="s">
+    </row>
+    <row r="86" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="B86" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="C86" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="F86" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="F82" s="8" t="s">
+    </row>
+    <row r="87" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="B87" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="C87" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="F87" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="F83" s="8" t="s">
+    </row>
+    <row r="88" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="B88" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="C88" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="F88" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="F84" s="8" t="s">
+    </row>
+    <row r="89" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="B89" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="8" t="s">
+      <c r="C89" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="F85" s="8"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="6"/>
-      <c r="C86" s="8"/>
-      <c r="F86" s="8"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="9" t="s">
+      <c r="F89" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B87" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="9"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="F88" s="6"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+    </row>
+    <row r="90" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B90" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C90" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="F89" s="6" t="s">
+      <c r="F90" s="8" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+    <row r="91" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B91" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C91" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="F90" s="0" t="s">
+      <c r="F91" s="8" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+    <row r="92" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B92" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C92" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="F92" s="8" t="s">
         <v>300</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="B94" s="6"/>
+      <c r="C94" s="8" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="F94" s="8"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="6"/>
+      <c r="C95" s="8"/>
+      <c r="F95" s="8"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="C94" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="F94" s="0" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
-        <v>313</v>
-      </c>
       <c r="B96" s="6" t="s">
-        <v>314</v>
+        <v>100</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>315</v>
+        <v>101</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>316</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>320</v>
-      </c>
+      <c r="A97" s="9"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="F97" s="6"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>328</v>
+        <v>313</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="F101" s="0" t="s">
-        <v>336</v>
+        <v>321</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="C106" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="F106" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="F103" s="6" t="s">
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="B107" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="C107" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="F107" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="D104" s="6" t="s">
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="B108" s="6" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="C108" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="F108" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C105" s="8" t="s">
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="B109" s="6" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="C109" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="F109" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C106" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="6"/>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="9" t="s">
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="B109" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="B110" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="B111" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C111" s="6" t="s">
+      <c r="C110" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="F111" s="0" t="s">
+      <c r="F110" s="0" t="s">
         <v>355</v>
       </c>
     </row>
@@ -6205,1096 +6392,1119 @@
       <c r="A112" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="0" t="s">
         <v>357</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="F112" s="0" t="s">
+      <c r="F112" s="6" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>360</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C113" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="F113" s="0" t="s">
+      <c r="D113" s="6" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F113" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C114" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="F114" s="0" t="s">
+      <c r="C114" s="8" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F114" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="F115" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="B115" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="F115" s="0" t="s">
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="6"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="9" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="F116" s="0" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>376</v>
-      </c>
       <c r="B118" s="6" t="s">
-        <v>290</v>
+        <v>100</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="F118" s="0" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="F119" s="0" t="s">
-        <v>380</v>
+        <v>101</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>361</v>
+        <v>309</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="B123" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="F123" s="0" t="s">
+      <c r="B124" s="6" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="125" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C124" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="B125" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="C125" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="B125" s="6" t="s">
         <v>392</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="F125" s="0" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="F128" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="F130" s="0" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="F131" s="0" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C132" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="B128" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="B129" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="B130" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="F130" s="8" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="B131" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="C131" s="8" t="s">
+      <c r="F132" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="D131" s="6" t="s">
+    </row>
+    <row r="134" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="F131" s="8" t="s">
+      <c r="B134" s="0" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="132" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+      <c r="C134" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="F134" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="C132" s="8" t="s">
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="D132" s="6" t="s">
+      <c r="B137" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="F132" s="8" t="s">
+      <c r="C137" s="0" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="133" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+      <c r="B138" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="C138" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="C133" s="8" t="s">
+      <c r="D138" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="F133" s="8" t="s">
+      <c r="F138" s="8" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+    <row r="139" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B139" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="C139" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="D134" s="6" t="s">
+      <c r="D139" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="F134" s="8" t="s">
+      <c r="F139" s="8" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+    <row r="140" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="B140" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C140" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="D135" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="F135" s="8" t="s">
+      <c r="D140" s="6" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="136" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+      <c r="F140" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="B136" s="0" t="s">
+    </row>
+    <row r="141" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="C136" s="8" t="s">
+      <c r="B141" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="D136" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="F136" s="8" t="s">
+      <c r="C141" s="8" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="138" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="D141" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="F141" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="C138" s="6" t="s">
+    </row>
+    <row r="142" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="F138" s="8" t="s">
+      <c r="B142" s="0" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+      <c r="C142" s="8" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="141" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+      <c r="F142" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="B141" s="0" t="s">
+    </row>
+    <row r="143" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="B143" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="F141" s="3" t="s">
+      <c r="C143" s="8" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+      <c r="D143" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="F143" s="8" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+    <row r="144" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="B143" s="0" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="B146" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="F145" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="C146" s="6" t="s">
+    </row>
+    <row r="147" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="F146" s="0" t="s">
+      <c r="B147" s="0" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+      <c r="C147" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="F147" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="C147" s="6" t="s">
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="F147" s="6" t="s">
+    </row>
+    <row r="150" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="148" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+      <c r="B150" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="B148" s="0" t="s">
+      <c r="C150" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="C148" s="8" t="s">
+      <c r="F150" s="3" t="s">
         <v>459</v>
-      </c>
-      <c r="F148" s="8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="F149" s="8" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="B150" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="F150" s="0" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="F151" s="0" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="F152" s="6" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
-        <v>477</v>
-      </c>
-      <c r="B153" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="C153" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="F153" s="0" t="s">
-        <v>480</v>
+      <c r="A152" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="F155" s="0" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="B158" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="B154" s="0" t="s">
+      <c r="C158" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="D158" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="D154" s="6" t="s">
+      <c r="F158" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="F154" s="8" t="s">
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="155" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+      <c r="B159" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="B155" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="C155" s="8" t="s">
+      <c r="C159" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="D155" s="6" t="s">
+      <c r="F159" s="0" t="s">
         <v>488</v>
-      </c>
-      <c r="F155" s="8" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
-        <v>490</v>
-      </c>
-      <c r="B156" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="F156" s="8" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="B158" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
-        <v>496</v>
-      </c>
-      <c r="B159" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="B161" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>504</v>
+        <v>489</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="F160" s="0" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="F162" s="0" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="B162" s="0" t="s">
+      <c r="B164" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="C164" s="8" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="164" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+      <c r="D164" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="C164" s="8" t="s">
+      <c r="F164" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="F164" s="8" t="s">
+    </row>
+    <row r="165" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
         <v>509</v>
       </c>
+      <c r="B165" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="B169" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="F169" s="6" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="B170" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="F170" s="6" t="s">
-        <v>517</v>
+      <c r="A169" s="0" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="B172" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="B173" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="C173" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="F173" s="3" t="s">
+      <c r="C173" s="8" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="174" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
+      <c r="F173" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="B174" s="0" t="s">
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="B178" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="F174" s="3" t="s">
+      <c r="C178" s="6" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="175" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
+      <c r="F178" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="B175" s="0" t="s">
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="B179" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="F175" s="3" t="s">
+      <c r="C179" s="6" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="176" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+      <c r="F179" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="B176" s="0" t="s">
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="B180" s="10" t="s">
         <v>538</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
-        <v>540</v>
-      </c>
-      <c r="B177" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="B178" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
-        <v>548</v>
-      </c>
-      <c r="B179" s="0" t="s">
-        <v>549</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="B180" s="0" t="s">
-        <v>553</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="F180" s="3" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="F198" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="B196" s="0" t="s">
-        <v>589</v>
-      </c>
-      <c r="C196" s="3" t="s">
+    </row>
+    <row r="199" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
         <v>611</v>
       </c>
-      <c r="F196" s="3" t="s">
+      <c r="B199" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="C199" s="3" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="197" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
+      <c r="F199" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="B197" s="6" t="s">
+    </row>
+    <row r="200" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
         <v>614</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="B200" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="C200" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="F197" s="3" t="s">
+      <c r="F200" s="3" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+    <row r="201" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
         <v>617</v>
       </c>
-      <c r="B200" s="0" t="s">
+      <c r="B201" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="C201" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="C200" s="6" t="s">
+      <c r="F201" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="F200" s="6" t="s">
+    </row>
+    <row r="202" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
+      <c r="B202" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="C202" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="B201" s="0" t="s">
+      <c r="F202" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="C201" s="6" t="s">
+    </row>
+    <row r="203" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
         <v>623</v>
       </c>
-      <c r="F201" s="6" t="s">
+      <c r="B203" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="C203" s="3" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
+      <c r="F203" s="3" t="s">
         <v>625</v>
-      </c>
-      <c r="B202" s="0" t="s">
-        <v>626</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="F202" s="6" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
-        <v>629</v>
-      </c>
-      <c r="B203" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="C203" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="F203" s="6" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="B206" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="B204" s="0" t="s">
+      <c r="C206" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="C204" s="8" t="s">
+      <c r="F206" s="3" t="s">
         <v>635</v>
-      </c>
-      <c r="F204" s="6" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="B209" s="0" t="s">
         <v>637</v>
       </c>
-      <c r="C209" s="0" t="s">
+      <c r="C209" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="F209" s="0" t="s">
+      <c r="F209" s="6" t="s">
         <v>639</v>
       </c>
     </row>
@@ -7302,1099 +7512,1166 @@
       <c r="A210" s="0" t="s">
         <v>640</v>
       </c>
-      <c r="C210" s="0" t="s">
+      <c r="B210" s="0" t="s">
         <v>641</v>
       </c>
-      <c r="F210" s="0" t="s">
+      <c r="C210" s="6" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C213" s="11"/>
-    </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
+      <c r="F210" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="B214" s="0" t="s">
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
         <v>644</v>
       </c>
-      <c r="C214" s="0" t="s">
+      <c r="B211" s="0" t="s">
         <v>645</v>
       </c>
-      <c r="F214" s="0" t="s">
+      <c r="C211" s="6" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
+      <c r="F211" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="B215" s="0" t="s">
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
         <v>648</v>
       </c>
-      <c r="C215" s="0" t="s">
+      <c r="B212" s="0" t="s">
         <v>649</v>
       </c>
-      <c r="F215" s="0" t="s">
+      <c r="C212" s="6" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
+      <c r="F212" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="B216" s="0" t="s">
+    </row>
+    <row r="213" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
         <v>652</v>
       </c>
-      <c r="C216" s="0" t="s">
+      <c r="B213" s="0" t="s">
         <v>653</v>
       </c>
-      <c r="F216" s="0" t="s">
+      <c r="C213" s="8" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
+      <c r="F213" s="6" t="s">
         <v>655</v>
-      </c>
-      <c r="B217" s="0" t="s">
-        <v>656</v>
-      </c>
-      <c r="C217" s="0" t="s">
-        <v>657</v>
-      </c>
-      <c r="F217" s="0" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>659</v>
-      </c>
-      <c r="B218" s="0" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>663</v>
-      </c>
-      <c r="B219" s="0" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
-        <v>667</v>
-      </c>
-      <c r="B220" s="0" t="s">
-        <v>668</v>
-      </c>
-      <c r="C220" s="0" t="s">
-        <v>669</v>
-      </c>
-      <c r="F220" s="0" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
-        <v>671</v>
-      </c>
-      <c r="B221" s="0" t="s">
-        <v>672</v>
-      </c>
-      <c r="C221" s="0" t="s">
-        <v>673</v>
-      </c>
-      <c r="F221" s="0" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
-        <v>675</v>
-      </c>
-      <c r="B222" s="0" t="s">
-        <v>676</v>
-      </c>
-      <c r="C222" s="0" t="s">
-        <v>677</v>
-      </c>
-      <c r="F222" s="0" t="s">
-        <v>678</v>
-      </c>
+      <c r="C222" s="11"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>652</v>
+        <v>683</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>668</v>
+        <v>699</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>672</v>
+        <v>703</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>652</v>
+        <v>715</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>732</v>
+        <v>671</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>664</v>
+        <v>726</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>668</v>
+        <v>730</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>748</v>
+        <v>691</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>760</v>
+        <v>671</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>768</v>
+        <v>726</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>772</v>
+        <v>683</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>776</v>
+        <v>687</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>780</v>
+        <v>691</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>782</v>
+        <v>765</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>783</v>
+        <v>766</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="F254" s="0" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="F255" s="0" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="F258" s="0" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="F259" s="0" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>808</v>
+        <v>779</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>809</v>
+        <v>780</v>
       </c>
       <c r="F260" s="0" t="s">
-        <v>810</v>
+        <v>781</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>812</v>
+        <v>783</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>813</v>
+        <v>784</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>814</v>
+        <v>785</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>816</v>
+        <v>787</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>817</v>
+        <v>788</v>
       </c>
       <c r="F262" s="0" t="s">
-        <v>818</v>
+        <v>789</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>820</v>
+        <v>791</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>821</v>
+        <v>792</v>
       </c>
       <c r="F263" s="0" t="s">
-        <v>822</v>
+        <v>793</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>823</v>
+        <v>806</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>824</v>
+        <v>807</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>825</v>
+        <v>808</v>
       </c>
       <c r="F264" s="0" t="s">
-        <v>826</v>
+        <v>809</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="B265" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="C265" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="F265" s="0" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="C266" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="F266" s="0" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="B267" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="C267" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="F267" s="0" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="B268" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="C268" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="F268" s="0" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="B269" s="0" t="s">
         <v>827</v>
       </c>
-      <c r="B265" s="0" t="s">
+      <c r="C269" s="0" t="s">
         <v>828</v>
       </c>
-      <c r="C265" s="0" t="s">
+      <c r="F269" s="0" t="s">
         <v>829</v>
       </c>
-      <c r="F265" s="0" t="s">
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="266" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0" t="s">
+      <c r="B270" s="0" t="s">
         <v>831</v>
       </c>
-      <c r="B266" s="0" t="s">
+      <c r="C270" s="0" t="s">
         <v>832</v>
       </c>
-      <c r="C266" s="6" t="s">
+      <c r="F270" s="0" t="s">
         <v>833</v>
       </c>
-      <c r="F266" s="8" t="s">
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="268" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="0" t="s">
+      <c r="B271" s="0" t="s">
         <v>835</v>
       </c>
-      <c r="B268" s="0" t="s">
+      <c r="C271" s="0" t="s">
         <v>836</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="F271" s="0" t="s">
         <v>837</v>
       </c>
-      <c r="F268" s="3" t="s">
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="269" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="0" t="s">
+      <c r="B272" s="0" t="s">
         <v>839</v>
       </c>
-      <c r="B269" s="0" t="s">
+      <c r="C272" s="0" t="s">
         <v>840</v>
       </c>
-      <c r="C269" s="3" t="s">
+      <c r="F272" s="0" t="s">
         <v>841</v>
       </c>
-      <c r="F269" s="3" t="s">
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="270" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="0" t="s">
+      <c r="B273" s="0" t="s">
         <v>843</v>
       </c>
-      <c r="B270" s="0" t="s">
+      <c r="C273" s="0" t="s">
         <v>844</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="F273" s="0" t="s">
         <v>845</v>
       </c>
-      <c r="F270" s="3" t="s">
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="271" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="0" t="s">
+      <c r="B274" s="0" t="s">
         <v>847</v>
       </c>
-      <c r="B271" s="0" t="s">
+      <c r="C274" s="0" t="s">
         <v>848</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="F274" s="0" t="s">
         <v>849</v>
-      </c>
-      <c r="F271" s="3" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="0" t="s">
-        <v>851</v>
-      </c>
-      <c r="B272" s="0" t="s">
-        <v>852</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="F272" s="3" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="0" t="s">
-        <v>855</v>
-      </c>
-      <c r="B273" s="0" t="s">
-        <v>856</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="F273" s="3" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="0" t="s">
-        <v>859</v>
-      </c>
-      <c r="B274" s="0" t="s">
-        <v>860</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="F274" s="3" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="B275" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="F275" s="8" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="B277" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="B278" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="B279" s="0" t="s">
         <v>863</v>
       </c>
-      <c r="B275" s="0" t="s">
+      <c r="C279" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="C275" s="3" t="s">
+      <c r="F279" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="F275" s="3" t="s">
+    </row>
+    <row r="280" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="276" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="0" t="s">
+      <c r="B280" s="0" t="s">
         <v>867</v>
       </c>
-      <c r="B276" s="0" t="s">
+      <c r="C280" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="F280" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="F276" s="3" t="s">
+    </row>
+    <row r="281" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="278" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="0" t="s">
+      <c r="B281" s="0" t="s">
         <v>871</v>
       </c>
-      <c r="B278" s="0" t="s">
+      <c r="C281" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="F281" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="F278" s="3" t="s">
+    </row>
+    <row r="282" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="279" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="0" t="s">
+      <c r="B282" s="0" t="s">
         <v>875</v>
       </c>
-      <c r="B279" s="0" t="s">
+      <c r="C282" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="C279" s="3" t="s">
+      <c r="F282" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="F279" s="3" t="s">
+    </row>
+    <row r="283" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="280" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="0" t="s">
+      <c r="B283" s="0" t="s">
         <v>879</v>
       </c>
-      <c r="B280" s="0" t="s">
+      <c r="C283" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="F283" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="F280" s="3" t="s">
+    </row>
+    <row r="284" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="281" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="0" t="s">
+      <c r="B284" s="0" t="s">
         <v>883</v>
       </c>
-      <c r="B281" s="0" t="s">
+      <c r="C284" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="C281" s="3" t="s">
+      <c r="F284" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="F281" s="3" t="s">
+    </row>
+    <row r="285" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="0" t="s">
+      <c r="B285" s="0" t="s">
         <v>887</v>
       </c>
-      <c r="B283" s="0" t="s">
+      <c r="C285" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="E283" s="0" t="s">
+      <c r="F285" s="3" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="0" t="s">
+    <row r="287" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="s">
         <v>890</v>
       </c>
-      <c r="B284" s="0" t="s">
+      <c r="B287" s="0" t="s">
         <v>891</v>
       </c>
-      <c r="E284" s="0" t="s">
+      <c r="C287" s="3" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="0" t="s">
+      <c r="F287" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="B285" s="0" t="s">
+    </row>
+    <row r="288" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="s">
         <v>894</v>
       </c>
-      <c r="E285" s="0" t="s">
+      <c r="B288" s="0" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="0" t="s">
+      <c r="C288" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="B286" s="0" t="s">
+      <c r="F288" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="E286" s="0" t="s">
+    </row>
+    <row r="289" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="9" t="s">
+      <c r="B289" s="0" t="s">
         <v>899</v>
       </c>
-      <c r="B287" s="0" t="s">
+      <c r="C289" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="E287" s="0" t="s">
+      <c r="F289" s="3" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="0" t="s">
+    <row r="290" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="s">
         <v>902</v>
       </c>
-      <c r="B288" s="0" t="s">
+      <c r="B290" s="0" t="s">
         <v>903</v>
       </c>
-      <c r="E288" s="0" t="s">
+      <c r="C290" s="3" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="0" t="s">
+      <c r="F290" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="B289" s="0" t="s">
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="s">
         <v>906</v>
       </c>
-      <c r="E289" s="0" t="s">
+      <c r="B292" s="0" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="0" t="s">
+      <c r="E292" s="0" t="s">
         <v>908</v>
       </c>
-      <c r="B290" s="0" t="s">
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
         <v>909</v>
       </c>
-      <c r="E290" s="0" t="s">
+      <c r="B293" s="0" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="0" t="s">
+      <c r="E293" s="0" t="s">
         <v>911</v>
       </c>
-      <c r="B291" s="0" t="s">
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
         <v>912</v>
       </c>
-      <c r="E291" s="0" t="s">
+      <c r="B294" s="0" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="293" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="6" t="s">
+      <c r="E294" s="0" t="s">
         <v>914</v>
       </c>
-      <c r="B293" s="0" t="s">
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="s">
         <v>915</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="B295" s="0" t="s">
         <v>916</v>
       </c>
-      <c r="D293" s="0" t="s">
+      <c r="E295" s="0" t="s">
         <v>917</v>
       </c>
-      <c r="E293" s="0" t="s">
-        <v>915</v>
-      </c>
-      <c r="F293" s="3" t="s">
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="9" t="s">
         <v>918</v>
       </c>
-      <c r="G293" s="0" t="s">
+      <c r="B296" s="0" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="6" t="s">
+      <c r="E296" s="0" t="s">
         <v>920</v>
       </c>
-      <c r="B294" s="0" t="s">
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="s">
         <v>921</v>
       </c>
-      <c r="C294" s="0" t="s">
+      <c r="B297" s="0" t="s">
         <v>922</v>
       </c>
-      <c r="E294" s="0" t="s">
-        <v>921</v>
-      </c>
-      <c r="F294" s="0" t="s">
+      <c r="E297" s="0" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="6" t="s">
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="s">
         <v>924</v>
       </c>
-      <c r="B295" s="0" t="s">
+      <c r="B298" s="0" t="s">
         <v>925</v>
       </c>
-      <c r="C295" s="0" t="s">
+      <c r="E298" s="0" t="s">
         <v>926</v>
       </c>
-      <c r="E295" s="0" t="s">
-        <v>925</v>
-      </c>
-      <c r="F295" s="0" t="s">
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="s">
         <v>927</v>
+      </c>
+      <c r="B299" s="0" t="s">
+        <v>928</v>
+      </c>
+      <c r="E299" s="0" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="E300" s="0" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="D302" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="E302" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="G302" s="0" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="6" t="s">
+        <v>939</v>
+      </c>
+      <c r="B303" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="C303" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="E303" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="F303" s="0" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="B304" s="0" t="s">
+        <v>944</v>
+      </c>
+      <c r="C304" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="E304" s="0" t="s">
+        <v>944</v>
+      </c>
+      <c r="F304" s="0" t="s">
+        <v>946</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C135" r:id="rId1" display="To specify playing sound in case you're using (FT Grouping=[FT-0]).\n&#10;\n&#10;C&gt;P:\n&#10; Chip sound is prior to the pad sound.\n&#10;P&gt;C:\n&#10; Pad sound is prior to the chip sound."/>
+    <hyperlink ref="C144" r:id="rId1" display="To specify playing sound in case you're using (FT Grouping=[FT-0]).\n&#10;\n&#10;C&gt;P:\n&#10; Chip sound is prior to the pad sound.\n&#10;P&gt;C:\n&#10; Pad sound is prior to the chip sound."/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -8425,27 +8702,27 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>928</v>
+        <v>947</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>929</v>
+        <v>948</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>930</v>
+        <v>949</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>931</v>
+        <v>950</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>932</v>
+        <v>951</v>
       </c>
     </row>
   </sheetData>

--- a/RuntimeResources/System/resources.xlsx
+++ b/RuntimeResources/System/resources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="955">
   <si>
     <t xml:space="preserve">stringName</t>
   </si>
@@ -704,6 +704,9 @@
   <si>
     <t xml:space="preserve">HALF: 背景、レーン、ゲージが表示されなくなります。\n
 FULL: さらに小節線、拍線、判定ライン、パッドも表示されなくなります。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">关,HALF,FULL</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgSysRisky</t>
@@ -1209,7 +1212,7 @@
     <t xml:space="preserve">About displaying the lag from the \"just timing\".\n
  OFF:    Don't show it.\n
  ON:     Show it.\n
- UGreat: Show it except you've gotten PERFECT.</t>
+ GREAT-: Show it except you've gotten PERFECT.</t>
   </si>
   <si>
     <r>
@@ -1271,6 +1274,9 @@
  UGreat: PERFECT以外の時のみ表示します。</t>
   </si>
   <si>
+    <t xml:space="preserve">关,开,GREAT-</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgSysAutoResultCapture</t>
   </si>
   <si>
@@ -1376,11 +1382,11 @@
   <si>
     <t xml:space="preserve">Sound output type:\n
 You can choose WASAPI(Exclueive/Shared), ASIO or DSound(DirectSound).\n
-ASIO needs "ASIO-supported" sound device.\n
+ASIO needs "ASIO-supported" sound device, and ASIO’s buffer size have to be specified by other apps (ASIO caps, etc)\n
 \n
 You should use WASAPI(Exclusive) or ASIO to decrease the sound lag.\n
 \n
-Note: Exit CONFIGURATION to make the setting take effect.</t>
+Note: Exit CONFIGURATION to make the setting take effect. If “WASAPI Exclusive” become “WASAPI Shared”forcibly, rebooting DTXMania may solve it.</t>
   </si>
   <si>
     <r>
@@ -1418,9 +1424,9 @@
     <t xml:space="preserve">サウンドの出力方式:\n
 WASAPI(排他/共有), ASIO, DSound(DirectSound)の中からサウンド出力方式を選択します。\n
 ASIOは対応機器でのみ使用できます。\n
-WASAPI排他かASIOを指定することで、遅延の少ない演奏を楽しむことができます。\n
+WASAPI排他かASIOを指定することで、遅延の少ない演奏を楽しむことができます。ASIO使用時、バッファ量はASIO capsなどの外部アプリで設定してください。\n
 \n
-※ 設定はCONFIGURATION画面の終了時に有効になります。</t>
+※ 設定はCONFIGURATION画面の終了時に有効になります。WASAPI排他を指定してもWASAPI共有になってしまう場合は、アプリを再起動してみてください。</t>
   </si>
   <si>
     <r>
@@ -1467,18 +1473,36 @@
 Smaller value makes smaller lag, but it may cause sound troubles.
 So if you use poor CPU PC (tablet etc), please specify a little bigger value.\n
 \n
-Note: Exit CONFIGURATION to make the setting take effect.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WASAPI使用時のバッファサイズ:\n
-\n
+Note: Exit CONFIGURATION to make the setting take effect. If “WASAPI Exclusive” become “WASAPI Shared”forcibly, rebooting DTXMania may solve it.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WASAPI使用時のバッファサイズ:\n
 0を指定すると、設定可能な最小のバッファサイズを自動設定します。
 1以上を指定すると、その値以上で指定可能な最小のバッファサイズを自動設定します。\n
 \n
 値を小さくするほど発音遅延が減少しますが、音割れや性能低下などの問題が発生する場合があります。
 タブレットなど性能の低いPCを使う場合は、手動で大きめの値を指定してください。\n
 \n
-※ 設定はCONFIGURATION画面の終了時に有効になります。</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+※ 設定はCONFIGURATION画面の終了時に有効になります。WASAPI排他を指定してもWASAPI共有になってしまう場合は、アプリを再起動してみてください。</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">strCfgSysWASAPIEventDriven</t>
@@ -2902,6 +2926,9 @@
     <t xml:space="preserve">演奏時のドラムコンボ文字列の位置を指定します。</t>
   </si>
   <si>
+    <t xml:space="preserve">左,中心,右,关</t>
+  </si>
+  <si>
     <t xml:space="preserve">//strCfgDrComboPosition</t>
   </si>
   <si>
@@ -4709,7 +4736,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -4767,6 +4794,17 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FFA31515"/>
+      <name val="MS Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -4822,7 +4860,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4859,11 +4897,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4950,8 +4992,8 @@
   </sheetPr>
   <dimension ref="A1:J304"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5558,7 +5600,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>127</v>
       </c>
@@ -5574,619 +5616,625 @@
       <c r="F51" s="8" t="s">
         <v>131</v>
       </c>
+      <c r="J51" s="9" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="98.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="128.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" customFormat="false" ht="127.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="8" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F94" s="8"/>
     </row>
@@ -6196,8 +6244,8 @@
       <c r="F95" s="8"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="9" t="s">
-        <v>307</v>
+      <c r="A96" s="10" t="s">
+        <v>309</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>100</v>
@@ -6210,249 +6258,249 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="9"/>
+      <c r="A97" s="10"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="F97" s="6"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C115" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="F115" s="8" t="s">
         <v>370</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="9" t="s">
-        <v>371</v>
+      <c r="A118" s="10" t="s">
+        <v>373</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>100</v>
@@ -6466,2207 +6514,2213 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="D144" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="B144" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="D144" s="6" t="s">
-        <v>441</v>
-      </c>
       <c r="F144" s="8" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F160" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="J160" s="9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="C161" s="6" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="9" t="s">
+      <c r="D161" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="F161" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="C161" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="F161" s="6" t="s">
-        <v>493</v>
+      <c r="J161" s="9" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="C165" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="B165" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>506</v>
-      </c>
       <c r="D165" s="6" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="B178" s="10" t="s">
-        <v>530</v>
+        <v>532</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>533</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="B179" s="10" t="s">
-        <v>534</v>
+        <v>536</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>537</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="B180" s="10" t="s">
-        <v>538</v>
+        <v>540</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="11"/>
+      <c r="C222" s="12"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="F254" s="0" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="F255" s="0" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="F258" s="0" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="F259" s="0" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="F260" s="0" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="F262" s="0" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="F263" s="0" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="F264" s="0" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="F265" s="0" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="F266" s="0" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="F267" s="0" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="F268" s="0" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="F269" s="0" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="F270" s="0" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="F271" s="0" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="F272" s="0" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="F273" s="0" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="F274" s="0" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="F275" s="8" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="E292" s="0" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="E293" s="0" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="E294" s="0" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="E295" s="0" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="9" t="s">
-        <v>918</v>
+      <c r="A296" s="10" t="s">
+        <v>921</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="E296" s="0" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="E297" s="0" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="E298" s="0" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="E299" s="0" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="E300" s="0" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="D302" s="0" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="E302" s="0" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="G302" s="0" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="E303" s="0" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="F303" s="0" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="E304" s="0" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="F304" s="0" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
     </row>
   </sheetData>
@@ -8702,27 +8756,27 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
     </row>
   </sheetData>

--- a/RuntimeResources/System/resources.xlsx
+++ b/RuntimeResources/System/resources.xlsx
@@ -738,7 +738,7 @@
 Both: Both Drums and Guitar/Bass are available.</t>
   </si>
   <si>
-    <t xml:space="preserve">DrOnly,GBOnly,Both</t>
+    <t xml:space="preserve">Both,DrOnly,GBOnly</t>
   </si>
   <si>
     <t xml:space="preserve">使用楽器の選択：\n
@@ -1476,33 +1476,14 @@
 Note: Exit CONFIGURATION to make the setting take effect. If “WASAPI Exclusive” become “WASAPI Shared”forcibly, rebooting DTXMania may solve it.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FFA31515"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WASAPI使用時のバッファサイズ:\n
+    <t xml:space="preserve">WASAPI使用時のバッファサイズ:\n
 0を指定すると、設定可能な最小のバッファサイズを自動設定します。
 1以上を指定すると、その値以上で指定可能な最小のバッファサイズを自動設定します。\n
 \n
 値を小さくするほど発音遅延が減少しますが、音割れや性能低下などの問題が発生する場合があります。
 タブレットなど性能の低いPCを使う場合は、手動で大きめの値を指定してください。\n
 \n
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FFA31515"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
 ※ 設定はCONFIGURATION画面の終了時に有効になります。WASAPI排他を指定してもWASAPI共有になってしまう場合は、アプリを再起動してみてください。</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">strCfgSysWASAPIEventDriven</t>
@@ -4736,7 +4717,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -4794,17 +4775,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9.5"/>
-      <color rgb="FFA31515"/>
-      <name val="MS Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -4860,7 +4830,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4897,15 +4867,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4992,8 +4958,8 @@
   </sheetPr>
   <dimension ref="A1:J304"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D54" activeCellId="0" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5616,7 +5582,7 @@
       <c r="F51" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="J51" s="9" t="s">
+      <c r="J51" s="4" t="s">
         <v>132</v>
       </c>
     </row>
@@ -6244,7 +6210,7 @@
       <c r="F95" s="8"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="9" t="s">
         <v>309</v>
       </c>
       <c r="B96" s="6" t="s">
@@ -6258,7 +6224,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="10"/>
+      <c r="A97" s="9"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="F97" s="6"/>
@@ -6499,7 +6465,7 @@
       <c r="B116" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="9" t="s">
         <v>373</v>
       </c>
       <c r="B118" s="6" t="s">
@@ -6993,15 +6959,15 @@
       <c r="F160" s="0" t="s">
         <v>495</v>
       </c>
-      <c r="J160" s="9" t="s">
+      <c r="J160" s="4" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="10" t="s">
+      <c r="A161" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="B161" s="10" t="s">
+      <c r="B161" s="9" t="s">
         <v>498</v>
       </c>
       <c r="C161" s="6" t="s">
@@ -7013,7 +6979,7 @@
       <c r="F161" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="J161" s="9" t="s">
+      <c r="J161" s="4" t="s">
         <v>496</v>
       </c>
     </row>
@@ -7152,7 +7118,7 @@
       <c r="A178" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="B178" s="11" t="s">
+      <c r="B178" s="10" t="s">
         <v>533</v>
       </c>
       <c r="C178" s="6" t="s">
@@ -7166,7 +7132,7 @@
       <c r="A179" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="B179" s="11" t="s">
+      <c r="B179" s="10" t="s">
         <v>537</v>
       </c>
       <c r="C179" s="6" t="s">
@@ -7180,7 +7146,7 @@
       <c r="A180" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="B180" s="11" t="s">
+      <c r="B180" s="10" t="s">
         <v>541</v>
       </c>
     </row>
@@ -7641,7 +7607,7 @@
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="12"/>
+      <c r="C222" s="11"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
@@ -8612,7 +8578,7 @@
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="10" t="s">
+      <c r="A296" s="9" t="s">
         <v>921</v>
       </c>
       <c r="B296" s="0" t="s">

--- a/RuntimeResources/System/resources.xlsx
+++ b/RuntimeResources/System/resources.xlsx
@@ -820,11 +820,94 @@
   </si>
   <si>
     <t xml:space="preserve">Power plan will be changed to High Performance when DTXMania starts.\n
-(Power plan will be recovered when DTXMania terminates)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DTXMania起動時に、強制的に電源プランを「高パフォーマンス」にします。\n
-(DTXMania終了時、電源プランは元に戻ります)</t>
+(Power plan will be recovered when DTXMania terminates)\n
+\n
+The feature will be ignored in case the OS is Win10(1709) or above, or using ConnectedStandby-supported PC.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DTXMania</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">起動時に、強制的に電源プランを「高パフォーマンス」にします。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\n
+(DTXMania</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">終了時、電源プランは元に戻ります</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)\n
+\n
+ConnectedStandby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">機能を搭載する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">PC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">や、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Windows10(1709)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">以降の環境では、この設定は無視されます。</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">strCfgSysFullScreen</t>
@@ -4717,7 +4800,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -4775,6 +4858,16 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -4830,7 +4923,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4867,11 +4960,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4958,11 +5055,11 @@
   </sheetPr>
   <dimension ref="A1:J304"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D54" activeCellId="0" sqref="D54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C57" activeCellId="0" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.51"/>
@@ -5645,17 +5742,17 @@
         <v>149</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
         <v>150</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="9" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6210,7 +6307,7 @@
       <c r="F95" s="8"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="10" t="s">
         <v>309</v>
       </c>
       <c r="B96" s="6" t="s">
@@ -6224,7 +6321,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="9"/>
+      <c r="A97" s="10"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="F97" s="6"/>
@@ -6465,7 +6562,7 @@
       <c r="B116" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="10" t="s">
         <v>373</v>
       </c>
       <c r="B118" s="6" t="s">
@@ -6964,10 +7061,10 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="9" t="s">
+      <c r="A161" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B161" s="10" t="s">
         <v>498</v>
       </c>
       <c r="C161" s="6" t="s">
@@ -7118,7 +7215,7 @@
       <c r="A178" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="B178" s="10" t="s">
+      <c r="B178" s="11" t="s">
         <v>533</v>
       </c>
       <c r="C178" s="6" t="s">
@@ -7132,7 +7229,7 @@
       <c r="A179" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="B179" s="10" t="s">
+      <c r="B179" s="11" t="s">
         <v>537</v>
       </c>
       <c r="C179" s="6" t="s">
@@ -7146,7 +7243,7 @@
       <c r="A180" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="B180" s="10" t="s">
+      <c r="B180" s="11" t="s">
         <v>541</v>
       </c>
     </row>
@@ -7607,7 +7704,7 @@
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="11"/>
+      <c r="C222" s="12"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
@@ -8578,7 +8675,7 @@
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="9" t="s">
+      <c r="A296" s="10" t="s">
         <v>921</v>
       </c>
       <c r="B296" s="0" t="s">
@@ -8714,7 +8811,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="82.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.44"/>

--- a/RuntimeResources/System/resources.xlsx
+++ b/RuntimeResources/System/resources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="971">
   <si>
     <t xml:space="preserve">stringName</t>
   </si>
@@ -830,6 +830,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">DTXMania</t>
     </r>
@@ -838,6 +839,7 @@
         <sz val="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">起動時に、強制的に電源プランを「高パフォーマンス」にします。</t>
     </r>
@@ -846,6 +848,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">\n
 (DTXMania</t>
@@ -855,6 +858,7 @@
         <sz val="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">終了時、電源プランは元に戻ります</t>
     </r>
@@ -863,6 +867,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)\n
 \n
@@ -873,6 +878,7 @@
         <sz val="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">機能を搭載する</t>
     </r>
@@ -881,6 +887,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">PC</t>
     </r>
@@ -889,6 +896,7 @@
         <sz val="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">や、</t>
     </r>
@@ -897,6 +905,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Windows10(1709)</t>
     </r>
@@ -905,6 +914,7 @@
         <sz val="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">以降の環境では、この設定は無視されます。</t>
     </r>
@@ -2912,6 +2922,21 @@
     <t xml:space="preserve">DisplayCombo</t>
   </si>
   <si>
+    <t xml:space="preserve">To show, or NOT to show, the Combo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">演奏時のコンボ文字列の表示有無を指定します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">左,中心,右,关</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//strCfgDrComboPosition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ComboPosition</t>
+  </si>
+  <si>
     <t xml:space="preserve">The display position for Drums Combo.</t>
   </si>
   <si>
@@ -2990,13 +3015,40 @@
     <t xml:space="preserve">演奏時のドラムコンボ文字列の位置を指定します。</t>
   </si>
   <si>
-    <t xml:space="preserve">左,中心,右,关</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//strCfgDrComboPosition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ComboPosition</t>
+    <t xml:space="preserve">strCfgDrCombo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DrumsCombo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To show, or NOT to show, the Drums Combo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFF,ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">演奏時のドラムコンボ文字列を表示するかどうかを指定します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GuitarCombo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To show, or NOT to show, the Guitar Combo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">演奏時のギターコンボ文字列を表示するかどうかを指定します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgBsCombo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BassCombo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To show, or NOT to show, the Bass Combo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">演奏時のベースコンボ文字列を表示するかどうかを指定します。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgDgbDisplayJudge</t>
@@ -3014,7 +3066,7 @@
     <t xml:space="preserve">//strCfgDrJudgePosition</t>
   </si>
   <si>
-    <t xml:space="preserve">JudgePosition</t>
+    <t xml:space="preserve">DrumsJudgePosition</t>
   </si>
   <si>
     <t xml:space="preserve">The position to show judgement mark.\n
@@ -3084,6 +3136,9 @@
   </si>
   <si>
     <t xml:space="preserve">//strCfgGtJudgePosition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GuitarJudgePosition</t>
   </si>
   <si>
     <t xml:space="preserve">The position to show judgement mark.\n
@@ -3155,6 +3210,9 @@
   </si>
   <si>
     <t xml:space="preserve">//strCfgBsJudgePosition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BassJudgePosition</t>
   </si>
   <si>
     <t xml:space="preserve">ベースの判定文字の表示位置を指定します。\n
@@ -4800,7 +4858,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -4858,16 +4916,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -4923,7 +4971,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4960,15 +5008,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5053,10 +5097,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J304"/>
+  <dimension ref="A1:J307"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C57" activeCellId="0" sqref="C57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A154" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D160" activeCellId="0" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5749,10 +5793,10 @@
       <c r="B56" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="5" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6307,7 +6351,7 @@
       <c r="F95" s="8"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="9" t="s">
         <v>309</v>
       </c>
       <c r="B96" s="6" t="s">
@@ -6321,7 +6365,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="10"/>
+      <c r="A97" s="9"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="F97" s="6"/>
@@ -6562,7 +6606,7 @@
       <c r="B116" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="9" t="s">
         <v>373</v>
       </c>
       <c r="B118" s="6" t="s">
@@ -7050,1740 +7094,1792 @@
       <c r="C160" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="D160" s="6" t="s">
+      <c r="D160" s="6"/>
+      <c r="F160" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="F160" s="0" t="s">
+      <c r="J160" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="J160" s="4" t="s">
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="9" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="10" t="s">
+      <c r="B161" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="B161" s="10" t="s">
+      <c r="C161" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="C161" s="6" t="s">
-        <v>493</v>
-      </c>
       <c r="D161" s="6" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="F161" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="J161" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="J161" s="4" t="s">
-        <v>496</v>
-      </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
-        <v>499</v>
-      </c>
-      <c r="B162" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="C162" s="0" t="s">
+      <c r="A162" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="F162" s="0" t="s">
+      <c r="B162" s="9" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="163" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+      <c r="C162" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="B163" s="0" t="s">
+      <c r="D162" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="F162" s="6" t="s">
         <v>505</v>
       </c>
+      <c r="J162" s="4"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>507</v>
+      </c>
       <c r="D163" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="F163" s="8" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="F163" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="B164" s="0" t="s">
+      <c r="J163" s="4"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="D164" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="C164" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="F164" s="8" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F164" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="J164" s="4"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="F165" s="8" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>514</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="F165" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>524</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>524</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="F168" s="8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>525</v>
+        <v>531</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>532</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>535</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="F173" s="8" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="B178" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="F178" s="6" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="B179" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="F179" s="6" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="4" t="s">
+      <c r="B173" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="B180" s="11" t="s">
+      <c r="C173" s="3" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="181" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
+      <c r="F173" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="B181" s="0" t="s">
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
         <v>543</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="B174" s="0" t="s">
         <v>544</v>
       </c>
-      <c r="F181" s="3" t="s">
+    </row>
+    <row r="176" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="182" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
+      <c r="C176" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="B182" s="0" t="s">
+      <c r="F176" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="C182" s="3" t="s">
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="F182" s="3" t="s">
+      <c r="B181" s="10" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="183" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
+      <c r="C181" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="B183" s="0" t="s">
+      <c r="F181" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="C183" s="3" t="s">
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="F183" s="3" t="s">
+      <c r="B182" s="10" t="s">
         <v>553</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>587</v>
+        <v>619</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>591</v>
+        <v>623</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>595</v>
+        <v>627</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>635</v>
-      </c>
-      <c r="B206" s="6" t="s">
-        <v>636</v>
+        <v>642</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>619</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>639</v>
-      </c>
-      <c r="B209" s="0" t="s">
-        <v>640</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="F209" s="6" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
-        <v>643</v>
-      </c>
-      <c r="B210" s="0" t="s">
-        <v>644</v>
-      </c>
-      <c r="C210" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="F210" s="6" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
-        <v>647</v>
-      </c>
-      <c r="B211" s="0" t="s">
-        <v>648</v>
-      </c>
-      <c r="C211" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="F211" s="6" t="s">
-        <v>650</v>
+        <v>651</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>656</v>
-      </c>
-      <c r="C213" s="8" t="s">
-        <v>657</v>
+        <v>660</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>661</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
-        <v>659</v>
-      </c>
-      <c r="C218" s="0" t="s">
-        <v>660</v>
-      </c>
-      <c r="F218" s="0" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
         <v>662</v>
       </c>
-      <c r="C219" s="0" t="s">
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
         <v>663</v>
       </c>
-      <c r="F219" s="0" t="s">
+      <c r="B214" s="0" t="s">
         <v>664</v>
       </c>
+      <c r="C214" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="F214" s="6" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="F215" s="6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="F216" s="6" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="F221" s="0" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="12"/>
-    </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
-        <v>665</v>
-      </c>
-      <c r="B223" s="0" t="s">
-        <v>666</v>
-      </c>
-      <c r="C223" s="0" t="s">
-        <v>667</v>
-      </c>
-      <c r="F223" s="0" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
-        <v>669</v>
-      </c>
-      <c r="B224" s="0" t="s">
-        <v>670</v>
-      </c>
-      <c r="C224" s="0" t="s">
-        <v>671</v>
-      </c>
-      <c r="F224" s="0" t="s">
-        <v>672</v>
+      <c r="A222" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="C222" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="F222" s="0" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
-        <v>673</v>
-      </c>
-      <c r="B225" s="0" t="s">
-        <v>674</v>
-      </c>
-      <c r="C225" s="0" t="s">
-        <v>675</v>
-      </c>
-      <c r="F225" s="0" t="s">
-        <v>676</v>
-      </c>
+      <c r="C225" s="11"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>674</v>
+        <v>726</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>733</v>
+        <v>690</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>690</v>
+        <v>741</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>694</v>
+        <v>745</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>747</v>
+        <v>706</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>674</v>
+        <v>710</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>690</v>
+        <v>770</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>694</v>
+        <v>745</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>770</v>
+        <v>702</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>774</v>
+        <v>706</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>778</v>
+        <v>710</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="F254" s="0" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="F255" s="0" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="F258" s="0" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="F259" s="0" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>782</v>
+        <v>810</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>783</v>
+        <v>811</v>
       </c>
       <c r="F260" s="0" t="s">
-        <v>784</v>
+        <v>812</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>786</v>
+        <v>814</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>787</v>
+        <v>815</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>788</v>
+        <v>816</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>790</v>
+        <v>818</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>791</v>
+        <v>819</v>
       </c>
       <c r="F262" s="0" t="s">
-        <v>792</v>
+        <v>820</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="F263" s="0" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="F264" s="0" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="F265" s="0" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="F266" s="0" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="F267" s="0" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="F268" s="0" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="F269" s="0" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="F270" s="0" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="F271" s="0" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="F272" s="0" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="F273" s="0" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="F274" s="0" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>854</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>855</v>
-      </c>
-      <c r="F275" s="8" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>858</v>
+      </c>
+      <c r="C275" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="F275" s="0" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="B276" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="C276" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="F276" s="0" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>858</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="F277" s="3" t="s">
-        <v>860</v>
+        <v>866</v>
+      </c>
+      <c r="C277" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="F277" s="0" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>862</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="F278" s="3" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="0" t="s">
-        <v>865</v>
-      </c>
-      <c r="B279" s="0" t="s">
-        <v>866</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="F279" s="3" t="s">
-        <v>868</v>
+        <v>870</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="F278" s="8" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="0" t="s">
-        <v>901</v>
-      </c>
-      <c r="B289" s="0" t="s">
-        <v>902</v>
-      </c>
-      <c r="C289" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="F289" s="3" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
+        <v>913</v>
+      </c>
+      <c r="B291" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>910</v>
-      </c>
-      <c r="E292" s="0" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>918</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>912</v>
+        <v>921</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>913</v>
-      </c>
-      <c r="E293" s="0" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="0" t="s">
-        <v>915</v>
-      </c>
-      <c r="B294" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="E294" s="0" t="s">
-        <v>917</v>
+        <v>922</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>918</v>
+        <v>925</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>919</v>
+        <v>926</v>
       </c>
       <c r="E295" s="0" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="10" t="s">
-        <v>921</v>
+      <c r="A296" s="0" t="s">
+        <v>928</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>922</v>
+        <v>929</v>
       </c>
       <c r="E296" s="0" t="s">
-        <v>923</v>
+        <v>930</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="E297" s="0" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="E298" s="0" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="0" t="s">
-        <v>930</v>
+      <c r="A299" s="9" t="s">
+        <v>937</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="E299" s="0" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="E300" s="0" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="6" t="s">
-        <v>936</v>
+        <v>942</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>944</v>
+      </c>
+      <c r="E301" s="0" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="s">
+        <v>946</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>937</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>938</v>
-      </c>
-      <c r="D302" s="0" t="s">
-        <v>939</v>
+        <v>947</v>
       </c>
       <c r="E302" s="0" t="s">
-        <v>937</v>
-      </c>
-      <c r="F302" s="3" t="s">
-        <v>940</v>
-      </c>
-      <c r="G302" s="0" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="6" t="s">
-        <v>942</v>
+      <c r="A303" s="0" t="s">
+        <v>949</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>943</v>
-      </c>
-      <c r="C303" s="0" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="E303" s="0" t="s">
-        <v>943</v>
-      </c>
-      <c r="F303" s="0" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="6" t="s">
-        <v>946</v>
-      </c>
-      <c r="B304" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="C304" s="0" t="s">
-        <v>948</v>
-      </c>
-      <c r="E304" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="F304" s="0" t="s">
-        <v>949</v>
+        <v>951</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="B305" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="D305" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="E305" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="G305" s="0" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="6" t="s">
+        <v>958</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="C306" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="E306" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="F306" s="0" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="B307" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="C307" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="E307" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="F307" s="0" t="s">
+        <v>965</v>
       </c>
     </row>
   </sheetData>
@@ -8819,27 +8915,27 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>950</v>
+        <v>966</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>951</v>
+        <v>967</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>952</v>
+        <v>968</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>953</v>
+        <v>969</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>954</v>
+        <v>970</v>
       </c>
     </row>
   </sheetData>

--- a/RuntimeResources/System/resources.xlsx
+++ b/RuntimeResources/System/resources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="976">
   <si>
     <t xml:space="preserve">stringName</t>
   </si>
@@ -84,6 +84,9 @@
     <t xml:space="preserve">表示言語を切り替えます。</t>
   </si>
   <si>
+    <t xml:space="preserve">语言</t>
+  </si>
+  <si>
     <t xml:space="preserve">您可以切换显示语言。</t>
   </si>
   <si>
@@ -108,6 +111,12 @@
     <t xml:space="preserve">strCfgSelectMusicSongListFontFileName</t>
   </si>
   <si>
+    <t xml:space="preserve">cannot use yet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">まだ使えません</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgSelectMusicSongCommentFontFileName</t>
   </si>
   <si>
@@ -127,6 +136,12 @@
   </si>
   <si>
     <t xml:space="preserve">strCfgConfigurationDescriptionFontFileName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgConfigurationKeyAssignFontFileName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgPopupFontFileName</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgOn</t>
@@ -5097,10 +5112,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J307"/>
+  <dimension ref="A1:J309"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A154" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D160" activeCellId="0" sqref="D160"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5173,7 +5188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>15</v>
       </c>
@@ -5189,1545 +5204,1589 @@
       <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="H3" s="0" t="s">
+        <v>20</v>
+      </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="3"/>
+      <c r="A16" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="H17" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="H18" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="C18" s="3"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="H19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="H20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="C21" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B23" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="C23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="E23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="1"/>
+      <c r="F23" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>60</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>62</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>59</v>
-      </c>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E27" s="2"/>
-      <c r="F27" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E28" s="2"/>
-      <c r="F28" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="C31" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="E34" s="2"/>
+      <c r="F34" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="0" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="C35" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="C36" s="3" t="s">
         <v>85</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F36" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>90</v>
-      </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="F39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="0" t="s">
-        <v>93</v>
-      </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="F40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="0" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="1" t="s">
+      <c r="C42" s="0" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E42" s="2"/>
-      <c r="F42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>102</v>
+      </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="F44" s="0" t="s">
-        <v>102</v>
-      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="F45" s="0" t="s">
-        <v>106</v>
-      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D46" s="6"/>
       <c r="F46" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D47" s="6"/>
       <c r="F47" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D48" s="6"/>
       <c r="F48" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D49" s="6"/>
       <c r="F49" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="F50" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B50" s="6" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="B51" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="D51" s="6"/>
+      <c r="F51" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B51" s="6" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J51" s="4" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="B53" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="C53" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="D53" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F53" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="J53" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B55" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C55" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="D55" s="8" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="F55" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B55" s="0" t="s">
+    </row>
+    <row r="56" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="B56" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="s">
+      <c r="F56" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B56" s="0" t="s">
+    </row>
+    <row r="57" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="B57" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="C57" s="8" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="F57" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B57" s="0" t="s">
+    </row>
+    <row r="58" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="B58" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="C58" s="5" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="F58" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B58" s="0" t="s">
+    </row>
+    <row r="59" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="B59" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="C59" s="6" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="F59" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B59" s="6" t="s">
+    </row>
+    <row r="60" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="B60" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="C60" s="6" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="F60" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B60" s="0" t="s">
+    </row>
+    <row r="61" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="B61" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="C61" s="6" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="F61" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B61" s="0" t="s">
+    </row>
+    <row r="62" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="B62" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="F62" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B62" s="0" t="s">
+    </row>
+    <row r="63" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="B63" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="F63" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B63" s="0" t="s">
+    </row>
+    <row r="64" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="B64" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="F64" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B64" s="0" t="s">
+    </row>
+    <row r="65" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="B65" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="C65" s="8" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="F65" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B66" s="0" t="s">
+    </row>
+    <row r="67" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="B67" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="C67" s="8" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="F67" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B67" s="0" t="s">
+    </row>
+    <row r="68" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="B68" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="C68" s="6" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="F68" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B68" s="0" t="s">
+    </row>
+    <row r="69" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="B69" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="C69" s="8" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="F69" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B69" s="0" t="s">
+    </row>
+    <row r="70" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="B70" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="F70" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B70" s="0" t="s">
+    </row>
+    <row r="71" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="B71" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="F71" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B71" s="6" t="s">
+    </row>
+    <row r="72" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="B72" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="E71" s="6"/>
-      <c r="F71" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="F72" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B72" s="0" t="s">
+    </row>
+    <row r="73" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="B73" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="C73" s="6" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="E73" s="6"/>
+      <c r="F73" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B73" s="0" t="s">
+    </row>
+    <row r="74" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="B74" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="C74" s="6" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="F74" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B75" s="0" t="s">
+    </row>
+    <row r="76" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="B76" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="F76" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B76" s="0" t="s">
+    </row>
+    <row r="77" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="B77" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="C77" s="8" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="F77" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B77" s="0" t="s">
+    </row>
+    <row r="78" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="B78" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="C78" s="8" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="F78" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B78" s="0" t="s">
+    </row>
+    <row r="79" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="B79" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="C79" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F79" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="J78" s="0" t="s">
+    </row>
+    <row r="80" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="B80" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="C80" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="D80" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F80" s="8" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="J80" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="B80" s="0" t="s">
+    </row>
+    <row r="81" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="B81" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="C81" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F81" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+    <row r="82" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B82" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="D82" s="6" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="F82" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B82" s="0" t="s">
+    </row>
+    <row r="83" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="B83" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="C83" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="128.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="F83" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B83" s="0" t="s">
+    </row>
+    <row r="84" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="B84" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="C84" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F84" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="G83" s="6" t="s">
+    </row>
+    <row r="85" customFormat="false" ht="128.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="H83" s="6"/>
-    </row>
-    <row r="84" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="B85" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="C85" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="D85" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F85" s="8" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="6" t="s">
+      <c r="G85" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="B86" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="C86" s="8" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="F86" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B86" s="0" t="s">
+    </row>
+    <row r="87" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="B87" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="C87" s="8" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="F87" s="8" t="s">
         <v>279</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F88" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B88" s="0" t="s">
+    </row>
+    <row r="89" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="B89" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="C89" s="8" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="F89" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="B89" s="0" t="s">
+    </row>
+    <row r="90" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="B90" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="C90" s="8" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="6" t="s">
+      <c r="F90" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B90" s="6" t="s">
+    </row>
+    <row r="91" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="B91" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="C91" s="8" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="F91" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="B91" s="6" t="s">
+    </row>
+    <row r="92" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="B92" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="C92" s="8" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="F92" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="B92" s="6" t="s">
+    </row>
+    <row r="93" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="B93" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="C93" s="8" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="F93" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="F94" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="B94" s="6"/>
-      <c r="C94" s="8" t="s">
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="F94" s="8"/>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="6"/>
-      <c r="C95" s="8"/>
-      <c r="F95" s="8"/>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="9" t="s">
+      <c r="B95" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>102</v>
-      </c>
+      <c r="C95" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B96" s="6"/>
+      <c r="C96" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F96" s="8"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="9"/>
       <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="F97" s="6"/>
+      <c r="C97" s="8"/>
+      <c r="F97" s="8"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
-        <v>310</v>
+      <c r="A98" s="9" t="s">
+        <v>314</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>311</v>
+        <v>105</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>313</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="F99" s="0" t="s">
-        <v>317</v>
-      </c>
+      <c r="A99" s="9"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="F99" s="6"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F100" s="6" t="s">
         <v>318</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="F101" s="0" t="s">
         <v>322</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F102" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="F103" s="0" t="s">
-        <v>325</v>
+      <c r="F103" s="6" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="B104" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="0" t="s">
         <v>332</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C105" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="B105" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>337</v>
+      <c r="F105" s="0" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="F106" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F107" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="F107" s="6" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="F108" s="6" t="s">
         <v>346</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="F109" s="6" t="s">
         <v>350</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="F110" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="B110" s="6" t="s">
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="B111" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="F110" s="0" t="s">
+      <c r="C111" s="6" t="s">
         <v>357</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="B112" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="B112" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="F112" s="6" t="s">
+      <c r="C112" s="0" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="F112" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="B113" s="6" t="s">
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="B114" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="C114" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="F113" s="8" t="s">
+      <c r="F114" s="6" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+    <row r="115" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B115" s="6" t="s">
         <v>368</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>372</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>369</v>
       </c>
+      <c r="D115" s="6" t="s">
+        <v>370</v>
+      </c>
       <c r="F115" s="8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="6"/>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>102</v>
-      </c>
+      <c r="B118" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
-        <v>374</v>
+      <c r="A120" s="9" t="s">
+        <v>378</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>311</v>
+        <v>105</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="F120" s="0" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="F121" s="0" t="s">
-        <v>380</v>
+        <v>106</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="F122" s="0" t="s">
         <v>381</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="F122" s="0" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F123" s="0" t="s">
         <v>385</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="F123" s="0" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="F124" s="0" t="s">
         <v>389</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="F124" s="0" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="F125" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B125" s="6" t="s">
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="B126" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="F125" s="0" t="s">
+      <c r="C126" s="6" t="s">
         <v>396</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>311</v>
+        <v>399</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="F128" s="0" t="s">
         <v>401</v>
       </c>
     </row>
@@ -6736,245 +6795,254 @@
         <v>402</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>382</v>
+        <v>316</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C132" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="F132" s="0" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="F132" s="0" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C133" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="F133" s="0" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="B134" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="F134" s="3" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+      <c r="B134" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F134" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="B137" s="0" t="s">
+    </row>
+    <row r="136" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="C137" s="0" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="B136" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="C136" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C138" s="8" t="s">
+      <c r="F136" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="D138" s="6" t="s">
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="F138" s="8" t="s">
+      <c r="B139" s="0" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="139" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+      <c r="C139" s="0" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="B140" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C140" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="D139" s="6" t="s">
+      <c r="D140" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="F139" s="8" t="s">
+      <c r="F140" s="8" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+    <row r="141" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="B141" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C141" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="D140" s="6" t="s">
+      <c r="D141" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="F140" s="8" t="s">
+      <c r="F141" s="8" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+    <row r="142" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B142" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C142" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="D141" s="6" t="s">
+      <c r="D142" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="F141" s="8" t="s">
+      <c r="F142" s="8" t="s">
         <v>435</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="B142" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="F143" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="B143" s="0" t="s">
+    </row>
+    <row r="144" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="C143" s="8" t="s">
+      <c r="B144" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="D143" s="6" t="s">
+      <c r="C144" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="F143" s="8" t="s">
+      <c r="F144" s="8" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+    <row r="145" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B145" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="C144" s="8" t="s">
+      <c r="C145" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="D144" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="F144" s="8" t="s">
+      <c r="D145" s="6" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="145" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+      <c r="F145" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="B145" s="0" t="s">
+    </row>
+    <row r="146" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="B146" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="D145" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="F145" s="8" t="s">
+      <c r="C146" s="8" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="147" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D146" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="C147" s="6" t="s">
         <v>455</v>
       </c>
+      <c r="C147" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="F147" s="8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="B149" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="C149" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="F150" s="3" t="s">
+      <c r="F149" s="8" t="s">
         <v>461</v>
       </c>
     </row>
@@ -6982,254 +7050,239 @@
       <c r="A151" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="B151" s="0" t="s">
+    </row>
+    <row r="152" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+      <c r="B152" s="0" t="s">
         <v>464</v>
       </c>
-      <c r="B152" s="0" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C152" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="D154" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="F154" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+    </row>
+    <row r="156" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="B155" s="0" t="s">
+      <c r="B156" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C156" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="F155" s="0" t="s">
+      <c r="D156" s="6" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+      <c r="F156" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="B156" s="0" t="s">
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="B157" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="F156" s="6" t="s">
+      <c r="C157" s="6" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="157" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+      <c r="F157" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="B157" s="0" t="s">
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="B158" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="F157" s="8" t="s">
+      <c r="C158" s="6" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="158" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+      <c r="F158" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="B158" s="6" t="s">
+    </row>
+    <row r="159" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="B159" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="D158" s="6" t="s">
+      <c r="C159" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="F158" s="8" t="s">
+      <c r="F159" s="8" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+    <row r="160" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
         <v>487</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="B160" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C160" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="F159" s="0" t="s">
+      <c r="D160" s="6" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+      <c r="F160" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="B160" s="0" t="s">
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="B161" s="0" t="s">
         <v>493</v>
       </c>
-      <c r="D160" s="6"/>
-      <c r="F160" s="0" t="s">
+      <c r="C161" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="J160" s="4" t="s">
+      <c r="F161" s="0" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="9" t="s">
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B162" s="0" t="s">
         <v>497</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="C162" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="D161" s="6" t="s">
+      <c r="D162" s="6"/>
+      <c r="F162" s="0" t="s">
         <v>499</v>
       </c>
-      <c r="F161" s="6" t="s">
+      <c r="J162" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="J161" s="4" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="F162" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="J162" s="4"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B163" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="B163" s="9" t="s">
-        <v>506</v>
-      </c>
       <c r="C163" s="6" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>504</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="J163" s="4"/>
+        <v>505</v>
+      </c>
+      <c r="J163" s="4" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="D164" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="F164" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="J164" s="4"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B165" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="D164" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="F164" s="6" t="s">
+      <c r="C165" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="J164" s="4"/>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
+      <c r="D165" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="F165" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="B165" s="0" t="s">
+      <c r="J165" s="4"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="C165" s="0" t="s">
+      <c r="B166" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="F165" s="0" t="s">
+      <c r="C166" s="6" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="166" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
+      <c r="D166" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="F166" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="B166" s="0" t="s">
+      <c r="J166" s="4"/>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="C166" s="8" t="s">
+      <c r="B167" s="0" t="s">
         <v>519</v>
       </c>
-      <c r="D166" s="6" t="s">
+      <c r="C167" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="F166" s="8" t="s">
+      <c r="F167" s="0" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+    <row r="168" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
         <v>522</v>
       </c>
-      <c r="B167" s="0" t="s">
+      <c r="B168" s="0" t="s">
         <v>523</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="D167" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="F167" s="8" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="B168" s="0" t="s">
-        <v>528</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>524</v>
@@ -7238,50 +7291,65 @@
         <v>525</v>
       </c>
       <c r="F168" s="8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="C169" s="8" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="170" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D169" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="F169" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="D170" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="B170" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+      <c r="F170" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="B171" s="0" t="s">
+    </row>
+    <row r="172" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
         <v>535</v>
       </c>
-      <c r="C171" s="8" t="s">
+      <c r="B172" s="0" t="s">
         <v>536</v>
       </c>
-      <c r="F171" s="3" t="s">
+      <c r="C172" s="8" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+      <c r="F172" s="3" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
         <v>539</v>
       </c>
       <c r="B173" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="8" t="s">
         <v>541</v>
       </c>
       <c r="F173" s="3" t="s">
@@ -7292,1046 +7360,1037 @@
       <c r="A174" s="0" t="s">
         <v>543</v>
       </c>
-      <c r="B174" s="0" t="s">
+    </row>
+    <row r="175" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="176" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="F176" s="8" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="B181" s="10" t="s">
+      <c r="B176" s="0" t="s">
         <v>549</v>
       </c>
-      <c r="C181" s="6" t="s">
+    </row>
+    <row r="178" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
         <v>550</v>
       </c>
-      <c r="F181" s="6" t="s">
+      <c r="C178" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="4" t="s">
+      <c r="F178" s="8" t="s">
         <v>552</v>
-      </c>
-      <c r="B182" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="F182" s="6" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F183" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="B183" s="10" t="s">
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="4" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="184" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
+      <c r="B184" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="B184" s="0" t="s">
+      <c r="C184" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="F184" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="F184" s="3" t="s">
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="4" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="185" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
+      <c r="B185" s="10" t="s">
         <v>562</v>
-      </c>
-      <c r="B185" s="0" t="s">
-        <v>563</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="F185" s="3" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="F186" s="3" t="s">
         <v>566</v>
-      </c>
-      <c r="B186" s="0" t="s">
-        <v>567</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F186" s="3" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="F187" s="3" t="s">
         <v>570</v>
-      </c>
-      <c r="B187" s="0" t="s">
-        <v>571</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="F187" s="3" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F188" s="3" t="s">
         <v>574</v>
-      </c>
-      <c r="B188" s="0" t="s">
-        <v>575</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="F188" s="3" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="F189" s="3" t="s">
         <v>578</v>
-      </c>
-      <c r="B189" s="0" t="s">
-        <v>579</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="F190" s="3" t="s">
         <v>582</v>
-      </c>
-      <c r="B190" s="0" t="s">
-        <v>583</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="F191" s="3" t="s">
         <v>586</v>
-      </c>
-      <c r="B191" s="0" t="s">
-        <v>587</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="F191" s="3" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="F192" s="3" t="s">
         <v>590</v>
-      </c>
-      <c r="B192" s="0" t="s">
-        <v>591</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="F193" s="3" t="s">
         <v>594</v>
-      </c>
-      <c r="B193" s="0" t="s">
-        <v>595</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="F193" s="3" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="F194" s="3" t="s">
         <v>598</v>
-      </c>
-      <c r="B194" s="0" t="s">
-        <v>599</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="F195" s="3" t="s">
         <v>602</v>
-      </c>
-      <c r="B195" s="0" t="s">
-        <v>603</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="F195" s="3" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="F196" s="3" t="s">
         <v>606</v>
-      </c>
-      <c r="B196" s="0" t="s">
-        <v>607</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="F196" s="3" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="F197" s="3" t="s">
         <v>610</v>
-      </c>
-      <c r="B197" s="0" t="s">
-        <v>611</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="F197" s="3" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="F198" s="3" t="s">
         <v>614</v>
-      </c>
-      <c r="B198" s="0" t="s">
-        <v>615</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="F198" s="3" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="F199" s="3" t="s">
         <v>618</v>
-      </c>
-      <c r="B199" s="0" t="s">
-        <v>619</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="F199" s="3" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="F200" s="3" t="s">
         <v>622</v>
-      </c>
-      <c r="B200" s="0" t="s">
-        <v>623</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="F200" s="3" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F201" s="3" t="s">
         <v>626</v>
-      </c>
-      <c r="B201" s="0" t="s">
-        <v>627</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="F201" s="3" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="F202" s="3" t="s">
         <v>630</v>
-      </c>
-      <c r="B202" s="0" t="s">
-        <v>603</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="F202" s="3" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="C203" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="B203" s="0" t="s">
-        <v>607</v>
-      </c>
-      <c r="C203" s="3" t="s">
+      <c r="F203" s="3" t="s">
         <v>634</v>
-      </c>
-      <c r="F203" s="3" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="C204" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="B204" s="0" t="s">
-        <v>611</v>
-      </c>
-      <c r="C204" s="3" t="s">
+      <c r="F204" s="3" t="s">
         <v>637</v>
-      </c>
-      <c r="F204" s="3" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="C205" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="B205" s="0" t="s">
-        <v>615</v>
-      </c>
-      <c r="C205" s="3" t="s">
+      <c r="F205" s="3" t="s">
         <v>640</v>
-      </c>
-      <c r="F205" s="3" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="C206" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="B206" s="0" t="s">
-        <v>619</v>
-      </c>
-      <c r="C206" s="3" t="s">
+      <c r="F206" s="3" t="s">
         <v>643</v>
-      </c>
-      <c r="F206" s="3" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="C207" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="B207" s="0" t="s">
-        <v>623</v>
-      </c>
-      <c r="C207" s="3" t="s">
+      <c r="F207" s="3" t="s">
         <v>646</v>
-      </c>
-      <c r="F207" s="3" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="B208" s="0" t="s">
-        <v>627</v>
-      </c>
-      <c r="C208" s="3" t="s">
+      <c r="F208" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="F208" s="3" t="s">
+    </row>
+    <row r="209" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="209" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
+      <c r="B209" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="C209" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="B209" s="6" t="s">
+      <c r="F209" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="C209" s="3" t="s">
+    </row>
+    <row r="210" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
         <v>653</v>
       </c>
-      <c r="F209" s="3" t="s">
+      <c r="B210" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="C210" s="3" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
+      <c r="F210" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="B212" s="0" t="s">
+    </row>
+    <row r="211" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
         <v>656</v>
       </c>
-      <c r="C212" s="6" t="s">
+      <c r="B211" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="F212" s="6" t="s">
+      <c r="C211" s="3" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
+      <c r="F211" s="3" t="s">
         <v>659</v>
-      </c>
-      <c r="B213" s="0" t="s">
-        <v>660</v>
-      </c>
-      <c r="C213" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="F213" s="6" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="F214" s="6" t="s">
         <v>663</v>
-      </c>
-      <c r="B214" s="0" t="s">
-        <v>664</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="F214" s="6" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="F215" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="B215" s="0" t="s">
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
         <v>668</v>
       </c>
-      <c r="C215" s="6" t="s">
+      <c r="B216" s="0" t="s">
         <v>669</v>
       </c>
-      <c r="F215" s="6" t="s">
+      <c r="C216" s="6" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="216" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
+      <c r="F216" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="B216" s="0" t="s">
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
         <v>672</v>
       </c>
-      <c r="C216" s="8" t="s">
+      <c r="B217" s="0" t="s">
         <v>673</v>
       </c>
-      <c r="F216" s="6" t="s">
+      <c r="C217" s="6" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
+      <c r="F217" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="C221" s="0" t="s">
+    </row>
+    <row r="218" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
         <v>676</v>
       </c>
-      <c r="F221" s="0" t="s">
+      <c r="B218" s="0" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
+      <c r="C218" s="8" t="s">
         <v>678</v>
       </c>
-      <c r="C222" s="0" t="s">
+      <c r="F218" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="F222" s="0" t="s">
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C225" s="11"/>
-    </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
+      <c r="C223" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="B226" s="0" t="s">
+      <c r="F223" s="0" t="s">
         <v>682</v>
       </c>
-      <c r="C226" s="0" t="s">
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
         <v>683</v>
       </c>
-      <c r="F226" s="0" t="s">
+      <c r="C224" s="0" t="s">
         <v>684</v>
       </c>
+      <c r="F224" s="0" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
-        <v>685</v>
-      </c>
-      <c r="B227" s="0" t="s">
-        <v>686</v>
-      </c>
-      <c r="C227" s="0" t="s">
-        <v>687</v>
-      </c>
-      <c r="F227" s="0" t="s">
-        <v>688</v>
-      </c>
+      <c r="C227" s="11"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="C228" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="F228" s="0" t="s">
         <v>689</v>
-      </c>
-      <c r="B228" s="0" t="s">
-        <v>690</v>
-      </c>
-      <c r="C228" s="0" t="s">
-        <v>691</v>
-      </c>
-      <c r="F228" s="0" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="F229" s="0" t="s">
         <v>693</v>
-      </c>
-      <c r="B229" s="0" t="s">
-        <v>694</v>
-      </c>
-      <c r="C229" s="0" t="s">
-        <v>695</v>
-      </c>
-      <c r="F229" s="0" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="C230" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="F230" s="0" t="s">
         <v>697</v>
-      </c>
-      <c r="B230" s="0" t="s">
-        <v>698</v>
-      </c>
-      <c r="C230" s="0" t="s">
-        <v>699</v>
-      </c>
-      <c r="F230" s="0" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="C231" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="F231" s="0" t="s">
         <v>701</v>
-      </c>
-      <c r="B231" s="0" t="s">
-        <v>702</v>
-      </c>
-      <c r="C231" s="0" t="s">
-        <v>703</v>
-      </c>
-      <c r="F231" s="0" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="F232" s="0" t="s">
         <v>705</v>
-      </c>
-      <c r="B232" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="C232" s="0" t="s">
-        <v>707</v>
-      </c>
-      <c r="F232" s="0" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="C233" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="F233" s="0" t="s">
         <v>709</v>
-      </c>
-      <c r="B233" s="0" t="s">
-        <v>710</v>
-      </c>
-      <c r="C233" s="0" t="s">
-        <v>711</v>
-      </c>
-      <c r="F233" s="0" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="C234" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="F234" s="0" t="s">
         <v>713</v>
-      </c>
-      <c r="B234" s="0" t="s">
-        <v>714</v>
-      </c>
-      <c r="C234" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="F234" s="0" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="C235" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="F235" s="0" t="s">
         <v>717</v>
-      </c>
-      <c r="B235" s="0" t="s">
-        <v>718</v>
-      </c>
-      <c r="C235" s="0" t="s">
-        <v>719</v>
-      </c>
-      <c r="F235" s="0" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="C236" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="F236" s="0" t="s">
         <v>721</v>
-      </c>
-      <c r="B236" s="0" t="s">
-        <v>722</v>
-      </c>
-      <c r="C236" s="0" t="s">
-        <v>723</v>
-      </c>
-      <c r="F236" s="0" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="C237" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="F237" s="0" t="s">
         <v>725</v>
-      </c>
-      <c r="B237" s="0" t="s">
-        <v>726</v>
-      </c>
-      <c r="C237" s="0" t="s">
-        <v>727</v>
-      </c>
-      <c r="F237" s="0" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="C238" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="F238" s="0" t="s">
         <v>729</v>
-      </c>
-      <c r="B238" s="0" t="s">
-        <v>730</v>
-      </c>
-      <c r="C238" s="0" t="s">
-        <v>731</v>
-      </c>
-      <c r="F238" s="0" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="B239" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="C239" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="F239" s="0" t="s">
         <v>733</v>
-      </c>
-      <c r="B239" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="C239" s="0" t="s">
-        <v>735</v>
-      </c>
-      <c r="F239" s="0" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="C240" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="F240" s="0" t="s">
         <v>737</v>
-      </c>
-      <c r="B240" s="0" t="s">
-        <v>690</v>
-      </c>
-      <c r="C240" s="0" t="s">
-        <v>738</v>
-      </c>
-      <c r="F240" s="0" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="C241" s="0" t="s">
         <v>740</v>
       </c>
-      <c r="B241" s="0" t="s">
+      <c r="F241" s="0" t="s">
         <v>741</v>
-      </c>
-      <c r="C241" s="0" t="s">
-        <v>742</v>
-      </c>
-      <c r="F241" s="0" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="B242" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="C242" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="F242" s="0" t="s">
         <v>744</v>
-      </c>
-      <c r="B242" s="0" t="s">
-        <v>745</v>
-      </c>
-      <c r="C242" s="0" t="s">
-        <v>746</v>
-      </c>
-      <c r="F242" s="0" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="B243" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="C243" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="F243" s="0" t="s">
         <v>748</v>
-      </c>
-      <c r="B243" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="C243" s="0" t="s">
-        <v>750</v>
-      </c>
-      <c r="F243" s="0" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="C244" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="F244" s="0" t="s">
         <v>752</v>
-      </c>
-      <c r="B244" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="C244" s="0" t="s">
-        <v>753</v>
-      </c>
-      <c r="F244" s="0" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="C245" s="0" t="s">
         <v>755</v>
       </c>
-      <c r="B245" s="0" t="s">
-        <v>710</v>
-      </c>
-      <c r="C245" s="0" t="s">
+      <c r="F245" s="0" t="s">
         <v>756</v>
-      </c>
-      <c r="F245" s="0" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="B246" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="C246" s="0" t="s">
         <v>758</v>
       </c>
-      <c r="B246" s="0" t="s">
+      <c r="F246" s="0" t="s">
         <v>759</v>
-      </c>
-      <c r="C246" s="0" t="s">
-        <v>760</v>
-      </c>
-      <c r="F246" s="0" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="C247" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="F247" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="B247" s="0" t="s">
-        <v>763</v>
-      </c>
-      <c r="C247" s="0" t="s">
-        <v>764</v>
-      </c>
-      <c r="F247" s="0" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="C248" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="F248" s="0" t="s">
         <v>766</v>
-      </c>
-      <c r="B248" s="0" t="s">
-        <v>690</v>
-      </c>
-      <c r="C248" s="0" t="s">
-        <v>767</v>
-      </c>
-      <c r="F248" s="0" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="C249" s="0" t="s">
         <v>769</v>
       </c>
-      <c r="B249" s="0" t="s">
+      <c r="F249" s="0" t="s">
         <v>770</v>
-      </c>
-      <c r="C249" s="0" t="s">
-        <v>771</v>
-      </c>
-      <c r="F249" s="0" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="C250" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="F250" s="0" t="s">
         <v>773</v>
-      </c>
-      <c r="B250" s="0" t="s">
-        <v>745</v>
-      </c>
-      <c r="C250" s="0" t="s">
-        <v>774</v>
-      </c>
-      <c r="F250" s="0" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="C251" s="0" t="s">
         <v>776</v>
       </c>
-      <c r="B251" s="0" t="s">
-        <v>702</v>
-      </c>
-      <c r="C251" s="0" t="s">
+      <c r="F251" s="0" t="s">
         <v>777</v>
-      </c>
-      <c r="F251" s="0" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="C252" s="0" t="s">
         <v>779</v>
       </c>
-      <c r="B252" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="C252" s="0" t="s">
+      <c r="F252" s="0" t="s">
         <v>780</v>
-      </c>
-      <c r="F252" s="0" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="C253" s="0" t="s">
         <v>782</v>
       </c>
-      <c r="B253" s="0" t="s">
-        <v>710</v>
-      </c>
-      <c r="C253" s="0" t="s">
+      <c r="F253" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="F253" s="0" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="C254" s="0" t="s">
         <v>785</v>
       </c>
-      <c r="B254" s="0" t="s">
+      <c r="F254" s="0" t="s">
         <v>786</v>
-      </c>
-      <c r="C254" s="0" t="s">
-        <v>787</v>
-      </c>
-      <c r="F254" s="0" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="C255" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="F255" s="0" t="s">
         <v>789</v>
-      </c>
-      <c r="B255" s="0" t="s">
-        <v>790</v>
-      </c>
-      <c r="C255" s="0" t="s">
-        <v>791</v>
-      </c>
-      <c r="F255" s="0" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="C256" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="F256" s="0" t="s">
         <v>793</v>
-      </c>
-      <c r="B256" s="0" t="s">
-        <v>794</v>
-      </c>
-      <c r="C256" s="0" t="s">
-        <v>795</v>
-      </c>
-      <c r="F256" s="0" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="C257" s="0" t="s">
+        <v>796</v>
+      </c>
+      <c r="F257" s="0" t="s">
         <v>797</v>
-      </c>
-      <c r="B257" s="0" t="s">
-        <v>798</v>
-      </c>
-      <c r="C257" s="0" t="s">
-        <v>799</v>
-      </c>
-      <c r="F257" s="0" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="C258" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="F258" s="0" t="s">
         <v>801</v>
-      </c>
-      <c r="B258" s="0" t="s">
-        <v>802</v>
-      </c>
-      <c r="C258" s="0" t="s">
-        <v>803</v>
-      </c>
-      <c r="F258" s="0" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="C259" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="F259" s="0" t="s">
         <v>805</v>
-      </c>
-      <c r="B259" s="0" t="s">
-        <v>806</v>
-      </c>
-      <c r="C259" s="0" t="s">
-        <v>807</v>
-      </c>
-      <c r="F259" s="0" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="C260" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="F260" s="0" t="s">
         <v>809</v>
-      </c>
-      <c r="B260" s="0" t="s">
-        <v>810</v>
-      </c>
-      <c r="C260" s="0" t="s">
-        <v>811</v>
-      </c>
-      <c r="F260" s="0" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="C261" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="F261" s="0" t="s">
         <v>813</v>
-      </c>
-      <c r="B261" s="0" t="s">
-        <v>814</v>
-      </c>
-      <c r="C261" s="0" t="s">
-        <v>815</v>
-      </c>
-      <c r="F261" s="0" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="C262" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="F262" s="0" t="s">
         <v>817</v>
-      </c>
-      <c r="B262" s="0" t="s">
-        <v>818</v>
-      </c>
-      <c r="C262" s="0" t="s">
-        <v>819</v>
-      </c>
-      <c r="F262" s="0" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="B263" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="C263" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="F263" s="0" t="s">
         <v>821</v>
-      </c>
-      <c r="B263" s="0" t="s">
-        <v>798</v>
-      </c>
-      <c r="C263" s="0" t="s">
-        <v>799</v>
-      </c>
-      <c r="F263" s="0" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8339,55 +8398,55 @@
         <v>822</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>802</v>
+        <v>823</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>803</v>
+        <v>824</v>
       </c>
       <c r="F264" s="0" t="s">
-        <v>804</v>
+        <v>825</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="F265" s="0" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="F266" s="0" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>827</v>
+        <v>812</v>
       </c>
       <c r="F267" s="0" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8395,496 +8454,524 @@
         <v>829</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>830</v>
+        <v>815</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
       <c r="F268" s="0" t="s">
-        <v>832</v>
+        <v>817</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="B269" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="C269" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="F269" s="0" t="s">
         <v>833</v>
-      </c>
-      <c r="B269" s="0" t="s">
-        <v>834</v>
-      </c>
-      <c r="C269" s="0" t="s">
-        <v>835</v>
-      </c>
-      <c r="F269" s="0" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="B270" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="C270" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="F270" s="0" t="s">
         <v>837</v>
-      </c>
-      <c r="B270" s="0" t="s">
-        <v>838</v>
-      </c>
-      <c r="C270" s="0" t="s">
-        <v>839</v>
-      </c>
-      <c r="F270" s="0" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="B271" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="C271" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="F271" s="0" t="s">
         <v>841</v>
-      </c>
-      <c r="B271" s="0" t="s">
-        <v>842</v>
-      </c>
-      <c r="C271" s="0" t="s">
-        <v>843</v>
-      </c>
-      <c r="F271" s="0" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="B272" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="C272" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="F272" s="0" t="s">
         <v>845</v>
-      </c>
-      <c r="B272" s="0" t="s">
-        <v>846</v>
-      </c>
-      <c r="C272" s="0" t="s">
-        <v>847</v>
-      </c>
-      <c r="F272" s="0" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="B273" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="C273" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="F273" s="0" t="s">
         <v>849</v>
-      </c>
-      <c r="B273" s="0" t="s">
-        <v>850</v>
-      </c>
-      <c r="C273" s="0" t="s">
-        <v>851</v>
-      </c>
-      <c r="F273" s="0" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="B274" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="C274" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="F274" s="0" t="s">
         <v>853</v>
-      </c>
-      <c r="B274" s="0" t="s">
-        <v>854</v>
-      </c>
-      <c r="C274" s="0" t="s">
-        <v>855</v>
-      </c>
-      <c r="F274" s="0" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="B275" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="C275" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="F275" s="0" t="s">
         <v>857</v>
-      </c>
-      <c r="B275" s="0" t="s">
-        <v>858</v>
-      </c>
-      <c r="C275" s="0" t="s">
-        <v>859</v>
-      </c>
-      <c r="F275" s="0" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="B276" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="C276" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="F276" s="0" t="s">
         <v>861</v>
-      </c>
-      <c r="B276" s="0" t="s">
-        <v>862</v>
-      </c>
-      <c r="C276" s="0" t="s">
-        <v>863</v>
-      </c>
-      <c r="F276" s="0" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="B277" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="C277" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="F277" s="0" t="s">
         <v>865</v>
       </c>
-      <c r="B277" s="0" t="s">
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
         <v>866</v>
       </c>
-      <c r="C277" s="0" t="s">
+      <c r="B278" s="0" t="s">
         <v>867</v>
       </c>
-      <c r="F277" s="0" t="s">
+      <c r="C278" s="0" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="278" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="0" t="s">
+      <c r="F278" s="0" t="s">
         <v>869</v>
       </c>
-      <c r="B278" s="0" t="s">
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
         <v>870</v>
       </c>
-      <c r="C278" s="6" t="s">
+      <c r="B279" s="0" t="s">
         <v>871</v>
       </c>
-      <c r="F278" s="8" t="s">
+      <c r="C279" s="0" t="s">
         <v>872</v>
+      </c>
+      <c r="F279" s="0" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>874</v>
-      </c>
-      <c r="C280" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="F280" s="3" t="s">
+      <c r="C280" s="6" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="281" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="0" t="s">
+      <c r="F280" s="8" t="s">
         <v>877</v>
-      </c>
-      <c r="B281" s="0" t="s">
-        <v>878</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="F281" s="3" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="B282" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="F282" s="3" t="s">
         <v>881</v>
-      </c>
-      <c r="B282" s="0" t="s">
-        <v>882</v>
-      </c>
-      <c r="C282" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="F282" s="3" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="B283" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="F283" s="3" t="s">
         <v>885</v>
-      </c>
-      <c r="B283" s="0" t="s">
-        <v>886</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>887</v>
-      </c>
-      <c r="F283" s="3" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
+        <v>886</v>
+      </c>
+      <c r="B284" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="F284" s="3" t="s">
         <v>889</v>
-      </c>
-      <c r="B284" s="0" t="s">
-        <v>890</v>
-      </c>
-      <c r="C284" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="F284" s="3" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B285" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="F285" s="3" t="s">
         <v>893</v>
-      </c>
-      <c r="B285" s="0" t="s">
-        <v>894</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>895</v>
-      </c>
-      <c r="F285" s="3" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>895</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="F286" s="3" t="s">
         <v>897</v>
-      </c>
-      <c r="B286" s="0" t="s">
-        <v>898</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>899</v>
-      </c>
-      <c r="F286" s="3" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="B287" s="0" t="s">
+        <v>899</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="F287" s="3" t="s">
         <v>901</v>
-      </c>
-      <c r="B287" s="0" t="s">
-        <v>902</v>
-      </c>
-      <c r="C287" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="F287" s="3" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="B288" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="F288" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="B288" s="0" t="s">
+    </row>
+    <row r="289" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
         <v>906</v>
       </c>
-      <c r="C288" s="3" t="s">
+      <c r="B289" s="0" t="s">
         <v>907</v>
       </c>
-      <c r="F288" s="3" t="s">
+      <c r="C289" s="3" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="290" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F289" s="3" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="0" t="s">
         <v>913</v>
-      </c>
-      <c r="B291" s="0" t="s">
-        <v>914</v>
-      </c>
-      <c r="C291" s="3" t="s">
-        <v>915</v>
-      </c>
-      <c r="F291" s="3" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="B292" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="F292" s="3" t="s">
         <v>917</v>
-      </c>
-      <c r="B292" s="0" t="s">
-        <v>918</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="F292" s="3" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="B293" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="F293" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="B293" s="0" t="s">
+    </row>
+    <row r="294" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
         <v>922</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="B294" s="0" t="s">
         <v>923</v>
       </c>
-      <c r="F293" s="3" t="s">
+      <c r="C294" s="3" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F294" s="3" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>926</v>
-      </c>
-      <c r="E295" s="0" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="0" t="s">
+      <c r="C295" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="B296" s="0" t="s">
+      <c r="F295" s="3" t="s">
         <v>929</v>
-      </c>
-      <c r="E296" s="0" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="B297" s="0" t="s">
         <v>931</v>
       </c>
-      <c r="B297" s="0" t="s">
+      <c r="E297" s="0" t="s">
         <v>932</v>
-      </c>
-      <c r="E297" s="0" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="B298" s="0" t="s">
         <v>934</v>
       </c>
-      <c r="B298" s="0" t="s">
+      <c r="E298" s="0" t="s">
         <v>935</v>
       </c>
-      <c r="E298" s="0" t="s">
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="9" t="s">
+      <c r="B299" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="B299" s="0" t="s">
+      <c r="E299" s="0" t="s">
         <v>938</v>
-      </c>
-      <c r="E299" s="0" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="B300" s="0" t="s">
         <v>940</v>
       </c>
-      <c r="B300" s="0" t="s">
+      <c r="E300" s="0" t="s">
         <v>941</v>
       </c>
-      <c r="E300" s="0" t="s">
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="9" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="0" t="s">
+      <c r="B301" s="0" t="s">
         <v>943</v>
       </c>
-      <c r="B301" s="0" t="s">
+      <c r="E301" s="0" t="s">
         <v>944</v>
-      </c>
-      <c r="E301" s="0" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="B302" s="0" t="s">
         <v>946</v>
       </c>
-      <c r="B302" s="0" t="s">
+      <c r="E302" s="0" t="s">
         <v>947</v>
-      </c>
-      <c r="E302" s="0" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="B303" s="0" t="s">
         <v>949</v>
       </c>
-      <c r="B303" s="0" t="s">
+      <c r="E303" s="0" t="s">
         <v>950</v>
       </c>
-      <c r="E303" s="0" t="s">
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="305" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="6" t="s">
+      <c r="B304" s="0" t="s">
         <v>952</v>
       </c>
+      <c r="E304" s="0" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="s">
+        <v>954</v>
+      </c>
       <c r="B305" s="0" t="s">
-        <v>953</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>954</v>
-      </c>
-      <c r="D305" s="0" t="s">
         <v>955</v>
       </c>
       <c r="E305" s="0" t="s">
-        <v>953</v>
-      </c>
-      <c r="F305" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="G305" s="0" t="s">
+    </row>
+    <row r="307" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="6" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="6" t="s">
+      <c r="B307" s="0" t="s">
         <v>958</v>
       </c>
-      <c r="B306" s="0" t="s">
+      <c r="C307" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="C306" s="0" t="s">
+      <c r="D307" s="0" t="s">
         <v>960</v>
       </c>
-      <c r="E306" s="0" t="s">
-        <v>959</v>
-      </c>
-      <c r="F306" s="0" t="s">
+      <c r="E307" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="F307" s="3" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="6" t="s">
+      <c r="G307" s="0" t="s">
         <v>962</v>
       </c>
-      <c r="B307" s="0" t="s">
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="C307" s="0" t="s">
+      <c r="B308" s="0" t="s">
         <v>964</v>
       </c>
-      <c r="E307" s="0" t="s">
-        <v>963</v>
-      </c>
-      <c r="F307" s="0" t="s">
+      <c r="C308" s="0" t="s">
         <v>965</v>
+      </c>
+      <c r="E308" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="F308" s="0" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="6" t="s">
+        <v>967</v>
+      </c>
+      <c r="B309" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="C309" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="E309" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="F309" s="0" t="s">
+        <v>970</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C144" r:id="rId1" display="To specify playing sound in case you're using (FT Grouping=[FT-0]).\n&#10;\n&#10;C&gt;P:\n&#10; Chip sound is prior to the pad sound.\n&#10;P&gt;C:\n&#10; Pad sound is prior to the chip sound."/>
+    <hyperlink ref="C146" r:id="rId1" display="To specify playing sound in case you're using (FT Grouping=[FT-0]).\n&#10;\n&#10;C&gt;P:\n&#10; Chip sound is prior to the pad sound.\n&#10;P&gt;C:\n&#10; Pad sound is prior to the chip sound."/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -8915,27 +9002,27 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
     </row>
   </sheetData>

--- a/RuntimeResources/System/resources.xlsx
+++ b/RuntimeResources/System/resources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="976">
   <si>
     <t xml:space="preserve">stringName</t>
   </si>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">日本語</t>
   </si>
   <si>
-    <t xml:space="preserve">中文</t>
+    <t xml:space="preserve">简体中文</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgLanguage</t>
@@ -90,43 +90,44 @@
     <t xml:space="preserve">您可以切换显示语言。</t>
   </si>
   <si>
-    <t xml:space="preserve">strCfgBaseFontFileName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base Font filename</t>
+    <t xml:space="preserve">strCfgDefaultFontFileName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">まだ使えない:
+Default font (file)name. It will be used when each fonts failed to apply.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">指定したフォントファイルが見つからない時のデフォルトフォント(ファイル)名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS PGothic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft YaHei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgBootFontFileName</t>
   </si>
   <si>
     <t xml:space="preserve">mplus-1p-heavy.ttf</t>
   </si>
   <si>
-    <t xml:space="preserve">基本のフォントファイル名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgBootFontFileName</t>
-  </si>
-  <si>
     <t xml:space="preserve">strCfgTitleFontFileName</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgSelectMusicSongListFontFileName</t>
   </si>
   <si>
-    <t xml:space="preserve">cannot use yet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">まだ使えません</t>
-  </si>
-  <si>
     <t xml:space="preserve">strCfgSelectMusicSongCommentFontFileName</t>
   </si>
   <si>
-    <t xml:space="preserve">strCfgSelectMusicSongAuthorFontFileName</t>
+    <t xml:space="preserve">strCfgSelectMusicSongArtistFontFileName</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgSelectMusicInformationFontFileName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgConfigurationFontFileName</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgConfigurationTopItemsFontFileName</t>
@@ -4873,7 +4874,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -4903,6 +4904,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FFA31515"/>
+      <name val="MS Gothic"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4986,7 +4993,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5007,16 +5014,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -5027,7 +5026,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5115,7 +5126,7 @@
   <dimension ref="A1:J309"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5181,7 +5192,7 @@
       <c r="F2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="0" t="s">
@@ -5211,178 +5222,189 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
+      <c r="F5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5390,11 +5412,14 @@
         <v>39</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5411,7 +5436,7 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5461,7 +5486,7 @@
       <c r="B23" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>54</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -5692,13 +5717,13 @@
       <c r="A46" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D46" s="6"/>
+      <c r="D46" s="7"/>
       <c r="F46" s="0" t="s">
         <v>107</v>
       </c>
@@ -5707,13 +5732,13 @@
       <c r="A47" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="6"/>
+      <c r="D47" s="7"/>
       <c r="F47" s="0" t="s">
         <v>111</v>
       </c>
@@ -5722,13 +5747,13 @@
       <c r="A48" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="6"/>
+      <c r="D48" s="7"/>
       <c r="F48" s="0" t="s">
         <v>115</v>
       </c>
@@ -5737,13 +5762,13 @@
       <c r="A49" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="6"/>
+      <c r="D49" s="7"/>
       <c r="F49" s="0" t="s">
         <v>119</v>
       </c>
@@ -5752,13 +5777,13 @@
       <c r="A50" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="6"/>
+      <c r="D50" s="7"/>
       <c r="F50" s="0" t="s">
         <v>123</v>
       </c>
@@ -5767,13 +5792,13 @@
       <c r="A51" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="6"/>
+      <c r="D51" s="7"/>
       <c r="F51" s="0" t="s">
         <v>127</v>
       </c>
@@ -5782,15 +5807,15 @@
       <c r="A52" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6" t="s">
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5798,19 +5823,19 @@
       <c r="A53" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="J53" s="4" t="s">
+      <c r="J53" s="5" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5821,10 +5846,10 @@
       <c r="B54" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="9" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5832,16 +5857,16 @@
       <c r="A55" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="9" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5852,10 +5877,10 @@
       <c r="B56" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="9" t="s">
         <v>150</v>
       </c>
     </row>
@@ -5866,24 +5891,24 @@
       <c r="B57" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="9" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5894,10 +5919,10 @@
       <c r="B59" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="9" t="s">
         <v>162</v>
       </c>
     </row>
@@ -5908,10 +5933,10 @@
       <c r="B60" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="9" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5919,13 +5944,13 @@
       <c r="A61" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="9" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5936,10 +5961,10 @@
       <c r="B62" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="9" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5950,10 +5975,10 @@
       <c r="B63" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="9" t="s">
         <v>178</v>
       </c>
     </row>
@@ -5964,10 +5989,10 @@
       <c r="B64" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="9" t="s">
         <v>182</v>
       </c>
     </row>
@@ -5978,10 +6003,10 @@
       <c r="B65" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="9" t="s">
         <v>186</v>
       </c>
     </row>
@@ -5992,10 +6017,10 @@
       <c r="B66" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="9" t="s">
         <v>190</v>
       </c>
     </row>
@@ -6006,10 +6031,10 @@
       <c r="B67" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="9" t="s">
         <v>194</v>
       </c>
     </row>
@@ -6020,10 +6045,10 @@
       <c r="B68" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="9" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6034,10 +6059,10 @@
       <c r="B69" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="9" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6048,10 +6073,10 @@
       <c r="B70" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="9" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6062,10 +6087,10 @@
       <c r="B71" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="9" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6076,10 +6101,10 @@
       <c r="B72" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="9" t="s">
         <v>214</v>
       </c>
     </row>
@@ -6087,14 +6112,14 @@
       <c r="A73" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E73" s="6"/>
-      <c r="F73" s="8" t="s">
+      <c r="E73" s="7"/>
+      <c r="F73" s="9" t="s">
         <v>218</v>
       </c>
     </row>
@@ -6105,10 +6130,10 @@
       <c r="B74" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="9" t="s">
         <v>222</v>
       </c>
     </row>
@@ -6119,10 +6144,10 @@
       <c r="B75" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="9" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6133,10 +6158,10 @@
       <c r="B76" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="9" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6147,10 +6172,10 @@
       <c r="B77" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="9" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6161,10 +6186,10 @@
       <c r="B78" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F78" s="9" t="s">
         <v>238</v>
       </c>
     </row>
@@ -6175,10 +6200,10 @@
       <c r="B79" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="9" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6189,13 +6214,13 @@
       <c r="B80" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D80" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="9" t="s">
         <v>247</v>
       </c>
       <c r="J80" s="0" t="s">
@@ -6209,10 +6234,10 @@
       <c r="B81" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="9" t="s">
         <v>252</v>
       </c>
     </row>
@@ -6223,13 +6248,13 @@
       <c r="B82" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="9" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6240,10 +6265,10 @@
       <c r="B83" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F83" s="9" t="s">
         <v>261</v>
       </c>
     </row>
@@ -6254,10 +6279,10 @@
       <c r="B84" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="9" t="s">
         <v>265</v>
       </c>
     </row>
@@ -6268,19 +6293,19 @@
       <c r="B85" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D85" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="G85" s="6" t="s">
+      <c r="G85" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="H85" s="6"/>
+      <c r="H85" s="7"/>
     </row>
     <row r="86" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
@@ -6289,24 +6314,24 @@
       <c r="B86" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="9" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="7" t="s">
         <v>276</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F87" s="9" t="s">
         <v>279</v>
       </c>
     </row>
@@ -6317,10 +6342,10 @@
       <c r="B88" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F88" s="9" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6331,10 +6356,10 @@
       <c r="B89" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F89" s="9" t="s">
         <v>287</v>
       </c>
     </row>
@@ -6345,10 +6370,10 @@
       <c r="B90" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="9" t="s">
         <v>291</v>
       </c>
     </row>
@@ -6359,24 +6384,24 @@
       <c r="B91" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="9" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="9" t="s">
         <v>299</v>
       </c>
     </row>
@@ -6384,13 +6409,13 @@
       <c r="A93" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="9" t="s">
         <v>303</v>
       </c>
     </row>
@@ -6398,13 +6423,13 @@
       <c r="A94" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F94" s="8" t="s">
+      <c r="F94" s="9" t="s">
         <v>307</v>
       </c>
     </row>
@@ -6412,13 +6437,13 @@
       <c r="A95" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F95" s="9" t="s">
         <v>311</v>
       </c>
     </row>
@@ -6426,48 +6451,48 @@
       <c r="A96" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="B96" s="6"/>
-      <c r="C96" s="8" t="s">
+      <c r="B96" s="7"/>
+      <c r="C96" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="F96" s="8"/>
+      <c r="F96" s="9"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="6"/>
-      <c r="C97" s="8"/>
-      <c r="F97" s="8"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="9"/>
+      <c r="F97" s="9"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="F98" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="9"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="F99" s="6"/>
+      <c r="A99" s="10"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="F99" s="7"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="F100" s="7" t="s">
         <v>318</v>
       </c>
     </row>
@@ -6475,7 +6500,7 @@
       <c r="A101" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="7" t="s">
         <v>320</v>
       </c>
       <c r="C101" s="0" t="s">
@@ -6489,13 +6514,13 @@
       <c r="A102" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="F102" s="7" t="s">
         <v>326</v>
       </c>
     </row>
@@ -6503,13 +6528,13 @@
       <c r="A103" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C103" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F103" s="6" t="s">
+      <c r="F103" s="7" t="s">
         <v>330</v>
       </c>
     </row>
@@ -6536,13 +6561,13 @@
       <c r="A106" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C106" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="F106" s="7" t="s">
         <v>338</v>
       </c>
     </row>
@@ -6550,13 +6575,13 @@
       <c r="A107" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F107" s="6" t="s">
+      <c r="F107" s="7" t="s">
         <v>342</v>
       </c>
     </row>
@@ -6564,13 +6589,13 @@
       <c r="A108" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F108" s="6" t="s">
+      <c r="F108" s="7" t="s">
         <v>346</v>
       </c>
     </row>
@@ -6578,13 +6603,13 @@
       <c r="A109" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C109" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="F109" s="7" t="s">
         <v>350</v>
       </c>
     </row>
@@ -6592,13 +6617,13 @@
       <c r="A110" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C110" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F110" s="6" t="s">
+      <c r="F110" s="7" t="s">
         <v>354</v>
       </c>
     </row>
@@ -6606,13 +6631,13 @@
       <c r="A111" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="F111" s="6" t="s">
+      <c r="F111" s="7" t="s">
         <v>358</v>
       </c>
     </row>
@@ -6620,7 +6645,7 @@
       <c r="A112" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="7" t="s">
         <v>360</v>
       </c>
       <c r="C112" s="0" t="s">
@@ -6637,10 +6662,10 @@
       <c r="B114" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C114" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="F114" s="6" t="s">
+      <c r="F114" s="7" t="s">
         <v>366</v>
       </c>
     </row>
@@ -6648,16 +6673,16 @@
       <c r="A115" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="D115" s="6" t="s">
+      <c r="D115" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F115" s="8" t="s">
+      <c r="F115" s="9" t="s">
         <v>371</v>
       </c>
     </row>
@@ -6665,13 +6690,13 @@
       <c r="A116" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="F116" s="8" t="s">
+      <c r="F116" s="9" t="s">
         <v>375</v>
       </c>
     </row>
@@ -6682,27 +6707,27 @@
       <c r="B117" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C117" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="F117" s="8" t="s">
+      <c r="F117" s="9" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="6"/>
+      <c r="B118" s="7"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="9" t="s">
+      <c r="A120" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C120" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F120" s="6" t="s">
+      <c r="F120" s="7" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6710,10 +6735,10 @@
       <c r="A122" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="C122" s="7" t="s">
         <v>380</v>
       </c>
       <c r="F122" s="0" t="s">
@@ -6724,10 +6749,10 @@
       <c r="A123" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="C123" s="6" t="s">
+      <c r="C123" s="7" t="s">
         <v>384</v>
       </c>
       <c r="F123" s="0" t="s">
@@ -6738,10 +6763,10 @@
       <c r="A124" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="C124" s="7" t="s">
         <v>388</v>
       </c>
       <c r="F124" s="0" t="s">
@@ -6752,10 +6777,10 @@
       <c r="A125" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="C125" s="7" t="s">
         <v>392</v>
       </c>
       <c r="F125" s="0" t="s">
@@ -6766,10 +6791,10 @@
       <c r="A126" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="C126" s="7" t="s">
         <v>396</v>
       </c>
       <c r="F126" s="0" t="s">
@@ -6780,10 +6805,10 @@
       <c r="A127" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="C127" s="7" t="s">
         <v>400</v>
       </c>
       <c r="F127" s="0" t="s">
@@ -6794,10 +6819,10 @@
       <c r="A129" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="C129" s="7" t="s">
         <v>403</v>
       </c>
       <c r="F129" s="0" t="s">
@@ -6808,10 +6833,10 @@
       <c r="A130" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="C130" s="7" t="s">
         <v>384</v>
       </c>
       <c r="F130" s="0" t="s">
@@ -6822,10 +6847,10 @@
       <c r="A131" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="C131" s="6" t="s">
+      <c r="C131" s="7" t="s">
         <v>388</v>
       </c>
       <c r="F131" s="0" t="s">
@@ -6836,10 +6861,10 @@
       <c r="A132" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="C132" s="6" t="s">
+      <c r="C132" s="7" t="s">
         <v>392</v>
       </c>
       <c r="F132" s="0" t="s">
@@ -6850,10 +6875,10 @@
       <c r="A133" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="C133" s="6" t="s">
+      <c r="C133" s="7" t="s">
         <v>396</v>
       </c>
       <c r="F133" s="0" t="s">
@@ -6864,10 +6889,10 @@
       <c r="A134" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="C134" s="6" t="s">
+      <c r="C134" s="7" t="s">
         <v>400</v>
       </c>
       <c r="F134" s="0" t="s">
@@ -6906,13 +6931,13 @@
       <c r="B140" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C140" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="D140" s="6" t="s">
+      <c r="D140" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="F140" s="8" t="s">
+      <c r="F140" s="9" t="s">
         <v>425</v>
       </c>
     </row>
@@ -6923,13 +6948,13 @@
       <c r="B141" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C141" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="D141" s="6" t="s">
+      <c r="D141" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="F141" s="8" t="s">
+      <c r="F141" s="9" t="s">
         <v>430</v>
       </c>
     </row>
@@ -6940,13 +6965,13 @@
       <c r="B142" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="C142" s="8" t="s">
+      <c r="C142" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="D142" s="6" t="s">
+      <c r="D142" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="F142" s="8" t="s">
+      <c r="F142" s="9" t="s">
         <v>435</v>
       </c>
     </row>
@@ -6957,13 +6982,13 @@
       <c r="B143" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="C143" s="8" t="s">
+      <c r="C143" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="D143" s="6" t="s">
+      <c r="D143" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="F143" s="8" t="s">
+      <c r="F143" s="9" t="s">
         <v>440</v>
       </c>
     </row>
@@ -6974,10 +6999,10 @@
       <c r="B144" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="C144" s="8" t="s">
+      <c r="C144" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="F144" s="8" t="s">
+      <c r="F144" s="9" t="s">
         <v>444</v>
       </c>
     </row>
@@ -6988,13 +7013,13 @@
       <c r="B145" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C145" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="D145" s="6" t="s">
+      <c r="D145" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="F145" s="8" t="s">
+      <c r="F145" s="9" t="s">
         <v>449</v>
       </c>
     </row>
@@ -7005,13 +7030,13 @@
       <c r="B146" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="C146" s="8" t="s">
+      <c r="C146" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="D146" s="6" t="s">
+      <c r="D146" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="F146" s="8" t="s">
+      <c r="F146" s="9" t="s">
         <v>453</v>
       </c>
     </row>
@@ -7022,13 +7047,13 @@
       <c r="B147" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="C147" s="8" t="s">
+      <c r="C147" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="D147" s="6" t="s">
+      <c r="D147" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="F147" s="8" t="s">
+      <c r="F147" s="9" t="s">
         <v>457</v>
       </c>
     </row>
@@ -7039,10 +7064,10 @@
       <c r="B149" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="C149" s="6" t="s">
+      <c r="C149" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="F149" s="8" t="s">
+      <c r="F149" s="9" t="s">
         <v>461</v>
       </c>
     </row>
@@ -7058,7 +7083,7 @@
       <c r="B152" s="0" t="s">
         <v>464</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="C152" s="7" t="s">
         <v>465</v>
       </c>
       <c r="F152" s="3" t="s">
@@ -7088,10 +7113,10 @@
       <c r="B156" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="C156" s="8" t="s">
+      <c r="C156" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="D156" s="6" t="s">
+      <c r="D156" s="7" t="s">
         <v>473</v>
       </c>
       <c r="F156" s="3" t="s">
@@ -7105,7 +7130,7 @@
       <c r="B157" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C157" s="7" t="s">
         <v>477</v>
       </c>
       <c r="F157" s="0" t="s">
@@ -7119,10 +7144,10 @@
       <c r="B158" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C158" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="F158" s="6" t="s">
+      <c r="F158" s="7" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7133,10 +7158,10 @@
       <c r="B159" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="C159" s="8" t="s">
+      <c r="C159" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="F159" s="8" t="s">
+      <c r="F159" s="9" t="s">
         <v>486</v>
       </c>
     </row>
@@ -7144,16 +7169,16 @@
       <c r="A160" s="0" t="s">
         <v>487</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="C160" s="8" t="s">
+      <c r="C160" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="D160" s="6" t="s">
+      <c r="D160" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="F160" s="8" t="s">
+      <c r="F160" s="9" t="s">
         <v>491</v>
       </c>
     </row>
@@ -7164,7 +7189,7 @@
       <c r="B161" s="0" t="s">
         <v>493</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="C161" s="7" t="s">
         <v>494</v>
       </c>
       <c r="F161" s="0" t="s">
@@ -7178,90 +7203,90 @@
       <c r="B162" s="0" t="s">
         <v>497</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="C162" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="D162" s="6"/>
+      <c r="D162" s="7"/>
       <c r="F162" s="0" t="s">
         <v>499</v>
       </c>
-      <c r="J162" s="4" t="s">
+      <c r="J162" s="5" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="9" t="s">
+      <c r="A163" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B163" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="C163" s="6" t="s">
+      <c r="C163" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="D163" s="6" t="s">
+      <c r="D163" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="F163" s="6" t="s">
+      <c r="F163" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="J163" s="4" t="s">
+      <c r="J163" s="5" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="9" t="s">
+      <c r="A164" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="C164" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="D164" s="6" t="s">
+      <c r="D164" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="F164" s="6" t="s">
+      <c r="F164" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="J164" s="4"/>
+      <c r="J164" s="5"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="9" t="s">
+      <c r="A165" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B165" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="C165" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="D165" s="6" t="s">
+      <c r="D165" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="F165" s="6" t="s">
+      <c r="F165" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="J165" s="4"/>
+      <c r="J165" s="5"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="9" t="s">
+      <c r="A166" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B166" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="C166" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="D166" s="6" t="s">
+      <c r="D166" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="F166" s="6" t="s">
+      <c r="F166" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="J166" s="4"/>
+      <c r="J166" s="5"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
@@ -7284,13 +7309,13 @@
       <c r="B168" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="C168" s="8" t="s">
+      <c r="C168" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="D168" s="6" t="s">
+      <c r="D168" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="F168" s="8" t="s">
+      <c r="F168" s="9" t="s">
         <v>526</v>
       </c>
     </row>
@@ -7301,13 +7326,13 @@
       <c r="B169" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C169" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="D169" s="6" t="s">
+      <c r="D169" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="F169" s="8" t="s">
+      <c r="F169" s="9" t="s">
         <v>531</v>
       </c>
     </row>
@@ -7318,13 +7343,13 @@
       <c r="B170" s="0" t="s">
         <v>533</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C170" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="D170" s="6" t="s">
+      <c r="D170" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="F170" s="8" t="s">
+      <c r="F170" s="9" t="s">
         <v>534</v>
       </c>
     </row>
@@ -7335,7 +7360,7 @@
       <c r="B172" s="0" t="s">
         <v>536</v>
       </c>
-      <c r="C172" s="8" t="s">
+      <c r="C172" s="9" t="s">
         <v>537</v>
       </c>
       <c r="F172" s="3" t="s">
@@ -7349,7 +7374,7 @@
       <c r="B173" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="C173" s="8" t="s">
+      <c r="C173" s="9" t="s">
         <v>541</v>
       </c>
       <c r="F173" s="3" t="s">
@@ -7387,46 +7412,46 @@
       <c r="A178" s="0" t="s">
         <v>550</v>
       </c>
-      <c r="C178" s="8" t="s">
+      <c r="C178" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="F178" s="8" t="s">
+      <c r="F178" s="9" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="4" t="s">
+      <c r="A183" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="B183" s="10" t="s">
+      <c r="B183" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="C183" s="6" t="s">
+      <c r="C183" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="F183" s="6" t="s">
+      <c r="F183" s="7" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="4" t="s">
+      <c r="A184" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="B184" s="10" t="s">
+      <c r="B184" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="C184" s="6" t="s">
+      <c r="C184" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="F184" s="6" t="s">
+      <c r="F184" s="7" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="4" t="s">
+      <c r="A185" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="B185" s="10" t="s">
+      <c r="B185" s="11" t="s">
         <v>562</v>
       </c>
     </row>
@@ -7784,7 +7809,7 @@
       <c r="A211" s="0" t="s">
         <v>656</v>
       </c>
-      <c r="B211" s="6" t="s">
+      <c r="B211" s="7" t="s">
         <v>657</v>
       </c>
       <c r="C211" s="3" t="s">
@@ -7801,10 +7826,10 @@
       <c r="B214" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="C214" s="6" t="s">
+      <c r="C214" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="F214" s="6" t="s">
+      <c r="F214" s="7" t="s">
         <v>663</v>
       </c>
     </row>
@@ -7815,10 +7840,10 @@
       <c r="B215" s="0" t="s">
         <v>665</v>
       </c>
-      <c r="C215" s="6" t="s">
+      <c r="C215" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="F215" s="6" t="s">
+      <c r="F215" s="7" t="s">
         <v>667</v>
       </c>
     </row>
@@ -7829,10 +7854,10 @@
       <c r="B216" s="0" t="s">
         <v>669</v>
       </c>
-      <c r="C216" s="6" t="s">
+      <c r="C216" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="F216" s="6" t="s">
+      <c r="F216" s="7" t="s">
         <v>671</v>
       </c>
     </row>
@@ -7843,10 +7868,10 @@
       <c r="B217" s="0" t="s">
         <v>673</v>
       </c>
-      <c r="C217" s="6" t="s">
+      <c r="C217" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="F217" s="6" t="s">
+      <c r="F217" s="7" t="s">
         <v>675</v>
       </c>
     </row>
@@ -7857,10 +7882,10 @@
       <c r="B218" s="0" t="s">
         <v>677</v>
       </c>
-      <c r="C218" s="8" t="s">
+      <c r="C218" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="F218" s="6" t="s">
+      <c r="F218" s="7" t="s">
         <v>679</v>
       </c>
     </row>
@@ -7887,7 +7912,7 @@
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C227" s="11"/>
+      <c r="C227" s="12"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
@@ -8624,10 +8649,10 @@
       <c r="B280" s="0" t="s">
         <v>875</v>
       </c>
-      <c r="C280" s="6" t="s">
+      <c r="C280" s="7" t="s">
         <v>876</v>
       </c>
-      <c r="F280" s="8" t="s">
+      <c r="F280" s="9" t="s">
         <v>877</v>
       </c>
     </row>
@@ -8858,7 +8883,7 @@
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="9" t="s">
+      <c r="A301" s="10" t="s">
         <v>942</v>
       </c>
       <c r="B301" s="0" t="s">
@@ -8913,7 +8938,7 @@
       </c>
     </row>
     <row r="307" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="6" t="s">
+      <c r="A307" s="7" t="s">
         <v>957</v>
       </c>
       <c r="B307" s="0" t="s">
@@ -8936,7 +8961,7 @@
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="6" t="s">
+      <c r="A308" s="7" t="s">
         <v>963</v>
       </c>
       <c r="B308" s="0" t="s">
@@ -8953,7 +8978,7 @@
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="6" t="s">
+      <c r="A309" s="7" t="s">
         <v>967</v>
       </c>
       <c r="B309" s="0" t="s">

--- a/RuntimeResources/System/resources.xlsx
+++ b/RuntimeResources/System/resources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="1003">
   <si>
     <t xml:space="preserve">stringName</t>
   </si>
@@ -1123,6 +1123,7 @@
   <si>
     <t xml:space="preserve">旧AVIの全画面表示：\n
 旧仕様の動画(AVI)の表示を、強制的に全画面化します。\n
+全画面化した時の動画表示位置は、FullAVICenter(センタリング表示するか否か)と、FullAVIX, FullAVIYで設定できます。\n\n
 BGAと併用している場合は、表示がおかしくなります。</t>
   </si>
   <si>
@@ -4140,6 +4141,334 @@
     <t xml:space="preserve">ギターレーンを表示するX座標。(GBOnlyモード時)</t>
   </si>
   <si>
+    <t xml:space="preserve">strCfgForceFullMovieXBoth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FullAVIX(Both)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">旧AVIの全画面表示時の、表示X座標。(Bothモード時)\n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">FullAVIとFullAVICenterがONの時にのみ、設定が有効となります。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgForceFullMovieXDr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FullAVIX(Dr)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">旧AVIの全画面表示時の、表示X座標。(DrOnlyモード時)\n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">FullAVIとFullAVICenterがONの時にのみ、設定が有効となります。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgForceFullMovieXGB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FullAVIX(GB)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">旧AVIの全画面表示時の、表示X座標。(GBOnlyモード時)\n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">FullAVIとFullAVICenterがONの時にのみ、設定が有効となります。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgForceFullMovieYBoth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FullAVIY(Both)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">旧AVIの全画面表示時の、表示Y座標。(Bothモード時)\n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">FullAVIとFullAVICenterがONの時にのみ、設定が有効となります。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgForceFullMovieYDr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FullAVIY(Dr)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">旧AVIの全画面表示時の、表示Y座標。(DrOnlyモード時)\n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">FullAVIとFullAVICenterがONの時にのみ、設定が有効となります。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgForceFullMovieYGB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FullAVIY(GB)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">旧AVIの全画面表示時の、表示Y座標。(GBOnlyモード時)\n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">FullAVIとFullAVICenterがONの時にのみ、設定が有効となります。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgForceFullMovieCenteringBoth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FullAVICenter(Both)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">旧AVIの全画面表示をセンタリング表示する (Bothモード時):\n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">FullAVIがONの時、旧仕様</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">の動画(AVI)をセンタリング表示するかどうかを決定します。\n
+これがONの場合は、旧仕様の動画(AVI)を中央寄せで表示します。OFFの場合は、これ以降のFullAVIX, FullAVIYで設定した座標に動画を表示します。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgForceFullMovieCenteringDr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FullAVICenter(Dr)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">旧AVIの全画面表示をセンタリング表示する (Drモード時):\n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">FullAVIがONの時、旧仕様</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">の動画(AVI)をセンタリング表示するかどうかを決定します。\n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">これがONの場合は、旧仕様の動画(AVI)を中央寄せで表示します。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">OFFの場合は、これ以降のFullAVIX, FullAVIYで設定した座標に動画を表示します。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgForceFullMovieCenteringGB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FullAVICenter(GB)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">旧AVIの全画面表示をセンタリング表示する (GBモード時):\n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">FullAVIがONの時、旧仕様</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">の動画(AVI)をセンタリング表示するかどうかを決定します。\n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">これがONの場合は、旧仕様の動画(AVI)を中央寄せで表示します。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">OFFの場合は、これ以降のFullAVIX, FullAVIYで設定した座標に動画を表示します。</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgDispLaneOrderBD</t>
   </si>
   <si>
@@ -4874,7 +5203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -4910,6 +5239,7 @@
       <color rgb="FFA31515"/>
       <name val="MS Gothic"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4945,6 +5275,26 @@
     </font>
     <font>
       <sz val="9.5"/>
+      <color rgb="FFA31515"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FFA31515"/>
+      <name val="MS Gothic"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FFA31515"/>
+      <name val="MS Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFA31515"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -4993,7 +5343,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5044,6 +5394,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -5123,10 +5481,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J309"/>
+  <dimension ref="A1:J318"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C63" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F64" activeCellId="0" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6024,7 +6382,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>191</v>
       </c>
@@ -8334,144 +8692,120 @@
         <v>797</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
+    <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="13" t="s">
         <v>798</v>
       </c>
       <c r="B258" s="0" t="s">
         <v>799</v>
       </c>
-      <c r="C258" s="0" t="s">
+      <c r="F258" s="14" t="s">
         <v>800</v>
       </c>
-      <c r="F258" s="0" t="s">
+    </row>
+    <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="13" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="s">
+      <c r="B259" s="0" t="s">
         <v>802</v>
       </c>
-      <c r="B259" s="0" t="s">
+      <c r="F259" s="14" t="s">
         <v>803</v>
       </c>
-      <c r="C259" s="0" t="s">
+    </row>
+    <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="13" t="s">
         <v>804</v>
       </c>
-      <c r="F259" s="0" t="s">
+      <c r="B260" s="0" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0" t="s">
+      <c r="F260" s="14" t="s">
         <v>806</v>
       </c>
-      <c r="B260" s="0" t="s">
+    </row>
+    <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="13" t="s">
         <v>807</v>
       </c>
-      <c r="C260" s="0" t="s">
+      <c r="B261" s="0" t="s">
         <v>808</v>
       </c>
-      <c r="F260" s="0" t="s">
+      <c r="F261" s="14" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
+    <row r="262" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="13" t="s">
         <v>810</v>
       </c>
-      <c r="B261" s="0" t="s">
+      <c r="B262" s="0" t="s">
         <v>811</v>
       </c>
-      <c r="C261" s="0" t="s">
+      <c r="C262" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F262" s="14" t="s">
         <v>812</v>
       </c>
-      <c r="F261" s="0" t="s">
+    </row>
+    <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="13" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="s">
+      <c r="B263" s="0" t="s">
         <v>814</v>
       </c>
-      <c r="B262" s="0" t="s">
+      <c r="F263" s="14" t="s">
         <v>815</v>
       </c>
-      <c r="C262" s="0" t="s">
+    </row>
+    <row r="264" customFormat="false" ht="69.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="13" t="s">
         <v>816</v>
       </c>
-      <c r="F262" s="0" t="s">
+      <c r="B264" s="0" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0" t="s">
+      <c r="F264" s="9" t="s">
         <v>818</v>
       </c>
-      <c r="B263" s="0" t="s">
+    </row>
+    <row r="265" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="13" t="s">
         <v>819</v>
       </c>
-      <c r="C263" s="0" t="s">
+      <c r="B265" s="0" t="s">
         <v>820</v>
       </c>
-      <c r="F263" s="0" t="s">
+      <c r="F265" s="9" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="0" t="s">
+    <row r="266" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="13" t="s">
         <v>822</v>
       </c>
-      <c r="B264" s="0" t="s">
+      <c r="B266" s="0" t="s">
         <v>823</v>
       </c>
-      <c r="C264" s="0" t="s">
+      <c r="F266" s="9" t="s">
         <v>824</v>
-      </c>
-      <c r="F264" s="0" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="0" t="s">
-        <v>826</v>
-      </c>
-      <c r="B265" s="0" t="s">
-        <v>803</v>
-      </c>
-      <c r="C265" s="0" t="s">
-        <v>804</v>
-      </c>
-      <c r="F265" s="0" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0" t="s">
-        <v>827</v>
-      </c>
-      <c r="B266" s="0" t="s">
-        <v>807</v>
-      </c>
-      <c r="C266" s="0" t="s">
-        <v>808</v>
-      </c>
-      <c r="F266" s="0" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="B267" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="C267" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="F267" s="0" t="s">
         <v>828</v>
-      </c>
-      <c r="B267" s="0" t="s">
-        <v>811</v>
-      </c>
-      <c r="C267" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="F267" s="0" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8479,97 +8813,97 @@
         <v>829</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>815</v>
+        <v>830</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>816</v>
+        <v>831</v>
       </c>
       <c r="F268" s="0" t="s">
-        <v>817</v>
+        <v>832</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="F269" s="0" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="F270" s="0" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="F271" s="0" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="F272" s="0" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="F273" s="0" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>851</v>
+        <v>830</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>852</v>
+        <v>831</v>
       </c>
       <c r="F274" s="0" t="s">
-        <v>853</v>
+        <v>832</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8577,421 +8911,547 @@
         <v>854</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="F275" s="0" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>859</v>
+        <v>838</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>860</v>
+        <v>839</v>
       </c>
       <c r="F276" s="0" t="s">
-        <v>861</v>
+        <v>840</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="F277" s="0" t="s">
-        <v>865</v>
+        <v>844</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="F278" s="0" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="B279" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="C279" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="F279" s="0" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="B280" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="C280" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="F280" s="0" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="B281" s="0" t="s">
         <v>870</v>
       </c>
-      <c r="B279" s="0" t="s">
+      <c r="C281" s="0" t="s">
         <v>871</v>
       </c>
-      <c r="C279" s="0" t="s">
+      <c r="F281" s="0" t="s">
         <v>872</v>
       </c>
-      <c r="F279" s="0" t="s">
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="280" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="0" t="s">
+      <c r="B282" s="0" t="s">
         <v>874</v>
       </c>
-      <c r="B280" s="0" t="s">
+      <c r="C282" s="0" t="s">
         <v>875</v>
       </c>
-      <c r="C280" s="7" t="s">
+      <c r="F282" s="0" t="s">
         <v>876</v>
       </c>
-      <c r="F280" s="9" t="s">
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="282" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="0" t="s">
+      <c r="B283" s="0" t="s">
         <v>878</v>
       </c>
-      <c r="B282" s="0" t="s">
+      <c r="C283" s="0" t="s">
         <v>879</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="F283" s="0" t="s">
         <v>880</v>
       </c>
-      <c r="F282" s="3" t="s">
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="283" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="0" t="s">
+      <c r="B284" s="0" t="s">
         <v>882</v>
       </c>
-      <c r="B283" s="0" t="s">
+      <c r="C284" s="0" t="s">
         <v>883</v>
       </c>
-      <c r="C283" s="3" t="s">
+      <c r="F284" s="0" t="s">
         <v>884</v>
       </c>
-      <c r="F283" s="3" t="s">
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="284" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="0" t="s">
+      <c r="B285" s="0" t="s">
         <v>886</v>
       </c>
-      <c r="B284" s="0" t="s">
+      <c r="C285" s="0" t="s">
         <v>887</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="F285" s="0" t="s">
         <v>888</v>
       </c>
-      <c r="F284" s="3" t="s">
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="285" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="0" t="s">
+      <c r="B286" s="0" t="s">
         <v>890</v>
       </c>
-      <c r="B285" s="0" t="s">
+      <c r="C286" s="0" t="s">
         <v>891</v>
       </c>
-      <c r="C285" s="3" t="s">
+      <c r="F286" s="0" t="s">
         <v>892</v>
       </c>
-      <c r="F285" s="3" t="s">
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="286" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="0" t="s">
+      <c r="B287" s="0" t="s">
         <v>894</v>
       </c>
-      <c r="B286" s="0" t="s">
+      <c r="C287" s="0" t="s">
         <v>895</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="F287" s="0" t="s">
         <v>896</v>
       </c>
-      <c r="F286" s="3" t="s">
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="287" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="0" t="s">
+      <c r="B288" s="0" t="s">
         <v>898</v>
       </c>
-      <c r="B287" s="0" t="s">
+      <c r="C288" s="0" t="s">
         <v>899</v>
       </c>
-      <c r="C287" s="3" t="s">
+      <c r="F288" s="0" t="s">
         <v>900</v>
-      </c>
-      <c r="F287" s="3" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="0" t="s">
-        <v>902</v>
-      </c>
-      <c r="B288" s="0" t="s">
-        <v>903</v>
-      </c>
-      <c r="C288" s="3" t="s">
-        <v>904</v>
-      </c>
-      <c r="F288" s="3" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="B289" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="F289" s="9" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="B291" s="0" t="s">
         <v>906</v>
       </c>
-      <c r="B289" s="0" t="s">
+      <c r="C291" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="F291" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="F289" s="3" t="s">
+    </row>
+    <row r="292" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="290" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="0" t="s">
+      <c r="B292" s="0" t="s">
         <v>910</v>
       </c>
-      <c r="B290" s="0" t="s">
+      <c r="C292" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="F292" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="F290" s="3" t="s">
+    </row>
+    <row r="293" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="292" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="0" t="s">
+      <c r="B293" s="0" t="s">
         <v>914</v>
       </c>
-      <c r="B292" s="0" t="s">
+      <c r="C293" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="F293" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="F292" s="3" t="s">
+    </row>
+    <row r="294" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="293" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="0" t="s">
+      <c r="B294" s="0" t="s">
         <v>918</v>
       </c>
-      <c r="B293" s="0" t="s">
+      <c r="C294" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="F294" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="F293" s="3" t="s">
+    </row>
+    <row r="295" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="294" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="0" t="s">
+      <c r="B295" s="0" t="s">
         <v>922</v>
       </c>
-      <c r="B294" s="0" t="s">
+      <c r="C295" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="F295" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="F294" s="3" t="s">
+    </row>
+    <row r="296" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="295" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="0" t="s">
+      <c r="B296" s="0" t="s">
         <v>926</v>
       </c>
-      <c r="B295" s="0" t="s">
+      <c r="C296" s="3" t="s">
         <v>927</v>
       </c>
-      <c r="C295" s="3" t="s">
+      <c r="F296" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="F295" s="3" t="s">
+    </row>
+    <row r="297" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="0" t="s">
+      <c r="B297" s="0" t="s">
         <v>930</v>
       </c>
-      <c r="B297" s="0" t="s">
+      <c r="C297" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="E297" s="0" t="s">
+      <c r="F297" s="3" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
         <v>933</v>
       </c>
       <c r="B298" s="0" t="s">
         <v>934</v>
       </c>
-      <c r="E298" s="0" t="s">
+      <c r="C298" s="3" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F298" s="3" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>937</v>
-      </c>
-      <c r="E299" s="0" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
+      <c r="C299" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="B300" s="0" t="s">
+      <c r="F299" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="E300" s="0" t="s">
+    </row>
+    <row r="301" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="10" t="s">
+      <c r="B301" s="0" t="s">
         <v>942</v>
       </c>
-      <c r="B301" s="0" t="s">
+      <c r="C301" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="E301" s="0" t="s">
+      <c r="F301" s="3" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
         <v>945</v>
       </c>
       <c r="B302" s="0" t="s">
         <v>946</v>
       </c>
-      <c r="E302" s="0" t="s">
+      <c r="C302" s="3" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F302" s="3" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>949</v>
-      </c>
-      <c r="E303" s="0" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C303" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>952</v>
-      </c>
-      <c r="E304" s="0" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="0" t="s">
         <v>954</v>
       </c>
-      <c r="B305" s="0" t="s">
+      <c r="C304" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="E305" s="0" t="s">
+      <c r="F304" s="3" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="7" t="s">
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="s">
         <v>957</v>
       </c>
+      <c r="B306" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="E306" s="0" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="s">
+        <v>960</v>
+      </c>
       <c r="B307" s="0" t="s">
-        <v>958</v>
-      </c>
-      <c r="C307" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="D307" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E307" s="0" t="s">
-        <v>958</v>
-      </c>
-      <c r="F307" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="G307" s="0" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="7" t="s">
+      <c r="A308" s="0" t="s">
         <v>963</v>
       </c>
       <c r="B308" s="0" t="s">
         <v>964</v>
       </c>
-      <c r="C308" s="0" t="s">
+      <c r="E308" s="0" t="s">
         <v>965</v>
       </c>
-      <c r="E308" s="0" t="s">
-        <v>964</v>
-      </c>
-      <c r="F308" s="0" t="s">
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="7" t="s">
+      <c r="B309" s="0" t="s">
         <v>967</v>
-      </c>
-      <c r="B309" s="0" t="s">
-        <v>968</v>
-      </c>
-      <c r="C309" s="0" t="s">
-        <v>969</v>
       </c>
       <c r="E309" s="0" t="s">
         <v>968</v>
       </c>
-      <c r="F309" s="0" t="s">
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="10" t="s">
+        <v>969</v>
+      </c>
+      <c r="B310" s="0" t="s">
         <v>970</v>
+      </c>
+      <c r="E310" s="0" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="B311" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="E311" s="0" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="B312" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="E312" s="0" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="E313" s="0" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="B314" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="E314" s="0" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="B316" s="0" t="s">
+        <v>985</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="D316" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="E316" s="0" t="s">
+        <v>985</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="G316" s="0" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="B317" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="C317" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="E317" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="F317" s="0" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="7" t="s">
+        <v>994</v>
+      </c>
+      <c r="B318" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="C318" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="E318" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="F318" s="0" t="s">
+        <v>997</v>
       </c>
     </row>
   </sheetData>
@@ -9027,27 +9487,27 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>971</v>
+        <v>998</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>972</v>
+        <v>999</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>973</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>974</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>975</v>
+        <v>1002</v>
       </c>
     </row>
   </sheetData>

--- a/RuntimeResources/System/resources.xlsx
+++ b/RuntimeResources/System/resources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="1006">
   <si>
     <t xml:space="preserve">stringName</t>
   </si>
@@ -1710,6 +1710,16 @@
 \n
 以下の情報を取得できるようになります。\n
 ・使用レーン数(Drumsのみ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgShowSongPath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShowSongPath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">選曲画面で、選曲中のDTXデータとset.defのフルパス名を表示します。\n
+選曲画面で[Delete]を押すと、On/Offを切り替えることができます。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgSysSkin</t>
@@ -5268,6 +5278,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="9.5"/>
+      <color rgb="FFA31515"/>
+      <name val="MS Gothic"/>
+      <family val="0"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -5279,12 +5295,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9.5"/>
-      <color rgb="FFA31515"/>
-      <name val="MS Gothic"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="9.5"/>
@@ -5384,20 +5394,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -5481,10 +5491,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J318"/>
+  <dimension ref="A1:J319"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C63" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F64" activeCellId="0" sqref="F64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A93" activeCellId="0" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6763,344 +6773,342 @@
         <v>299</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+    <row r="93" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="10" t="s">
         <v>300</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="9"/>
+      <c r="F93" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="F93" s="9" t="s">
+    </row>
+    <row r="94" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="B94" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="C94" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="F94" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F94" s="9" t="s">
+    </row>
+    <row r="95" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="B95" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="C95" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="F95" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="F95" s="9" t="s">
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="B96" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B96" s="7"/>
       <c r="C96" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="F96" s="9"/>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F96" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>315</v>
+      </c>
       <c r="B97" s="7"/>
-      <c r="C97" s="9"/>
+      <c r="C97" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="F97" s="9"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="7"/>
+      <c r="C98" s="9"/>
+      <c r="F98" s="9"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C99" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F99" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="10"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="F99" s="7"/>
-    </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="A100" s="11"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="F100" s="7"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="C101" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="F101" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="F101" s="0" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="C102" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="F102" s="0" t="s">
         <v>325</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="C103" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="F103" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B104" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" s="7" t="s">
         <v>332</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="F105" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="B106" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="F106" s="7" t="s">
-        <v>338</v>
+      <c r="F106" s="0" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="C107" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="F107" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="B108" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="C108" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="F108" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B109" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="C109" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="F109" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="B110" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="C110" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="F110" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="B111" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="C111" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="F111" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="B112" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="C112" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="F112" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F112" s="0" t="s">
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="B113" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="C113" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="F113" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="F114" s="7" t="s">
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="B115" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="C115" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="F115" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="D115" s="7" t="s">
+    </row>
+    <row r="116" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="F115" s="9" t="s">
+      <c r="B116" s="7" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="C116" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="D116" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="F116" s="9" t="s">
         <v>374</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B117" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="C117" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C117" s="9" t="s">
-        <v>374</v>
-      </c>
       <c r="F117" s="9" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="7"/>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="B120" s="7" t="s">
+    </row>
+    <row r="118" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="7"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="B121" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C121" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F120" s="7" t="s">
+      <c r="F121" s="7" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="F122" s="0" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7108,82 +7116,82 @@
         <v>382</v>
       </c>
       <c r="B123" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C123" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="F123" s="0" t="s">
         <v>384</v>
-      </c>
-      <c r="F123" s="0" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="B124" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="C124" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="F124" s="0" t="s">
         <v>388</v>
-      </c>
-      <c r="F124" s="0" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B125" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="C125" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="F125" s="0" t="s">
         <v>392</v>
-      </c>
-      <c r="F125" s="0" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B126" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="C126" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="F126" s="0" t="s">
         <v>396</v>
-      </c>
-      <c r="F126" s="0" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B127" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="C127" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="F127" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="F127" s="0" t="s">
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+      <c r="B128" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="B129" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C129" s="7" t="s">
+      <c r="C128" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F129" s="0" t="s">
+      <c r="F128" s="0" t="s">
         <v>404</v>
       </c>
     </row>
@@ -7192,436 +7200,432 @@
         <v>405</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B131" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C131" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="C131" s="7" t="s">
-        <v>388</v>
-      </c>
       <c r="F131" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B132" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C132" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="C132" s="7" t="s">
-        <v>392</v>
-      </c>
       <c r="F132" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B133" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C133" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="C133" s="7" t="s">
-        <v>396</v>
-      </c>
       <c r="F133" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B134" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C134" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="C134" s="7" t="s">
-        <v>400</v>
-      </c>
       <c r="F134" s="0" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="B136" s="0" t="s">
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="B135" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F135" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="F136" s="3" t="s">
+    </row>
+    <row r="137" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+      <c r="B137" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="C137" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C139" s="0" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F137" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="C140" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="D140" s="7" t="s">
+      <c r="C140" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="F140" s="9" t="s">
+      <c r="B141" s="0" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="141" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+      <c r="C141" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="D141" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="F141" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="D141" s="7" t="s">
+    </row>
+    <row r="142" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="F141" s="9" t="s">
+      <c r="B142" s="0" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="142" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+      <c r="C142" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="D142" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="C142" s="9" t="s">
+      <c r="F142" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="D142" s="7" t="s">
+    </row>
+    <row r="143" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="F142" s="9" t="s">
+      <c r="B143" s="0" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="143" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+      <c r="C143" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="D143" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="C143" s="9" t="s">
+      <c r="F143" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="D143" s="7" t="s">
+    </row>
+    <row r="144" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="F143" s="9" t="s">
+      <c r="B144" s="0" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="144" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+      <c r="C144" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="D144" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="F144" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="F144" s="9" t="s">
+    </row>
+    <row r="145" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="145" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+      <c r="B145" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="C145" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="C145" s="9" t="s">
+      <c r="F145" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="D145" s="7" t="s">
+    </row>
+    <row r="146" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="F145" s="9" t="s">
+      <c r="B146" s="0" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="146" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+      <c r="C146" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="B146" s="0" t="s">
+      <c r="D146" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="C146" s="9" t="s">
+      <c r="F146" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="D146" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="F146" s="9" t="s">
+    </row>
+    <row r="147" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="147" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+      <c r="B147" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="C147" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="C147" s="9" t="s">
+      <c r="D147" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F147" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="D147" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="F147" s="9" t="s">
+    </row>
+    <row r="148" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="149" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+      <c r="B148" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="C148" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="D148" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F148" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="F149" s="9" t="s">
+    </row>
+    <row r="150" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+      <c r="B150" s="0" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="152" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C150" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="B152" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="C152" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="F152" s="3" t="s">
+    </row>
+    <row r="153" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
+      <c r="B153" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="B153" s="0" t="s">
+      <c r="C153" s="7" t="s">
         <v>468</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B156" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="C156" s="9" t="s">
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="D156" s="7" t="s">
+      <c r="B155" s="0" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="F156" s="3" t="s">
+      <c r="B157" s="0" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+      <c r="C157" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="D157" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="F157" s="3" t="s">
         <v>477</v>
-      </c>
-      <c r="F157" s="0" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="B158" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="C158" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="F158" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="F158" s="7" t="s">
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="159" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+      <c r="B159" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="C159" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="C159" s="9" t="s">
+      <c r="F159" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="F159" s="9" t="s">
+    </row>
+    <row r="160" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="160" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+      <c r="B160" s="0" t="s">
         <v>487</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="C160" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="C160" s="9" t="s">
+      <c r="F160" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="D160" s="7" t="s">
+    </row>
+    <row r="161" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="F160" s="9" t="s">
+      <c r="B161" s="7" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+      <c r="C161" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="B161" s="0" t="s">
+      <c r="D161" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="C161" s="7" t="s">
+      <c r="F161" s="9" t="s">
         <v>494</v>
-      </c>
-      <c r="F161" s="0" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="B162" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="B162" s="0" t="s">
+      <c r="C162" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="C162" s="7" t="s">
+      <c r="F162" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="D162" s="7"/>
-      <c r="F162" s="0" t="s">
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
         <v>499</v>
       </c>
-      <c r="J162" s="5" t="s">
+      <c r="B163" s="0" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="10" t="s">
+      <c r="C163" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="D163" s="7"/>
+      <c r="F163" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="C163" s="7" t="s">
+      <c r="J163" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="D163" s="7" t="s">
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="F163" s="7" t="s">
+      <c r="B164" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="J163" s="5" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="10" t="s">
+      <c r="C164" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="D164" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="C164" s="7" t="s">
+      <c r="F164" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="D164" s="7" t="s">
+      <c r="J164" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="F164" s="7" t="s">
+      <c r="B165" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="J164" s="5"/>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="B165" s="10" t="s">
+      <c r="C165" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="C165" s="7" t="s">
+      <c r="D165" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="F165" s="7" t="s">
         <v>513</v>
@@ -7629,448 +7633,452 @@
       <c r="J165" s="5"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="10" t="s">
+      <c r="A166" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B166" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="B166" s="10" t="s">
+      <c r="C166" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="C166" s="7" t="s">
+      <c r="D166" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F166" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="D166" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="F166" s="7" t="s">
+      <c r="J166" s="5"/>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="J166" s="5"/>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+      <c r="B167" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="B167" s="0" t="s">
+      <c r="C167" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="C167" s="0" t="s">
+      <c r="D167" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F167" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="F167" s="0" t="s">
+      <c r="J167" s="5"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="168" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+      <c r="B168" s="0" t="s">
         <v>522</v>
       </c>
-      <c r="B168" s="0" t="s">
+      <c r="C168" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="C168" s="9" t="s">
+      <c r="F168" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="D168" s="7" t="s">
+    </row>
+    <row r="169" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="F168" s="9" t="s">
+      <c r="B169" s="0" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="169" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+      <c r="C169" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="B169" s="0" t="s">
+      <c r="D169" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="C169" s="9" t="s">
+      <c r="F169" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="F169" s="9" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="C170" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="B170" s="0" t="s">
+      <c r="D170" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="C170" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>530</v>
       </c>
       <c r="F170" s="9" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+    <row r="171" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
         <v>535</v>
       </c>
-      <c r="B172" s="0" t="s">
+      <c r="B171" s="0" t="s">
         <v>536</v>
       </c>
-      <c r="C172" s="9" t="s">
+      <c r="C171" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="F171" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="F172" s="3" t="s">
+    </row>
+    <row r="173" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="173" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
+      <c r="B173" s="0" t="s">
         <v>539</v>
       </c>
-      <c r="B173" s="0" t="s">
+      <c r="C173" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="C173" s="9" t="s">
+      <c r="F173" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="F173" s="3" t="s">
+    </row>
+    <row r="174" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
+      <c r="B174" s="0" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="175" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C174" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="B175" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="C175" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="F175" s="3" t="s">
+    </row>
+    <row r="176" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+      <c r="B176" s="0" t="s">
         <v>548</v>
       </c>
-      <c r="B176" s="0" t="s">
+      <c r="C176" s="3" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="178" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+      <c r="F176" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="C178" s="9" t="s">
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
         <v>551</v>
       </c>
-      <c r="F178" s="9" t="s">
+      <c r="B177" s="0" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="5" t="s">
+    <row r="179" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
         <v>553</v>
       </c>
-      <c r="B183" s="11" t="s">
+      <c r="C179" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="C183" s="7" t="s">
+      <c r="F179" s="9" t="s">
         <v>555</v>
-      </c>
-      <c r="F183" s="7" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B184" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="B184" s="11" t="s">
+      <c r="C184" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="C184" s="7" t="s">
+      <c r="F184" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="F184" s="7" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B185" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="B185" s="11" t="s">
+      <c r="C185" s="7" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="186" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
+      <c r="F185" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="B186" s="0" t="s">
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="B186" s="12" t="s">
         <v>565</v>
-      </c>
-      <c r="F186" s="3" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B187" s="0" t="s">
         <v>567</v>
       </c>
-      <c r="B187" s="0" t="s">
+      <c r="C187" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="F187" s="3" t="s">
         <v>569</v>
-      </c>
-      <c r="F187" s="3" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="B188" s="0" t="s">
         <v>571</v>
       </c>
-      <c r="B188" s="0" t="s">
+      <c r="C188" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="F188" s="3" t="s">
         <v>573</v>
-      </c>
-      <c r="F188" s="3" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="B189" s="0" t="s">
         <v>575</v>
       </c>
-      <c r="B189" s="0" t="s">
+      <c r="C189" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="F189" s="3" t="s">
         <v>577</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="B190" s="0" t="s">
         <v>579</v>
       </c>
-      <c r="B190" s="0" t="s">
+      <c r="C190" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="F190" s="3" t="s">
         <v>581</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="B191" s="0" t="s">
         <v>583</v>
       </c>
-      <c r="B191" s="0" t="s">
+      <c r="C191" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="F191" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="F191" s="3" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="B192" s="0" t="s">
         <v>587</v>
       </c>
-      <c r="B192" s="0" t="s">
+      <c r="C192" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="F192" s="3" t="s">
         <v>589</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="B193" s="0" t="s">
         <v>591</v>
       </c>
-      <c r="B193" s="0" t="s">
+      <c r="C193" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="F193" s="3" t="s">
         <v>593</v>
-      </c>
-      <c r="F193" s="3" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="B194" s="0" t="s">
         <v>595</v>
       </c>
-      <c r="B194" s="0" t="s">
+      <c r="C194" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="F194" s="3" t="s">
         <v>597</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B195" s="0" t="s">
         <v>599</v>
       </c>
-      <c r="B195" s="0" t="s">
+      <c r="C195" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="F195" s="3" t="s">
         <v>601</v>
-      </c>
-      <c r="F195" s="3" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B196" s="0" t="s">
         <v>603</v>
       </c>
-      <c r="B196" s="0" t="s">
+      <c r="C196" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="F196" s="3" t="s">
         <v>605</v>
-      </c>
-      <c r="F196" s="3" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="B197" s="0" t="s">
         <v>607</v>
       </c>
-      <c r="B197" s="0" t="s">
+      <c r="C197" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="F197" s="3" t="s">
         <v>609</v>
-      </c>
-      <c r="F197" s="3" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="B198" s="0" t="s">
         <v>611</v>
       </c>
-      <c r="B198" s="0" t="s">
+      <c r="C198" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="F198" s="3" t="s">
         <v>613</v>
-      </c>
-      <c r="F198" s="3" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="B199" s="0" t="s">
         <v>615</v>
       </c>
-      <c r="B199" s="0" t="s">
+      <c r="C199" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="F199" s="3" t="s">
         <v>617</v>
-      </c>
-      <c r="F199" s="3" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="B200" s="0" t="s">
         <v>619</v>
       </c>
-      <c r="B200" s="0" t="s">
+      <c r="C200" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="F200" s="3" t="s">
         <v>621</v>
-      </c>
-      <c r="F200" s="3" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="B201" s="0" t="s">
         <v>623</v>
       </c>
-      <c r="B201" s="0" t="s">
+      <c r="C201" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="F201" s="3" t="s">
         <v>625</v>
-      </c>
-      <c r="F201" s="3" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="B202" s="0" t="s">
         <v>627</v>
       </c>
-      <c r="B202" s="0" t="s">
+      <c r="C202" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="F202" s="3" t="s">
         <v>629</v>
-      </c>
-      <c r="F202" s="3" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="B203" s="0" t="s">
         <v>631</v>
       </c>
-      <c r="B203" s="0" t="s">
+      <c r="C203" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="F203" s="3" t="s">
         <v>633</v>
-      </c>
-      <c r="F203" s="3" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="B204" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="B204" s="0" t="s">
-        <v>608</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>636</v>
@@ -8084,7 +8092,7 @@
         <v>638</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>639</v>
@@ -8098,7 +8106,7 @@
         <v>641</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>642</v>
@@ -8112,7 +8120,7 @@
         <v>644</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>645</v>
@@ -8126,7 +8134,7 @@
         <v>647</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>648</v>
@@ -8140,7 +8148,7 @@
         <v>650</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>651</v>
@@ -8154,7 +8162,7 @@
         <v>653</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>654</v>
@@ -8163,98 +8171,101 @@
         <v>655</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
         <v>656</v>
       </c>
-      <c r="B211" s="7" t="s">
+      <c r="B211" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="C211" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="F211" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="F211" s="3" t="s">
+    </row>
+    <row r="212" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
+      <c r="B212" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="B214" s="0" t="s">
+      <c r="C212" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="C214" s="7" t="s">
+      <c r="F212" s="3" t="s">
         <v>662</v>
-      </c>
-      <c r="F214" s="7" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="B215" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="B215" s="0" t="s">
+      <c r="C215" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="C215" s="7" t="s">
+      <c r="F215" s="7" t="s">
         <v>666</v>
-      </c>
-      <c r="F215" s="7" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="B216" s="0" t="s">
         <v>668</v>
       </c>
-      <c r="B216" s="0" t="s">
+      <c r="C216" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="C216" s="7" t="s">
+      <c r="F216" s="7" t="s">
         <v>670</v>
-      </c>
-      <c r="F216" s="7" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="B217" s="0" t="s">
         <v>672</v>
       </c>
-      <c r="B217" s="0" t="s">
+      <c r="C217" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="C217" s="7" t="s">
+      <c r="F217" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="F217" s="7" t="s">
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="218" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
+      <c r="B218" s="0" t="s">
         <v>676</v>
       </c>
-      <c r="B218" s="0" t="s">
+      <c r="C218" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="C218" s="9" t="s">
+      <c r="F218" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="F218" s="7" t="s">
+    </row>
+    <row r="219" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
+      <c r="B219" s="0" t="s">
         <v>680</v>
       </c>
-      <c r="C223" s="0" t="s">
+      <c r="C219" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="F223" s="0" t="s">
+      <c r="F219" s="7" t="s">
         <v>682</v>
       </c>
     </row>
@@ -8269,211 +8280,208 @@
         <v>685</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C227" s="12"/>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="F225" s="0" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
-        <v>686</v>
-      </c>
-      <c r="B228" s="0" t="s">
-        <v>687</v>
-      </c>
-      <c r="C228" s="0" t="s">
-        <v>688</v>
-      </c>
-      <c r="F228" s="0" t="s">
-        <v>689</v>
-      </c>
+      <c r="C228" s="13"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="B229" s="0" t="s">
         <v>690</v>
       </c>
-      <c r="B229" s="0" t="s">
+      <c r="C229" s="0" t="s">
         <v>691</v>
       </c>
-      <c r="C229" s="0" t="s">
+      <c r="F229" s="0" t="s">
         <v>692</v>
-      </c>
-      <c r="F229" s="0" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="B230" s="0" t="s">
         <v>694</v>
       </c>
-      <c r="B230" s="0" t="s">
+      <c r="C230" s="0" t="s">
         <v>695</v>
       </c>
-      <c r="C230" s="0" t="s">
+      <c r="F230" s="0" t="s">
         <v>696</v>
-      </c>
-      <c r="F230" s="0" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="B231" s="0" t="s">
         <v>698</v>
       </c>
-      <c r="B231" s="0" t="s">
+      <c r="C231" s="0" t="s">
         <v>699</v>
       </c>
-      <c r="C231" s="0" t="s">
+      <c r="F231" s="0" t="s">
         <v>700</v>
-      </c>
-      <c r="F231" s="0" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="B232" s="0" t="s">
         <v>702</v>
       </c>
-      <c r="B232" s="0" t="s">
+      <c r="C232" s="0" t="s">
         <v>703</v>
       </c>
-      <c r="C232" s="0" t="s">
+      <c r="F232" s="0" t="s">
         <v>704</v>
-      </c>
-      <c r="F232" s="0" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="B233" s="0" t="s">
         <v>706</v>
       </c>
-      <c r="B233" s="0" t="s">
+      <c r="C233" s="0" t="s">
         <v>707</v>
       </c>
-      <c r="C233" s="0" t="s">
+      <c r="F233" s="0" t="s">
         <v>708</v>
-      </c>
-      <c r="F233" s="0" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="B234" s="0" t="s">
         <v>710</v>
       </c>
-      <c r="B234" s="0" t="s">
+      <c r="C234" s="0" t="s">
         <v>711</v>
       </c>
-      <c r="C234" s="0" t="s">
+      <c r="F234" s="0" t="s">
         <v>712</v>
-      </c>
-      <c r="F234" s="0" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="B235" s="0" t="s">
         <v>714</v>
       </c>
-      <c r="B235" s="0" t="s">
+      <c r="C235" s="0" t="s">
         <v>715</v>
       </c>
-      <c r="C235" s="0" t="s">
+      <c r="F235" s="0" t="s">
         <v>716</v>
-      </c>
-      <c r="F235" s="0" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="B236" s="0" t="s">
         <v>718</v>
       </c>
-      <c r="B236" s="0" t="s">
+      <c r="C236" s="0" t="s">
         <v>719</v>
       </c>
-      <c r="C236" s="0" t="s">
+      <c r="F236" s="0" t="s">
         <v>720</v>
-      </c>
-      <c r="F236" s="0" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="B237" s="0" t="s">
         <v>722</v>
       </c>
-      <c r="B237" s="0" t="s">
+      <c r="C237" s="0" t="s">
         <v>723</v>
       </c>
-      <c r="C237" s="0" t="s">
+      <c r="F237" s="0" t="s">
         <v>724</v>
-      </c>
-      <c r="F237" s="0" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="B238" s="0" t="s">
         <v>726</v>
       </c>
-      <c r="B238" s="0" t="s">
+      <c r="C238" s="0" t="s">
         <v>727</v>
       </c>
-      <c r="C238" s="0" t="s">
+      <c r="F238" s="0" t="s">
         <v>728</v>
-      </c>
-      <c r="F238" s="0" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="B239" s="0" t="s">
         <v>730</v>
       </c>
-      <c r="B239" s="0" t="s">
+      <c r="C239" s="0" t="s">
         <v>731</v>
       </c>
-      <c r="C239" s="0" t="s">
+      <c r="F239" s="0" t="s">
         <v>732</v>
-      </c>
-      <c r="F239" s="0" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="B240" s="0" t="s">
         <v>734</v>
       </c>
-      <c r="B240" s="0" t="s">
+      <c r="C240" s="0" t="s">
         <v>735</v>
       </c>
-      <c r="C240" s="0" t="s">
+      <c r="F240" s="0" t="s">
         <v>736</v>
-      </c>
-      <c r="F240" s="0" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="B241" s="0" t="s">
         <v>738</v>
       </c>
-      <c r="B241" s="0" t="s">
+      <c r="C241" s="0" t="s">
         <v>739</v>
       </c>
-      <c r="C241" s="0" t="s">
+      <c r="F241" s="0" t="s">
         <v>740</v>
-      </c>
-      <c r="F241" s="0" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="B242" s="0" t="s">
         <v>742</v>
-      </c>
-      <c r="B242" s="0" t="s">
-        <v>695</v>
       </c>
       <c r="C242" s="0" t="s">
         <v>743</v>
@@ -8487,49 +8495,49 @@
         <v>745</v>
       </c>
       <c r="B243" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="C243" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="C243" s="0" t="s">
+      <c r="F243" s="0" t="s">
         <v>747</v>
-      </c>
-      <c r="F243" s="0" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="B244" s="0" t="s">
         <v>749</v>
       </c>
-      <c r="B244" s="0" t="s">
+      <c r="C244" s="0" t="s">
         <v>750</v>
       </c>
-      <c r="C244" s="0" t="s">
+      <c r="F244" s="0" t="s">
         <v>751</v>
-      </c>
-      <c r="F244" s="0" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="B245" s="0" t="s">
         <v>753</v>
       </c>
-      <c r="B245" s="0" t="s">
+      <c r="C245" s="0" t="s">
         <v>754</v>
       </c>
-      <c r="C245" s="0" t="s">
+      <c r="F245" s="0" t="s">
         <v>755</v>
-      </c>
-      <c r="F245" s="0" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="B246" s="0" t="s">
         <v>757</v>
-      </c>
-      <c r="B246" s="0" t="s">
-        <v>711</v>
       </c>
       <c r="C246" s="0" t="s">
         <v>758</v>
@@ -8543,7 +8551,7 @@
         <v>760</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C247" s="0" t="s">
         <v>761</v>
@@ -8557,35 +8565,35 @@
         <v>763</v>
       </c>
       <c r="B248" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="C248" s="0" t="s">
         <v>764</v>
       </c>
-      <c r="C248" s="0" t="s">
+      <c r="F248" s="0" t="s">
         <v>765</v>
-      </c>
-      <c r="F248" s="0" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="B249" s="0" t="s">
         <v>767</v>
       </c>
-      <c r="B249" s="0" t="s">
+      <c r="C249" s="0" t="s">
         <v>768</v>
       </c>
-      <c r="C249" s="0" t="s">
+      <c r="F249" s="0" t="s">
         <v>769</v>
-      </c>
-      <c r="F249" s="0" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="B250" s="0" t="s">
         <v>771</v>
-      </c>
-      <c r="B250" s="0" t="s">
-        <v>695</v>
       </c>
       <c r="C250" s="0" t="s">
         <v>772</v>
@@ -8599,21 +8607,21 @@
         <v>774</v>
       </c>
       <c r="B251" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="C251" s="0" t="s">
         <v>775</v>
       </c>
-      <c r="C251" s="0" t="s">
+      <c r="F251" s="0" t="s">
         <v>776</v>
-      </c>
-      <c r="F251" s="0" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="B252" s="0" t="s">
         <v>778</v>
-      </c>
-      <c r="B252" s="0" t="s">
-        <v>750</v>
       </c>
       <c r="C252" s="0" t="s">
         <v>779</v>
@@ -8627,7 +8635,7 @@
         <v>781</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>707</v>
+        <v>753</v>
       </c>
       <c r="C253" s="0" t="s">
         <v>782</v>
@@ -8641,7 +8649,7 @@
         <v>784</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C254" s="0" t="s">
         <v>785</v>
@@ -8655,7 +8663,7 @@
         <v>787</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C255" s="0" t="s">
         <v>788</v>
@@ -8669,42 +8677,45 @@
         <v>790</v>
       </c>
       <c r="B256" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="C256" s="0" t="s">
         <v>791</v>
       </c>
-      <c r="C256" s="0" t="s">
+      <c r="F256" s="0" t="s">
         <v>792</v>
-      </c>
-      <c r="F256" s="0" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B257" s="0" t="s">
         <v>794</v>
       </c>
-      <c r="B257" s="0" t="s">
+      <c r="C257" s="0" t="s">
         <v>795</v>
       </c>
-      <c r="C257" s="0" t="s">
+      <c r="F257" s="0" t="s">
         <v>796</v>
       </c>
-      <c r="F257" s="0" t="s">
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="13" t="s">
+      <c r="B258" s="0" t="s">
         <v>798</v>
       </c>
-      <c r="B258" s="0" t="s">
+      <c r="C258" s="0" t="s">
         <v>799</v>
       </c>
-      <c r="F258" s="14" t="s">
+      <c r="F258" s="0" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="13" t="s">
+      <c r="A259" s="4" t="s">
         <v>801</v>
       </c>
       <c r="B259" s="0" t="s">
@@ -8715,7 +8726,7 @@
       </c>
     </row>
     <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="13" t="s">
+      <c r="A260" s="4" t="s">
         <v>804</v>
       </c>
       <c r="B260" s="0" t="s">
@@ -8726,7 +8737,7 @@
       </c>
     </row>
     <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="13" t="s">
+      <c r="A261" s="4" t="s">
         <v>807</v>
       </c>
       <c r="B261" s="0" t="s">
@@ -8736,44 +8747,44 @@
         <v>809</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="13" t="s">
+    <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="4" t="s">
         <v>810</v>
       </c>
       <c r="B262" s="0" t="s">
         <v>811</v>
       </c>
-      <c r="C262" s="9" t="s">
-        <v>193</v>
-      </c>
       <c r="F262" s="14" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="13" t="s">
+    <row r="263" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="4" t="s">
         <v>813</v>
       </c>
       <c r="B263" s="0" t="s">
         <v>814</v>
       </c>
+      <c r="C263" s="9" t="s">
+        <v>193</v>
+      </c>
       <c r="F263" s="14" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="69.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="13" t="s">
+    <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="4" t="s">
         <v>816</v>
       </c>
       <c r="B264" s="0" t="s">
         <v>817</v>
       </c>
-      <c r="F264" s="9" t="s">
+      <c r="F264" s="14" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="13" t="s">
+    <row r="265" customFormat="false" ht="69.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="4" t="s">
         <v>819</v>
       </c>
       <c r="B265" s="0" t="s">
@@ -8784,7 +8795,7 @@
       </c>
     </row>
     <row r="266" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="13" t="s">
+      <c r="A266" s="4" t="s">
         <v>822</v>
       </c>
       <c r="B266" s="0" t="s">
@@ -8794,518 +8805,518 @@
         <v>824</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="0" t="s">
+    <row r="267" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="4" t="s">
         <v>825</v>
       </c>
       <c r="B267" s="0" t="s">
         <v>826</v>
       </c>
-      <c r="C267" s="0" t="s">
+      <c r="F267" s="9" t="s">
         <v>827</v>
-      </c>
-      <c r="F267" s="0" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="B268" s="0" t="s">
         <v>829</v>
       </c>
-      <c r="B268" s="0" t="s">
+      <c r="C268" s="0" t="s">
         <v>830</v>
       </c>
-      <c r="C268" s="0" t="s">
+      <c r="F268" s="0" t="s">
         <v>831</v>
-      </c>
-      <c r="F268" s="0" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="B269" s="0" t="s">
         <v>833</v>
       </c>
-      <c r="B269" s="0" t="s">
+      <c r="C269" s="0" t="s">
         <v>834</v>
       </c>
-      <c r="C269" s="0" t="s">
+      <c r="F269" s="0" t="s">
         <v>835</v>
-      </c>
-      <c r="F269" s="0" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="B270" s="0" t="s">
         <v>837</v>
       </c>
-      <c r="B270" s="0" t="s">
+      <c r="C270" s="0" t="s">
         <v>838</v>
       </c>
-      <c r="C270" s="0" t="s">
+      <c r="F270" s="0" t="s">
         <v>839</v>
-      </c>
-      <c r="F270" s="0" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="B271" s="0" t="s">
         <v>841</v>
       </c>
-      <c r="B271" s="0" t="s">
+      <c r="C271" s="0" t="s">
         <v>842</v>
       </c>
-      <c r="C271" s="0" t="s">
+      <c r="F271" s="0" t="s">
         <v>843</v>
-      </c>
-      <c r="F271" s="0" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="B272" s="0" t="s">
         <v>845</v>
       </c>
-      <c r="B272" s="0" t="s">
+      <c r="C272" s="0" t="s">
         <v>846</v>
       </c>
-      <c r="C272" s="0" t="s">
+      <c r="F272" s="0" t="s">
         <v>847</v>
-      </c>
-      <c r="F272" s="0" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="B273" s="0" t="s">
         <v>849</v>
       </c>
-      <c r="B273" s="0" t="s">
+      <c r="C273" s="0" t="s">
         <v>850</v>
       </c>
-      <c r="C273" s="0" t="s">
+      <c r="F273" s="0" t="s">
         <v>851</v>
-      </c>
-      <c r="F273" s="0" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="B274" s="0" t="s">
         <v>853</v>
       </c>
-      <c r="B274" s="0" t="s">
-        <v>830</v>
-      </c>
       <c r="C274" s="0" t="s">
-        <v>831</v>
+        <v>854</v>
       </c>
       <c r="F274" s="0" t="s">
-        <v>832</v>
+        <v>855</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B275" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="C275" s="0" t="s">
         <v>834</v>
       </c>
-      <c r="C275" s="0" t="s">
+      <c r="F275" s="0" t="s">
         <v>835</v>
-      </c>
-      <c r="F275" s="0" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B276" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="C276" s="0" t="s">
         <v>838</v>
       </c>
-      <c r="C276" s="0" t="s">
+      <c r="F276" s="0" t="s">
         <v>839</v>
-      </c>
-      <c r="F276" s="0" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B277" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="C277" s="0" t="s">
         <v>842</v>
       </c>
-      <c r="C277" s="0" t="s">
+      <c r="F277" s="0" t="s">
         <v>843</v>
-      </c>
-      <c r="F277" s="0" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="F278" s="0" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="B279" s="0" t="s">
         <v>861</v>
       </c>
-      <c r="B279" s="0" t="s">
+      <c r="C279" s="0" t="s">
         <v>862</v>
       </c>
-      <c r="C279" s="0" t="s">
+      <c r="F279" s="0" t="s">
         <v>863</v>
-      </c>
-      <c r="F279" s="0" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="B280" s="0" t="s">
         <v>865</v>
       </c>
-      <c r="B280" s="0" t="s">
+      <c r="C280" s="0" t="s">
         <v>866</v>
       </c>
-      <c r="C280" s="0" t="s">
+      <c r="F280" s="0" t="s">
         <v>867</v>
-      </c>
-      <c r="F280" s="0" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="B281" s="0" t="s">
         <v>869</v>
       </c>
-      <c r="B281" s="0" t="s">
+      <c r="C281" s="0" t="s">
         <v>870</v>
       </c>
-      <c r="C281" s="0" t="s">
+      <c r="F281" s="0" t="s">
         <v>871</v>
-      </c>
-      <c r="F281" s="0" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="B282" s="0" t="s">
         <v>873</v>
       </c>
-      <c r="B282" s="0" t="s">
+      <c r="C282" s="0" t="s">
         <v>874</v>
       </c>
-      <c r="C282" s="0" t="s">
+      <c r="F282" s="0" t="s">
         <v>875</v>
-      </c>
-      <c r="F282" s="0" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="B283" s="0" t="s">
         <v>877</v>
       </c>
-      <c r="B283" s="0" t="s">
+      <c r="C283" s="0" t="s">
         <v>878</v>
       </c>
-      <c r="C283" s="0" t="s">
+      <c r="F283" s="0" t="s">
         <v>879</v>
-      </c>
-      <c r="F283" s="0" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="B284" s="0" t="s">
         <v>881</v>
       </c>
-      <c r="B284" s="0" t="s">
+      <c r="C284" s="0" t="s">
         <v>882</v>
       </c>
-      <c r="C284" s="0" t="s">
+      <c r="F284" s="0" t="s">
         <v>883</v>
-      </c>
-      <c r="F284" s="0" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="B285" s="0" t="s">
         <v>885</v>
       </c>
-      <c r="B285" s="0" t="s">
+      <c r="C285" s="0" t="s">
         <v>886</v>
       </c>
-      <c r="C285" s="0" t="s">
+      <c r="F285" s="0" t="s">
         <v>887</v>
-      </c>
-      <c r="F285" s="0" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="B286" s="0" t="s">
         <v>889</v>
       </c>
-      <c r="B286" s="0" t="s">
+      <c r="C286" s="0" t="s">
         <v>890</v>
       </c>
-      <c r="C286" s="0" t="s">
+      <c r="F286" s="0" t="s">
         <v>891</v>
-      </c>
-      <c r="F286" s="0" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="B287" s="0" t="s">
         <v>893</v>
       </c>
-      <c r="B287" s="0" t="s">
+      <c r="C287" s="0" t="s">
         <v>894</v>
       </c>
-      <c r="C287" s="0" t="s">
+      <c r="F287" s="0" t="s">
         <v>895</v>
-      </c>
-      <c r="F287" s="0" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
+        <v>896</v>
+      </c>
+      <c r="B288" s="0" t="s">
         <v>897</v>
       </c>
-      <c r="B288" s="0" t="s">
+      <c r="C288" s="0" t="s">
         <v>898</v>
       </c>
-      <c r="C288" s="0" t="s">
+      <c r="F288" s="0" t="s">
         <v>899</v>
       </c>
-      <c r="F288" s="0" t="s">
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="289" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="0" t="s">
+      <c r="B289" s="0" t="s">
         <v>901</v>
       </c>
-      <c r="B289" s="0" t="s">
+      <c r="C289" s="0" t="s">
         <v>902</v>
       </c>
-      <c r="C289" s="7" t="s">
+      <c r="F289" s="0" t="s">
         <v>903</v>
       </c>
-      <c r="F289" s="9" t="s">
+    </row>
+    <row r="290" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="291" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="0" t="s">
+      <c r="B290" s="0" t="s">
         <v>905</v>
       </c>
-      <c r="B291" s="0" t="s">
+      <c r="C290" s="7" t="s">
         <v>906</v>
       </c>
-      <c r="C291" s="3" t="s">
+      <c r="F290" s="9" t="s">
         <v>907</v>
-      </c>
-      <c r="F291" s="3" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="B292" s="0" t="s">
         <v>909</v>
       </c>
-      <c r="B292" s="0" t="s">
+      <c r="C292" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="F292" s="3" t="s">
         <v>911</v>
-      </c>
-      <c r="F292" s="3" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
+        <v>912</v>
+      </c>
+      <c r="B293" s="0" t="s">
         <v>913</v>
       </c>
-      <c r="B293" s="0" t="s">
+      <c r="C293" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="F293" s="3" t="s">
         <v>915</v>
-      </c>
-      <c r="F293" s="3" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="B294" s="0" t="s">
         <v>917</v>
       </c>
-      <c r="B294" s="0" t="s">
+      <c r="C294" s="3" t="s">
         <v>918</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="F294" s="3" t="s">
         <v>919</v>
-      </c>
-      <c r="F294" s="3" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="B295" s="0" t="s">
         <v>921</v>
       </c>
-      <c r="B295" s="0" t="s">
+      <c r="C295" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="C295" s="3" t="s">
+      <c r="F295" s="3" t="s">
         <v>923</v>
-      </c>
-      <c r="F295" s="3" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="B296" s="0" t="s">
         <v>925</v>
       </c>
-      <c r="B296" s="0" t="s">
+      <c r="C296" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="C296" s="3" t="s">
+      <c r="F296" s="3" t="s">
         <v>927</v>
-      </c>
-      <c r="F296" s="3" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
+        <v>928</v>
+      </c>
+      <c r="B297" s="0" t="s">
         <v>929</v>
       </c>
-      <c r="B297" s="0" t="s">
+      <c r="C297" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="F297" s="3" t="s">
         <v>931</v>
-      </c>
-      <c r="F297" s="3" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="B298" s="0" t="s">
         <v>933</v>
       </c>
-      <c r="B298" s="0" t="s">
+      <c r="C298" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="F298" s="3" t="s">
         <v>935</v>
-      </c>
-      <c r="F298" s="3" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="B299" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="B299" s="0" t="s">
+      <c r="C299" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="F299" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="F299" s="3" t="s">
+    </row>
+    <row r="300" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="301" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="0" t="s">
+      <c r="B300" s="0" t="s">
         <v>941</v>
       </c>
-      <c r="B301" s="0" t="s">
+      <c r="C300" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="C301" s="3" t="s">
+      <c r="F300" s="3" t="s">
         <v>943</v>
-      </c>
-      <c r="F301" s="3" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
+        <v>944</v>
+      </c>
+      <c r="B302" s="0" t="s">
         <v>945</v>
       </c>
-      <c r="B302" s="0" t="s">
+      <c r="C302" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="F302" s="3" t="s">
         <v>947</v>
-      </c>
-      <c r="F302" s="3" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="B303" s="0" t="s">
         <v>949</v>
       </c>
-      <c r="B303" s="0" t="s">
+      <c r="C303" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="C303" s="3" t="s">
+      <c r="F303" s="3" t="s">
         <v>951</v>
-      </c>
-      <c r="F303" s="3" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="B304" s="0" t="s">
         <v>953</v>
       </c>
-      <c r="B304" s="0" t="s">
+      <c r="C304" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="F304" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="F304" s="3" t="s">
+    </row>
+    <row r="305" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="0" t="s">
+      <c r="B305" s="0" t="s">
         <v>957</v>
       </c>
-      <c r="B306" s="0" t="s">
+      <c r="C305" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="E306" s="0" t="s">
+      <c r="F305" s="3" t="s">
         <v>959</v>
       </c>
     </row>
@@ -9343,7 +9354,7 @@
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="10" t="s">
+      <c r="A310" s="0" t="s">
         <v>969</v>
       </c>
       <c r="B310" s="0" t="s">
@@ -9354,7 +9365,7 @@
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="0" t="s">
+      <c r="A311" s="11" t="s">
         <v>972</v>
       </c>
       <c r="B311" s="0" t="s">
@@ -9397,66 +9408,77 @@
         <v>983</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="7" t="s">
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="s">
         <v>984</v>
       </c>
-      <c r="B316" s="0" t="s">
+      <c r="B315" s="0" t="s">
         <v>985</v>
       </c>
-      <c r="C316" s="3" t="s">
+      <c r="E315" s="0" t="s">
         <v>986</v>
       </c>
-      <c r="D316" s="0" t="s">
+    </row>
+    <row r="317" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="7" t="s">
         <v>987</v>
       </c>
-      <c r="E316" s="0" t="s">
-        <v>985</v>
-      </c>
-      <c r="F316" s="3" t="s">
+      <c r="B317" s="0" t="s">
         <v>988</v>
       </c>
-      <c r="G316" s="0" t="s">
+      <c r="C317" s="3" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="7" t="s">
+      <c r="D317" s="0" t="s">
         <v>990</v>
       </c>
-      <c r="B317" s="0" t="s">
+      <c r="E317" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="F317" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="C317" s="0" t="s">
+      <c r="G317" s="0" t="s">
         <v>992</v>
-      </c>
-      <c r="E317" s="0" t="s">
-        <v>991</v>
-      </c>
-      <c r="F317" s="0" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="B318" s="0" t="s">
         <v>994</v>
       </c>
-      <c r="B318" s="0" t="s">
+      <c r="C318" s="0" t="s">
         <v>995</v>
       </c>
-      <c r="C318" s="0" t="s">
+      <c r="E318" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="F318" s="0" t="s">
         <v>996</v>
       </c>
-      <c r="E318" s="0" t="s">
-        <v>995</v>
-      </c>
-      <c r="F318" s="0" t="s">
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="7" t="s">
         <v>997</v>
+      </c>
+      <c r="B319" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="C319" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="E319" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="F319" s="0" t="s">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C146" r:id="rId1" display="To specify playing sound in case you're using (FT Grouping=[FT-0]).\n&#10;\n&#10;C&gt;P:\n&#10; Chip sound is prior to the pad sound.\n&#10;P&gt;C:\n&#10; Pad sound is prior to the chip sound."/>
+    <hyperlink ref="C147" r:id="rId1" display="To specify playing sound in case you're using (FT Grouping=[FT-0]).\n&#10;\n&#10;C&gt;P:\n&#10; Chip sound is prior to the pad sound.\n&#10;P&gt;C:\n&#10; Pad sound is prior to the chip sound."/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -9487,27 +9509,27 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
     </row>
   </sheetData>

--- a/RuntimeResources/System/resources.xlsx
+++ b/RuntimeResources/System/resources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="1016">
   <si>
     <t xml:space="preserve">stringName</t>
   </si>
@@ -772,6 +772,7 @@
     <t xml:space="preserve">It changes the song speed.\n
 For example, you can play in half speed by setting PlaySpeed = 0.500 for your practice.\n
 \n
+Whenever you set it ON, audio processing CPU load become twice than it is OFF.\n
 Note: It also changes the songs' pitch. In case TimeStretch=ON and slower than x0.900, some sound lag occurs.</t>
   </si>
   <si>
@@ -806,6 +807,7 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">n
+これをOnにしているときは、Offの時と比べて音声処理に2倍のCPU負荷が発生します。\n
 TimeStretchがONのときに、演奏速度をx0.850以下にすると、チップのズレが大きくなります。</t>
     </r>
   </si>
@@ -955,7 +957,7 @@
     <t xml:space="preserve">StageFailed</t>
   </si>
   <si>
-    <t xml:space="preserve">Turn OFF if you don't want to encount GAME OVER.</t>
+    <t xml:space="preserve">Turn OFF if you don't want to encounter GAME OVER.</t>
   </si>
   <si>
     <t xml:space="preserve">STAGE FAILED 有効：\n
@@ -1716,6 +1718,10 @@
   </si>
   <si>
     <t xml:space="preserve">ShowSongPath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In SELECT MUSIC screen, show fullpath name of DTX file and set.def file.\n
+You can also toggle the settings by [Delete] key at SELECT MUSIC screen.</t>
   </si>
   <si>
     <t xml:space="preserve">選曲画面で、選曲中のDTXデータとset.defのフルパス名を表示します。\n
@@ -2529,9 +2535,9 @@
     <t xml:space="preserve">To specify playing sound in case you're using (FT Grouping=[FT-0]).\n
 \n
 C&gt;P:\n
- Chip sound is prior to the pad sound.\n
+  Chip sound is prior to the pad sound.\n
 P&gt;C:\n
- Pad sound is prior to the chip sound.</t>
+  Pad sound is prior to the chip sound.</t>
   </si>
   <si>
     <t xml:space="preserve">発声音決定の優先順位：\n
@@ -4157,6 +4163,10 @@
     <t xml:space="preserve">FullAVIX(Both)</t>
   </si>
   <si>
+    <t xml:space="preserve">X coordinate of Fullscreen legacy size AVI playback (for Both mode)\n
+It’s effective only when FullAVI=ON and FullAVICenter=ON.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9.5"/>
@@ -4185,6 +4195,10 @@
     <t xml:space="preserve">FullAVIX(Dr)</t>
   </si>
   <si>
+    <t xml:space="preserve">X coordinate of Fullscreen legacy size AVI playback (for DrOnly mode)\n
+It’s effective only when FullAVI=ON and FullAVICenter=ON.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9.5"/>
@@ -4213,6 +4227,10 @@
     <t xml:space="preserve">FullAVIX(GB)</t>
   </si>
   <si>
+    <t xml:space="preserve">X coordinate of Fullscreen legacy size AVI playback (for GBOnly mode)\n
+It’s effective only when FullAVI=ON and FullAVICenter=ON.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9.5"/>
@@ -4241,6 +4259,10 @@
     <t xml:space="preserve">FullAVIY(Both)</t>
   </si>
   <si>
+    <t xml:space="preserve">Y coordinate of Fullscreen legacy size AVI playback (for Both mode)\n
+It’s effective only when FullAVI=ON and FullAVICenter=ON.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9.5"/>
@@ -4269,6 +4291,10 @@
     <t xml:space="preserve">FullAVIY(Dr)</t>
   </si>
   <si>
+    <t xml:space="preserve">Y coordinate of Fullscreen legacy size AVI playback (for DrOnly mode)\n
+It’s effective only when FullAVI=ON and FullAVICenter=ON.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9.5"/>
@@ -4297,6 +4323,10 @@
     <t xml:space="preserve">FullAVIY(GB)</t>
   </si>
   <si>
+    <t xml:space="preserve">Y coordinate of Fullscreen legacy size AVI playback (for GBOnly mode)\n
+It’s effective only when FullAVI=ON and FullAVICenter=ON.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9.5"/>
@@ -4323,6 +4353,10 @@
   </si>
   <si>
     <t xml:space="preserve">FullAVICenter(Both)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether centering Fullscreen legacy size AVI playback or not (for Both mode).\n
+If it is OFF, the AVI will be shown to the position (X,Y)=(FullAVIX, FullAVIY).</t>
   </si>
   <si>
     <r>
@@ -4365,6 +4399,10 @@
     <t xml:space="preserve">FullAVICenter(Dr)</t>
   </si>
   <si>
+    <t xml:space="preserve">Whether centering Fullscreen legacy size AVI playback or not (for DrOnly mode).\n
+If it is OFF, the AVI will be shown to the position (X,Y)=(FullAVIX, FullAVIY).</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9.5"/>
@@ -4423,6 +4461,10 @@
   </si>
   <si>
     <t xml:space="preserve">FullAVICenter(GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether centering Fullscreen legacy size AVI playback or not (for GBOnly mode).\n
+If it is OFF, the AVI will be shown to the position (X,Y)=(FullAVIX, FullAVIY).</t>
   </si>
   <si>
     <r>
@@ -5213,7 +5255,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -5276,12 +5318,6 @@
       <name val="MS Gothic"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9.5"/>
-      <color rgb="FFA31515"/>
-      <name val="MS Gothic"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5353,7 +5389,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5394,15 +5430,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5410,7 +5442,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5493,8 +5525,8 @@
   </sheetPr>
   <dimension ref="A1:J319"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A93" activeCellId="0" sqref="A93"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F100" activeCellId="0" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6238,7 +6270,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>147</v>
       </c>
@@ -6774,66 +6806,68 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="4" t="s">
         <v>300</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C93" s="9"/>
+      <c r="C93" s="9" t="s">
+        <v>302</v>
+      </c>
       <c r="F93" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F97" s="9"/>
     </row>
@@ -6843,8 +6877,8 @@
       <c r="F98" s="9"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="11" t="s">
-        <v>317</v>
+      <c r="A99" s="10" t="s">
+        <v>318</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>105</v>
@@ -6857,249 +6891,249 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="11"/>
+      <c r="A100" s="10"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="F100" s="7"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="F118" s="9" t="s">
         <v>379</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="F118" s="9" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="7"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="11" t="s">
-        <v>381</v>
+      <c r="A121" s="10" t="s">
+        <v>382</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>105</v>
@@ -7113,2373 +7147,2394 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F146" s="9" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D147" s="7" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="147" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
-        <v>453</v>
-      </c>
-      <c r="B147" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>451</v>
-      </c>
       <c r="F147" s="9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B155" s="0" t="s">
         <v>472</v>
-      </c>
-      <c r="B155" s="0" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F160" s="9" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D163" s="7"/>
       <c r="F163" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J163" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="11" t="s">
+      <c r="A164" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F164" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="J164" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="B164" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="J164" s="5" t="s">
-        <v>503</v>
-      </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="B165" s="11" t="s">
+      <c r="A165" s="10" t="s">
         <v>510</v>
       </c>
+      <c r="B165" s="10" t="s">
+        <v>511</v>
+      </c>
       <c r="C165" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F165" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="J165" s="5"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="D165" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="F165" s="7" t="s">
+      <c r="B166" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="D166" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="J165" s="5"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="B166" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="D166" s="7" t="s">
-        <v>512</v>
-      </c>
       <c r="F166" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="J166" s="5"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="B167" s="11" t="s">
+      <c r="A167" s="10" t="s">
         <v>518</v>
       </c>
+      <c r="B167" s="10" t="s">
+        <v>519</v>
+      </c>
       <c r="C167" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="J167" s="5"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="B184" s="12" t="s">
         <v>557</v>
       </c>
+      <c r="B184" s="11" t="s">
+        <v>558</v>
+      </c>
       <c r="C184" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="B185" s="12" t="s">
         <v>561</v>
       </c>
+      <c r="B185" s="11" t="s">
+        <v>562</v>
+      </c>
       <c r="C185" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="B186" s="12" t="s">
         <v>565</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F218" s="7" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C228" s="13"/>
+      <c r="C228" s="12"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F254" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F255" s="0" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F258" s="0" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="4" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>802</v>
-      </c>
-      <c r="F259" s="14" t="s">
         <v>803</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="F259" s="13" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="4" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>805</v>
-      </c>
-      <c r="F260" s="14" t="s">
-        <v>806</v>
+        <v>807</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="F260" s="13" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="4" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>808</v>
-      </c>
-      <c r="F261" s="14" t="s">
-        <v>809</v>
+        <v>811</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="F261" s="13" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="4" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>811</v>
-      </c>
-      <c r="F262" s="14" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>815</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="F262" s="13" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="4" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>814</v>
-      </c>
-      <c r="C263" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F263" s="14" t="s">
-        <v>815</v>
+        <v>819</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="F263" s="13" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="4" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>817</v>
-      </c>
-      <c r="F264" s="14" t="s">
-        <v>818</v>
+        <v>823</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="F264" s="13" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="69.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="4" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>820</v>
+        <v>827</v>
+      </c>
+      <c r="C265" s="9" t="s">
+        <v>828</v>
       </c>
       <c r="F265" s="9" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="4" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>823</v>
+        <v>831</v>
+      </c>
+      <c r="C266" s="9" t="s">
+        <v>832</v>
       </c>
       <c r="F266" s="9" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="4" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>826</v>
+        <v>835</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>836</v>
       </c>
       <c r="F267" s="9" t="s">
-        <v>827</v>
+        <v>837</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>829</v>
+        <v>839</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="F268" s="0" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>833</v>
+        <v>843</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>834</v>
+        <v>844</v>
       </c>
       <c r="F269" s="0" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>836</v>
+        <v>846</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>837</v>
+        <v>847</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>838</v>
+        <v>848</v>
       </c>
       <c r="F270" s="0" t="s">
-        <v>839</v>
+        <v>849</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
       <c r="F271" s="0" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>844</v>
+        <v>854</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>845</v>
+        <v>855</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>846</v>
+        <v>856</v>
       </c>
       <c r="F272" s="0" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>848</v>
+        <v>858</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>849</v>
+        <v>859</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="F273" s="0" t="s">
-        <v>851</v>
+        <v>861</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>852</v>
+        <v>862</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>853</v>
+        <v>863</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>854</v>
+        <v>864</v>
       </c>
       <c r="F274" s="0" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>833</v>
+        <v>843</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>834</v>
+        <v>844</v>
       </c>
       <c r="F275" s="0" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>857</v>
+        <v>867</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>837</v>
+        <v>847</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>838</v>
+        <v>848</v>
       </c>
       <c r="F276" s="0" t="s">
-        <v>839</v>
+        <v>849</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
       <c r="F277" s="0" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>845</v>
+        <v>855</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>846</v>
+        <v>856</v>
       </c>
       <c r="F278" s="0" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>860</v>
+        <v>870</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="F279" s="0" t="s">
-        <v>863</v>
+        <v>873</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>864</v>
+        <v>874</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>866</v>
+        <v>876</v>
       </c>
       <c r="F280" s="0" t="s">
-        <v>867</v>
+        <v>877</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>868</v>
+        <v>878</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>869</v>
+        <v>879</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>870</v>
+        <v>880</v>
       </c>
       <c r="F281" s="0" t="s">
-        <v>871</v>
+        <v>881</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>872</v>
+        <v>882</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>873</v>
+        <v>883</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>874</v>
+        <v>884</v>
       </c>
       <c r="F282" s="0" t="s">
-        <v>875</v>
+        <v>885</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>877</v>
+        <v>887</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>878</v>
+        <v>888</v>
       </c>
       <c r="F283" s="0" t="s">
-        <v>879</v>
+        <v>889</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>882</v>
+        <v>892</v>
       </c>
       <c r="F284" s="0" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>885</v>
+        <v>895</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
       <c r="F285" s="0" t="s">
-        <v>887</v>
+        <v>897</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>888</v>
+        <v>898</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>889</v>
+        <v>899</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="F286" s="0" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="F287" s="0" t="s">
-        <v>895</v>
+        <v>905</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>897</v>
+        <v>907</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>898</v>
+        <v>908</v>
       </c>
       <c r="F288" s="0" t="s">
-        <v>899</v>
+        <v>909</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>901</v>
+        <v>911</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>902</v>
+        <v>912</v>
       </c>
       <c r="F289" s="0" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>904</v>
+        <v>914</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>905</v>
+        <v>915</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>906</v>
+        <v>916</v>
       </c>
       <c r="F290" s="9" t="s">
-        <v>907</v>
+        <v>917</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>908</v>
+        <v>918</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>909</v>
+        <v>919</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>911</v>
+        <v>921</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>912</v>
+        <v>922</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>913</v>
+        <v>923</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>914</v>
+        <v>924</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>915</v>
+        <v>925</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>916</v>
+        <v>926</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>917</v>
+        <v>927</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>918</v>
+        <v>928</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>919</v>
+        <v>929</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>920</v>
+        <v>930</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>921</v>
+        <v>931</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>922</v>
+        <v>932</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>923</v>
+        <v>933</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>924</v>
+        <v>934</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>925</v>
+        <v>935</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>926</v>
+        <v>936</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>927</v>
+        <v>937</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>928</v>
+        <v>938</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>929</v>
+        <v>939</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>931</v>
+        <v>941</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>932</v>
+        <v>942</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>933</v>
+        <v>943</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>934</v>
+        <v>944</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>935</v>
+        <v>945</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>936</v>
+        <v>946</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>938</v>
+        <v>948</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>939</v>
+        <v>949</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>940</v>
+        <v>950</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>941</v>
+        <v>951</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>942</v>
+        <v>952</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>943</v>
+        <v>953</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>944</v>
+        <v>954</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>946</v>
+        <v>956</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>947</v>
+        <v>957</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>948</v>
+        <v>958</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>949</v>
+        <v>959</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>951</v>
+        <v>961</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>953</v>
+        <v>963</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>954</v>
+        <v>964</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>955</v>
+        <v>965</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>956</v>
+        <v>966</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>957</v>
+        <v>967</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>958</v>
+        <v>968</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>959</v>
+        <v>969</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>961</v>
+        <v>971</v>
       </c>
       <c r="E307" s="0" t="s">
-        <v>962</v>
+        <v>972</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>964</v>
+        <v>974</v>
       </c>
       <c r="E308" s="0" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>966</v>
+        <v>976</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
       <c r="E309" s="0" t="s">
-        <v>968</v>
+        <v>978</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>969</v>
+        <v>979</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="E310" s="0" t="s">
-        <v>971</v>
+        <v>981</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="11" t="s">
-        <v>972</v>
+      <c r="A311" s="10" t="s">
+        <v>982</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>973</v>
+        <v>983</v>
       </c>
       <c r="E311" s="0" t="s">
-        <v>974</v>
+        <v>984</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>975</v>
+        <v>985</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>976</v>
+        <v>986</v>
       </c>
       <c r="E312" s="0" t="s">
-        <v>977</v>
+        <v>987</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>978</v>
+        <v>988</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>979</v>
+        <v>989</v>
       </c>
       <c r="E313" s="0" t="s">
-        <v>980</v>
+        <v>990</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>981</v>
+        <v>991</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>982</v>
+        <v>992</v>
       </c>
       <c r="E314" s="0" t="s">
-        <v>983</v>
+        <v>993</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>984</v>
+        <v>994</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>985</v>
+        <v>995</v>
       </c>
       <c r="E315" s="0" t="s">
-        <v>986</v>
+        <v>996</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="7" t="s">
-        <v>987</v>
+        <v>997</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>988</v>
+        <v>998</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="D317" s="0" t="s">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="E317" s="0" t="s">
-        <v>988</v>
+        <v>998</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>991</v>
+        <v>1001</v>
       </c>
       <c r="G317" s="0" t="s">
-        <v>992</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="7" t="s">
-        <v>993</v>
+        <v>1003</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>994</v>
+        <v>1004</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>995</v>
+        <v>1005</v>
       </c>
       <c r="E318" s="0" t="s">
-        <v>994</v>
+        <v>1004</v>
       </c>
       <c r="F318" s="0" t="s">
-        <v>996</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="7" t="s">
-        <v>997</v>
+        <v>1007</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>998</v>
+        <v>1008</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="E319" s="0" t="s">
-        <v>998</v>
+        <v>1008</v>
       </c>
       <c r="F319" s="0" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C147" r:id="rId1" display="To specify playing sound in case you're using (FT Grouping=[FT-0]).\n&#10;\n&#10;C&gt;P:\n&#10; Chip sound is prior to the pad sound.\n&#10;P&gt;C:\n&#10; Pad sound is prior to the chip sound."/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -9509,27 +9564,27 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1001</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1002</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1004</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1005</v>
+        <v>1015</v>
       </c>
     </row>
   </sheetData>

--- a/RuntimeResources/System/resources.xlsx
+++ b/RuntimeResources/System/resources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="1016">
   <si>
     <t xml:space="preserve">stringName</t>
   </si>
@@ -1536,9 +1536,10 @@
     <t xml:space="preserve">サウンドの出力方式:\n
 WASAPI(排他/共有), ASIO, DSound(DirectSound)の中からサウンド出力方式を選択します。\n
 ASIOは対応機器でのみ使用できます。\n
-WASAPI排他かASIOを指定することで、遅延の少ない演奏を楽しむことができます。ASIO使用時、バッファ量はASIO capsなどの外部アプリで設定してください。\n
+WASAPI排他かASIOを指定することで、遅延の少ない演奏を楽しむことができます。Win10では、WASAPI共有の遅延も十分に小さいです。ASIO使用時、バッファ量はASIO capsなどの外部アプリで設定してください。\n
+WASAPI排他又はASIOの使用時は、DTXMania以外の音を出力できません。\n
 \n
-※ 設定はCONFIGURATION画面の終了時に有効になります。WASAPI排他を指定してもWASAPI共有になってしまう場合は、アプリを再起動してみてください。</t>
+※ 設定はCONFIGURATION画面の終了時に有効になります。</t>
   </si>
   <si>
     <r>
@@ -1579,23 +1580,52 @@
     <t xml:space="preserve">WASAPIBufSize</t>
   </si>
   <si>
-    <t xml:space="preserve">Sound buffer size for WASAPI:\n
+    <t xml:space="preserve">Sound buffer size (WASAPI Exclusive) or Sound buffer update period (WASAPI Shared):\n
 You can set from 0 to 99999ms.\n
-Set 0 to use a minimum buffer size automatically.\n
+Set 0 to use a minimum buffer size (or update period) automatically.\n
 Smaller value makes smaller lag, but it may cause sound troubles.
 So if you use poor CPU PC (tablet etc), please specify a little bigger value.\n
 \n
 Note: Exit CONFIGURATION to make the setting take effect. If “WASAPI Exclusive” become “WASAPI Shared”forcibly, rebooting DTXMania may solve it.</t>
   </si>
   <si>
-    <t xml:space="preserve">WASAPI使用時のバッファサイズ:\n
-0を指定すると、設定可能な最小のバッファサイズを自動設定します。
-1以上を指定すると、その値以上で指定可能な最小のバッファサイズを自動設定します。\n
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WASAPI使用時のバッファサイズ又は更新間隔:\n
+0を指定すると、設定可能な最小バッファサイズ(WASAPI排他時)又は更新間隔(WASAPI共有時)を自動設定します。
+1以上を指定すると、その値以上で指定可能な最小のバッファサイズ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">か更新間隔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">を自動設定します(が、逆に大き目の値になってしまう場合あり)。\n
 \n
 値を小さくするほど発音遅延が減少しますが、音割れや性能低下などの問題が発生する場合があります。
 タブレットなど性能の低いPCを使う場合は、手動で大きめの値を指定してください。\n
 \n
-※ 設定はCONFIGURATION画面の終了時に有効になります。WASAPI排他を指定してもWASAPI共有になってしまう場合は、アプリを再起動してみてください。</t>
+※ 設定はCONFIGURATION画面の終了時に有効になります。</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">strCfgSysWASAPIEventDriven</t>
@@ -5287,13 +5317,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="9.5"/>
-      <color rgb="FFA31515"/>
-      <name val="MS Gothic"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -5320,6 +5343,20 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="9.5"/>
+      <color rgb="FFA31515"/>
+      <name val="MS Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FFA31515"/>
+      <name val="MS Gothic"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -5329,13 +5366,6 @@
       <sz val="9.5"/>
       <color rgb="FFA31515"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9.5"/>
-      <color rgb="FFA31515"/>
-      <name val="MS Gothic"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -5410,31 +5440,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5442,7 +5472,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5523,10 +5553,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J319"/>
+  <dimension ref="A1:J318"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F100" activeCellId="0" sqref="F100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F85" activeCellId="0" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5793,8 +5823,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>38</v>
+      <c r="A16" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>29</v>
@@ -5808,121 +5838,110 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="C17" s="3"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="3"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
+      <c r="A18" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="H18" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="H19" s="5" t="s">
-        <v>42</v>
+      <c r="H19" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="H20" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="F20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="1"/>
     </row>
@@ -5930,3607 +5949,3603 @@
       <c r="E27" s="2"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="3" t="s">
-        <v>83</v>
+      <c r="F35" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F36" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>90</v>
-      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>92</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>95</v>
       </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="1"/>
+      <c r="F40" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E41" s="2"/>
-      <c r="F41" s="2" t="s">
-        <v>96</v>
+      <c r="F41" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>101</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>102</v>
-      </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="F43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="2"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E45" s="2"/>
-      <c r="F45" s="1"/>
+      <c r="A45" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="F45" s="0" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="6"/>
       <c r="F46" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D47" s="7"/>
+        <v>112</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="6"/>
       <c r="F47" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D48" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="6"/>
       <c r="F48" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D49" s="7"/>
+        <v>120</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="6"/>
       <c r="F49" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D50" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="6"/>
       <c r="F50" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D51" s="7"/>
-      <c r="F51" s="0" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>128</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>142</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>147</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>161</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>164</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>167</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>174</v>
+        <v>176</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>188</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>192</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>204</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>208</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>212</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>219</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>224</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>228</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>236</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>240</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>244</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="J80" s="0" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>250</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>254</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>259</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>263</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="128.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="128.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>267</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" customFormat="false" ht="128.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H85" s="7"/>
-    </row>
-    <row r="86" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="6" t="s">
+        <v>276</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>280</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>281</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>285</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>289</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="B91" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C90" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="F91" s="9" t="s">
+      <c r="F90" s="8" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7" t="s">
+    <row r="91" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B91" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C91" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="F92" s="9" t="s">
+      <c r="F91" s="8" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="s">
+    <row r="92" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B92" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C92" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="F93" s="9" t="s">
+      <c r="F92" s="8" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>308</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>312</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="B97" s="7"/>
-      <c r="C97" s="9" t="s">
+      <c r="B96" s="6"/>
+      <c r="C96" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="F97" s="9"/>
+      <c r="F96" s="8"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="6"/>
+      <c r="C97" s="8"/>
+      <c r="F97" s="8"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="7"/>
-      <c r="C98" s="9"/>
-      <c r="F98" s="9"/>
+      <c r="A98" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="A99" s="10"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="F99" s="6"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="10"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="F100" s="7"/>
+      <c r="A100" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="F102" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="F106" s="0" t="s">
-        <v>334</v>
+        <v>339</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B112" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C112" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="F113" s="0" t="s">
+      <c r="F112" s="0" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>371</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="C117" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C117" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="F117" s="9" t="s">
+      <c r="F117" s="8" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="F118" s="9" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="7"/>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="10" t="s">
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="6"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B120" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C120" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F121" s="7" t="s">
+      <c r="F120" s="6" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>388</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>392</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>396</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>400</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>404</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="F128" s="0" t="s">
         <v>405</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>388</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>388</v>
+        <v>411</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>392</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>392</v>
+        <v>413</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>396</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>396</v>
+        <v>415</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>400</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>404</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
-        <v>417</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="F135" s="0" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+    <row r="136" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="B136" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C136" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="F137" s="3" t="s">
+      <c r="F136" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="C140" s="0" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>426</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>426</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F141" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>431</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="F142" s="9" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>436</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="C143" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="F143" s="9" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>441</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="F144" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>446</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="F145" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>450</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="D146" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D146" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="F146" s="9" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F146" s="8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="D147" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="D147" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="F147" s="9" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="B148" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="F148" s="9" t="s">
+      <c r="F147" s="8" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+    <row r="149" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="B149" s="0" t="s">
         <v>463</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="C149" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="F150" s="9" t="s">
+      <c r="F149" s="8" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>467</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="B155" s="0" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="C157" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>478</v>
+        <v>480</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="F157" s="0" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>480</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="F158" s="0" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>484</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="F159" s="7" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>488</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="B160" s="0" t="s">
-        <v>488</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="F160" s="9" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>491</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>491</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="F161" s="9" t="s">
-        <v>495</v>
+        <v>496</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="F161" s="0" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>498</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="D162" s="6"/>
       <c r="F162" s="0" t="s">
-        <v>499</v>
+        <v>503</v>
+      </c>
+      <c r="J162" s="4" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="B163" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="D163" s="7"/>
-      <c r="F163" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="J163" s="5" t="s">
+      <c r="A163" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="J163" s="4" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="10" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="J164" s="5" t="s">
-        <v>504</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="J164" s="4"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="10" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="D165" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="D165" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F165" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="J165" s="5"/>
+      <c r="F165" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="J165" s="4"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="10" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="D166" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="D166" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F166" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="J166" s="5"/>
+      <c r="F166" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="J166" s="4"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="B167" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="F167" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="J167" s="5"/>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="F167" s="0" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="C168" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="F168" s="0" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>527</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="F168" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="C169" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="F169" s="9" t="s">
-        <v>530</v>
+        <v>532</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="F169" s="8" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="C170" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="C170" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="D170" s="7" t="s">
+      <c r="D170" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="F170" s="9" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
-        <v>536</v>
-      </c>
-      <c r="B171" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="C171" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="F171" s="9" t="s">
+      <c r="F170" s="8" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>540</v>
-      </c>
-      <c r="C173" s="9" t="s">
-        <v>541</v>
+        <v>544</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>545</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>543</v>
-      </c>
-      <c r="B174" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>548</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>549</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="B177" s="0" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
+    <row r="178" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="C179" s="9" t="s">
+      <c r="C178" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="F179" s="9" t="s">
+      <c r="F178" s="8" t="s">
         <v>556</v>
       </c>
     </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="5" t="s">
-        <v>557</v>
+      <c r="A184" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="F184" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="5" t="s">
-        <v>561</v>
+      <c r="A185" s="4" t="s">
+        <v>565</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="F185" s="7" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="B186" s="11" t="s">
         <v>566</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>636</v>
+        <v>612</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>657</v>
-      </c>
-      <c r="B211" s="0" t="s">
-        <v>636</v>
+        <v>660</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>661</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
-        <v>660</v>
-      </c>
-      <c r="B212" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="F212" s="3" t="s">
         <v>663</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="F214" s="6" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>665</v>
-      </c>
-      <c r="C215" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="F215" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="F215" s="6" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>669</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="F216" s="7" t="s">
-        <v>671</v>
+        <v>673</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="F216" s="6" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>673</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="F217" s="7" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>677</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="F217" s="6" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>677</v>
-      </c>
-      <c r="C218" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="F218" s="7" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
-        <v>680</v>
-      </c>
-      <c r="B219" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="C219" s="9" t="s">
+      <c r="C218" s="8" t="s">
         <v>682</v>
       </c>
-      <c r="F219" s="7" t="s">
+      <c r="F218" s="6" t="s">
         <v>683</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="C223" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="F223" s="0" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
-        <v>687</v>
-      </c>
-      <c r="C225" s="0" t="s">
-        <v>688</v>
-      </c>
-      <c r="F225" s="0" t="s">
         <v>689</v>
       </c>
     </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C227" s="12"/>
+    </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C228" s="12"/>
+      <c r="A228" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="C228" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="F228" s="0" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>743</v>
+        <v>699</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>699</v>
+        <v>750</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>758</v>
+        <v>715</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>719</v>
+        <v>768</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>772</v>
+        <v>699</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>699</v>
+        <v>779</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>779</v>
+        <v>754</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>754</v>
+        <v>711</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="F254" s="0" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="F255" s="0" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>719</v>
+        <v>795</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
-        <v>798</v>
+        <v>801</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="9" t="s">
+        <v>802</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>799</v>
-      </c>
-      <c r="C258" s="0" t="s">
-        <v>800</v>
-      </c>
-      <c r="F258" s="0" t="s">
-        <v>801</v>
+        <v>803</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="F258" s="13" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="4" t="s">
-        <v>802</v>
+      <c r="A259" s="9" t="s">
+        <v>806</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="F259" s="13" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="4" t="s">
-        <v>806</v>
+      <c r="A260" s="9" t="s">
+        <v>810</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="F260" s="13" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="4" t="s">
-        <v>810</v>
+      <c r="A261" s="9" t="s">
+        <v>814</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="F261" s="13" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="4" t="s">
-        <v>814</v>
+      <c r="A262" s="9" t="s">
+        <v>818</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="F262" s="13" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="4" t="s">
-        <v>818</v>
+      <c r="A263" s="9" t="s">
+        <v>822</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="F263" s="13" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="4" t="s">
-        <v>822</v>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="69.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="9" t="s">
+        <v>826</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>823</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="F264" s="13" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="69.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="4" t="s">
-        <v>826</v>
+        <v>827</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="F264" s="8" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="9" t="s">
+        <v>830</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>827</v>
-      </c>
-      <c r="C265" s="9" t="s">
-        <v>828</v>
-      </c>
-      <c r="F265" s="9" t="s">
-        <v>829</v>
+        <v>831</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="F265" s="8" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="4" t="s">
-        <v>830</v>
+      <c r="A266" s="9" t="s">
+        <v>834</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>831</v>
-      </c>
-      <c r="C266" s="9" t="s">
-        <v>832</v>
-      </c>
-      <c r="F266" s="9" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="4" t="s">
-        <v>834</v>
+        <v>835</v>
+      </c>
+      <c r="C266" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="F266" s="8" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
+        <v>838</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>835</v>
-      </c>
-      <c r="C267" s="9" t="s">
-        <v>836</v>
-      </c>
-      <c r="F267" s="9" t="s">
-        <v>837</v>
+        <v>839</v>
+      </c>
+      <c r="C267" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="F267" s="0" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="F268" s="0" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="F269" s="0" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="F270" s="0" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="F271" s="0" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="F272" s="0" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="F273" s="0" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>863</v>
+        <v>843</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>864</v>
+        <v>844</v>
       </c>
       <c r="F274" s="0" t="s">
-        <v>865</v>
+        <v>845</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="F275" s="0" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="F276" s="0" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="F277" s="0" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>855</v>
+        <v>871</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>856</v>
+        <v>872</v>
       </c>
       <c r="F278" s="0" t="s">
-        <v>857</v>
+        <v>873</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="F279" s="0" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="F280" s="0" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="F281" s="0" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="F282" s="0" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="F283" s="0" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="F284" s="0" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="F285" s="0" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="F286" s="0" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="F287" s="0" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="F288" s="0" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>911</v>
-      </c>
-      <c r="C289" s="0" t="s">
-        <v>912</v>
-      </c>
-      <c r="F289" s="0" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="0" t="s">
-        <v>914</v>
-      </c>
-      <c r="B290" s="0" t="s">
         <v>915</v>
       </c>
-      <c r="C290" s="7" t="s">
+      <c r="C289" s="6" t="s">
         <v>916</v>
       </c>
-      <c r="F290" s="9" t="s">
+      <c r="F289" s="8" t="s">
         <v>917</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="B291" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
-        <v>950</v>
-      </c>
-      <c r="B300" s="0" t="s">
-        <v>951</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>952</v>
-      </c>
-      <c r="F300" s="3" t="s">
         <v>953</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="0" t="s">
-        <v>966</v>
-      </c>
-      <c r="B305" s="0" t="s">
-        <v>967</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>968</v>
-      </c>
-      <c r="F305" s="3" t="s">
         <v>969</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="E306" s="0" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="E307" s="0" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="E308" s="0" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="E309" s="0" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="0" t="s">
-        <v>979</v>
+      <c r="A310" s="10" t="s">
+        <v>982</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="E310" s="0" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="10" t="s">
-        <v>982</v>
+      <c r="A311" s="0" t="s">
+        <v>985</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="E311" s="0" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="E312" s="0" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="E313" s="0" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="E314" s="0" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="0" t="s">
-        <v>994</v>
-      </c>
-      <c r="B315" s="0" t="s">
-        <v>995</v>
-      </c>
-      <c r="E315" s="0" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="7" t="s">
+    <row r="316" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="6" t="s">
         <v>997</v>
       </c>
+      <c r="B316" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="D316" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E316" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G316" s="0" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="6" t="s">
+        <v>1003</v>
+      </c>
       <c r="B317" s="0" t="s">
-        <v>998</v>
-      </c>
-      <c r="C317" s="3" t="s">
-        <v>999</v>
-      </c>
-      <c r="D317" s="0" t="s">
-        <v>1000</v>
+        <v>1004</v>
+      </c>
+      <c r="C317" s="0" t="s">
+        <v>1005</v>
       </c>
       <c r="E317" s="0" t="s">
-        <v>998</v>
-      </c>
-      <c r="F317" s="3" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G317" s="0" t="s">
-        <v>1002</v>
+        <v>1004</v>
+      </c>
+      <c r="F317" s="0" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="7" t="s">
-        <v>1003</v>
+      <c r="A318" s="6" t="s">
+        <v>1007</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="E318" s="0" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="F318" s="0" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="7" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B319" s="0" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C319" s="0" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E319" s="0" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F319" s="0" t="s">
         <v>1010</v>
       </c>
     </row>

--- a/RuntimeResources/System/resources.xlsx
+++ b/RuntimeResources/System/resources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="1041">
   <si>
     <t xml:space="preserve">stringName</t>
   </si>
@@ -1105,27 +1105,28 @@
     <t xml:space="preserve">AVI</t>
   </si>
   <si>
-    <t xml:space="preserve">To use AVI playback or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVIの使用：\n
-演奏中に動画(AVI)を再生する場合にON にします。\n
-AVI の再生には、それなりのマシンパワーが必要とされます。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgSysFullAVI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FullAVI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forcely show the legacy-spec AVI to fullscreen.\n
+    <t xml:space="preserve">To use AVI/Movie playback or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">動画の使用：\n
+演奏中に動画を再生する場合にON にします。\n
+動画の再生には、それなりのマシンパワーが必要とされます。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgSysForceScalingAVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForceScalingAVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forcely scale the legacy-spec AVI.\n
+By default, it will be scaled to Fullscreen.　You can configure the display position and size by ScaledAVIX, ScaledAVIY, ScaledAVIW and ScaledAVIH.\n
 If the data contains both AVI and BGA, the screen will corrupt.</t>
   </si>
   <si>
-    <t xml:space="preserve">旧AVIの全画面表示：\n
-旧仕様の動画(AVI)の表示を、強制的に全画面化します。\n
-全画面化した時の動画表示位置は、FullAVICenter(センタリング表示するか否か)と、FullAVIX, FullAVIYで設定できます。\n\n
+    <t xml:space="preserve">旧AVIの拡大表示：\n
+旧仕様の動画(AVI)の表示を、強制的に拡大表示します。初期設定では全画面表示化します。\n
+拡大表示時の動画表示位置と大きさは、ScaledAVIX, ScaledAVIY, ScaledAVIW, ScaledAVIHで設定できます。\n\n
 BGAと併用している場合は、表示がおかしくなります。</t>
   </si>
   <si>
@@ -1301,7 +1302,7 @@
  * result image / movie\n
  * nowloading image\n
  * wallpaper (in playing screen)\n
- * BGA / AVI (in playing screen)\n
+ * BGA / AVI / Movie (in playing screen)\n
  * Graph bar</t>
   </si>
   <si>
@@ -1311,7 +1312,7 @@
 ・リザルト画像/動画\n
 ・NowLoading画像\n
 ・演奏画面の背景画像\n
-・BGA 画像 / AVI 動画\n
+・BGA 画像 / 動画\n
 ・グラフ画像</t>
   </si>
   <si>
@@ -3003,76 +3004,7 @@
     <t xml:space="preserve">The display position for Drums Combo.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FFA31515"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Left</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FFA31515"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Center</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FFA31515"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Right</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FFA31515"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">OFF</t>
-    </r>
+    <t xml:space="preserve">Left,Center,Right,OFF</t>
   </si>
   <si>
     <t xml:space="preserve">演奏時のドラムコンボ文字列の位置を指定します。</t>
@@ -4187,25 +4119,81 @@
     <t xml:space="preserve">ギターレーンを表示するX座標。(GBOnlyモード時)</t>
   </si>
   <si>
-    <t xml:space="preserve">strCfgForceFullMovieXBoth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FullAVIX(Both)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X coordinate of Fullscreen legacy size AVI playback (for Both mode)\n
-It’s effective only when FullAVI=ON and FullAVICenter=ON.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FFA31515"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">旧AVIの全画面表示時の、表示X座標。(Bothモード時)\n
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">strCfgForceScaled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">AVI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">XBoth</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ScaledAVIX(Both)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">X coordinate of legacy size AVI playback (for Both mode)\n
+It’s effective only when Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVI=ON.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">旧AVI動画の拡大表示時の、表示X座標。(Bothモード時)\n
 </t>
     </r>
     <r>
@@ -4215,167 +4203,1209 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">FullAVIとFullAVICenterがONの時にのみ、設定が有効となります。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgForceFullMovieXDr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FullAVIX(Dr)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X coordinate of Fullscreen legacy size AVI playback (for DrOnly mode)\n
-It’s effective only when FullAVI=ON and FullAVICenter=ON.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FFA31515"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">旧AVIの全画面表示時の、表示X座標。(DrOnlyモード時)\n
+      <t xml:space="preserve">Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVIがONの時にのみ、設定が有効となります。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">strCfgForce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ScaledAVI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">XDr</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ScaledAVIX(Dr)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">X coordinate of legacy size AVI playback (for DrOnly mode)\n
+It’s effective only when Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVI=ON.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">旧AVI動画の拡大表示時の、表示X座標。(DrOnlyモード時)\n
 </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">FullAVIとFullAVICenterがONの時にのみ、設定が有効となります。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgForceFullMovieXGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FullAVIX(GB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X coordinate of Fullscreen legacy size AVI playback (for GBOnly mode)\n
-It’s effective only when FullAVI=ON and FullAVICenter=ON.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FFA31515"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">旧AVIの全画面表示時の、表示X座標。(GBOnlyモード時)\n
+        <color rgb="FFA31515"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVIがONの時にのみ、設定が有効となります。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">strCfgForce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ScaledAVI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">XGB</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ScaledAVIX(GB)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">X coordinate of legacy size AVI playback (for GBOnly mode)\n
+It’s effective only when Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVI=ON.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">旧AVI動画の拡大表示時の、表示X座標。(GBOnlyモード時)\n
 </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">FullAVIとFullAVICenterがONの時にのみ、設定が有効となります。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgForceFullMovieYBoth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FullAVIY(Both)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y coordinate of Fullscreen legacy size AVI playback (for Both mode)\n
-It’s effective only when FullAVI=ON and FullAVICenter=ON.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FFA31515"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">旧AVIの全画面表示時の、表示Y座標。(Bothモード時)\n
+        <color rgb="FFA31515"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVIがONの時にのみ、設定が有効となります。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">strCfgForce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ScaledAVIY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Both</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ScaledAVIY(Both)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Y coordinate of legacy size AVI playback (for Both mode)\n
+It’s effective only when Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVI=ON.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">旧AVI動画の拡大表示時の、表示Y座標。(Bothモード時)\n
 </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">FullAVIとFullAVICenterがONの時にのみ、設定が有効となります。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgForceFullMovieYDr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FullAVIY(Dr)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y coordinate of Fullscreen legacy size AVI playback (for DrOnly mode)\n
-It’s effective only when FullAVI=ON and FullAVICenter=ON.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FFA31515"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">旧AVIの全画面表示時の、表示Y座標。(DrOnlyモード時)\n
+        <color rgb="FFA31515"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVIがONの時にのみ、設定が有効となります。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">strCfgForce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ScaledAVI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">YDr</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ScaledAVIY(Dr)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Y coordinate of legacy size AVI playback (for DrOnly mode)\n
+It’s effective only when Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVI=ON.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">旧AVI動画の拡大表示時の、表示Y座標。(DrOnlyモード時)\n
 </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">FullAVIとFullAVICenterがONの時にのみ、設定が有効となります。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgForceFullMovieYGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FullAVIY(GB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y coordinate of Fullscreen legacy size AVI playback (for GBOnly mode)\n
-It’s effective only when FullAVI=ON and FullAVICenter=ON.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FFA31515"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">旧AVIの全画面表示時の、表示Y座標。(GBOnlyモード時)\n
+        <color rgb="FFA31515"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVIがONの時にのみ、設定が有効となります。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">strCfgForce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ScaledAVI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">YGB</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ScaledAVIY(GB)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Y coordinate of legacy size AVI playback (for GBOnly mode)\n
+It’s effective only when Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVI=ON.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">旧AVI動画の拡大表示時の、表示Y座標。(GBOnlyモード時)\n
 </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">FullAVIとFullAVICenterがONの時にのみ、設定が有効となります。</t>
+        <color rgb="FFA31515"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVIがONの時にのみ、設定が有効となります。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">strCfgForce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ScaledAVI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WBoth</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ScaledAVIW(Both)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaled width of legacy size AVI playback (for Both mode)\n
+It’s effective only when Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVI=ON.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">旧AVI動画の拡大表示時の、横幅。(Bothモード時)\n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVIがONの時にのみ、設定が有効となります。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">strCfgForce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ScaledAVI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WDr</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ScaledAVIW(Dr)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaled width of legacy size AVI playback (for DrOnly mode)\n
+It’s effective only when Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVI=ON.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">旧AVI動画の拡大表示時の、横幅。(DrOnlyモード時)\n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVIがONの時にのみ、設定が有効となります。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">strCfgForce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ScaledAVI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">WGB</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ScaledAVIW(GB)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaled width of legacy size AVI playback (for GBOnly mode)\n
+It’s effective only when Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVI=ON.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">旧AVI動画の拡大表示時の、横幅。(GBOnlyモード時)\n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVIがONの時にのみ、設定が有効となります。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">strCfgForce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ScaledAVI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HBoth</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ScaledAVIH(Both)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaled height of legacy size AVI playback (for Both mode)\n
+It’s effective only when Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVI=ON.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">旧AVI動画の拡大表示時の、縦幅。(Bothモード時)\n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVIがONの時にのみ、設定が有効となります。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">strCfgForce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ScaledAVI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HDr</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ScaledAVIH(Dr)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaled height of legacy size AVI playback (for DrOnly mode)\n
+It’s effective only when Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVI=ON.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">旧AVI動画の拡大表示時の、縦幅。(DrOnlyモード時)\n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVIがONの時にのみ、設定が有効となります。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">strCfgForce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ScaledAVI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HGB</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ScaledAVIH(GB)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaled height of legacy size AVI playback (for GBOnly mode)\n
+It’s effective only when Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVI=ON.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">旧AVI動画の拡大表示時の、縦幅。(GBOnlyモード時)\n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVIがONの時にのみ、設定が有効となります。</t>
     </r>
   </si>
   <si>
@@ -4707,76 +5737,415 @@
     <t xml:space="preserve">SDレーンの順番。</t>
   </si>
   <si>
-    <t xml:space="preserve">strCfgDispMovieXBoth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MovieX(Both)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X coordinate of windowed movie (for Both mode)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ウインドウ表示の動画を再生するX座標。(Bothモード時)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgDispMovieXDr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MovieX(Dr)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X coordinate of windowed movie (for DrOnly mode)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ウインドウ表示の動画を再生するX座標。(DrOnlyモード時)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgDispMovieXGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MovieX(GB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X coordinate of windowed movie (for GBOnly mode)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ウインドウ表示の動画を再生するX座標。(GBOnlyモード時)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgDispMovieYBoth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MovieY(Both)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y coordinate of windowed movie (for Both mode)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ウインドウ表示の動画を再生するY座標。(Bothモード時)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgDispMovieYDr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MovieY(Dr)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y coordinate of windowed movie (for DrOnly mode)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ウインドウ表示の動画を再生するY座標。(DrOnlyモード時)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgDispMovieYGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MovieY(GB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y coordinate of windowed movie (for GBOnly mode)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ウインドウ表示の動画を再生するY座標。(GBOnlyモード時)</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">strCfgDisp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">AVI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">XBoth</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">LegacyAVIX(Both)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">X coordinate of windowed legacy size AVI (for Both mode)\n
+It’s effective only when Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVI=OFF.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ウインドウ表示の旧AVI動画を再生するX座標。(Bothモード時)\n
+ForceScalingAVI=OFFの時にのみ、設定が有効になります。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">strCfgDisp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">AVI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">XDr</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">LegacyAVIX(Dr)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">X coordinate of windowed legacy size AVI (for DrOnly mode)\n
+It’s effective only when Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVI=OFF.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ウインドウ表示の旧AVI動画を再生するX座標。(DrOnlyモード時)\n
+ForceScalingAVI=OFFの時にのみ、設定が有効になります。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">strCfgDisp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">AVI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">XGB</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">LegacyAVIX(GB)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">X coordinate of windowed legacy size AVI (for GBOnly mode)\n
+It’s effective only when Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVI=OFF.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ウインドウ表示の旧AVI動画を再生するX座標。(GBOnlyモード時)\n
+ForceScalingAVI=OFFの時にのみ、設定が有効になります。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">strCfgDisp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">AVI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">YBoth</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">LegacyAVIY(Both)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Y coordinate of windowed legacy size AVI (for Both mode)\n
+It’s effective only when Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVI=OFF.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ウインドウ表示の旧AVI動画を再生するY座標。(Bothモード時)\n
+ForceScalingAVI=OFFの時にのみ、設定が有効になります。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">strCfgDisp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">AVI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">YDr</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">LegacyAVIY(Dr)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Y coordinate of windowed legacy size AVI (for DrOnly mode)\n
+It’s effective only when Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVI=OFF.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ウインドウ表示の旧AVI動画を再生するY座標。(DrOnlyモード時)\n
+ForceScalingAVI=OFFの時にのみ、設定が有効になります。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">strCfgDisp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">AVI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">YGB</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">LegacyAVIY(GB)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Y coordinate of windowed legacy size AVI (for GBOnly mode)\n
+It’s effective only when Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Scaling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">AVI=OFF.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ウインドウ表示の旧AVI動画を再生するY座標。(GBOnlyモード時)\n
+ForceScalingAVI=OFFの時にのみ、設定が有効になります。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgDgbDisplayGraph</t>
@@ -5285,7 +6654,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -5370,6 +6739,27 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFA31515"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FFA31515"/>
+      <name val="MS Gothic"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFA31515"/>
+      <name val="MS Gothic"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFA31515"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -5377,12 +6767,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -5419,7 +6815,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5464,6 +6860,26 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5472,18 +6888,30 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -5534,7 +6962,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -5553,10 +6981,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J318"/>
+  <dimension ref="A1:J324"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F85" activeCellId="0" sqref="F85"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D279" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F295" activeCellId="0" sqref="F295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6425,7 +7853,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>187</v>
       </c>
@@ -7643,23 +9071,23 @@
         <v>504</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="10" t="s">
+    <row r="163" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="B163" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="C163" s="6" t="s">
+      <c r="C163" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="D163" s="6" t="s">
+      <c r="D163" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="F163" s="6" t="s">
+      <c r="F163" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="J163" s="4" t="s">
+      <c r="J163" s="14" t="s">
         <v>504</v>
       </c>
     </row>
@@ -7731,54 +9159,54 @@
         <v>525</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+    <row r="168" s="13" customFormat="true" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="B168" s="0" t="s">
+      <c r="B168" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="C168" s="8" t="s">
+      <c r="C168" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="D168" s="6" t="s">
+      <c r="D168" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="F168" s="8" t="s">
+      <c r="F168" s="15" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+    <row r="169" s="13" customFormat="true" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="13" t="s">
         <v>531</v>
       </c>
-      <c r="B169" s="0" t="s">
+      <c r="B169" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C169" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="D169" s="6" t="s">
+      <c r="D169" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="F169" s="8" t="s">
+      <c r="F169" s="15" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+    <row r="170" s="13" customFormat="true" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="13" t="s">
         <v>536</v>
       </c>
-      <c r="B170" s="0" t="s">
+      <c r="B170" s="13" t="s">
         <v>537</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C170" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="D170" s="6" t="s">
+      <c r="D170" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="F170" s="8" t="s">
+      <c r="F170" s="15" t="s">
         <v>538</v>
       </c>
     </row>
@@ -7852,7 +9280,7 @@
       <c r="A183" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="B183" s="11" t="s">
+      <c r="B183" s="16" t="s">
         <v>558</v>
       </c>
       <c r="C183" s="6" t="s">
@@ -7866,7 +9294,7 @@
       <c r="A184" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="B184" s="11" t="s">
+      <c r="B184" s="16" t="s">
         <v>562</v>
       </c>
       <c r="C184" s="6" t="s">
@@ -7880,7 +9308,7 @@
       <c r="A185" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="B185" s="11" t="s">
+      <c r="B185" s="16" t="s">
         <v>566</v>
       </c>
     </row>
@@ -8341,7 +9769,7 @@
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C227" s="12"/>
+      <c r="C227" s="17"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
@@ -8764,7 +10192,7 @@
       </c>
     </row>
     <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="9" t="s">
+      <c r="A258" s="18" t="s">
         <v>802</v>
       </c>
       <c r="B258" s="0" t="s">
@@ -8773,7 +10201,7 @@
       <c r="C258" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="F258" s="13" t="s">
+      <c r="F258" s="19" t="s">
         <v>805</v>
       </c>
     </row>
@@ -8787,7 +10215,7 @@
       <c r="C259" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="F259" s="13" t="s">
+      <c r="F259" s="19" t="s">
         <v>809</v>
       </c>
     </row>
@@ -8801,7 +10229,7 @@
       <c r="C260" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="F260" s="13" t="s">
+      <c r="F260" s="19" t="s">
         <v>813</v>
       </c>
     </row>
@@ -8815,7 +10243,7 @@
       <c r="C261" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="F261" s="13" t="s">
+      <c r="F261" s="19" t="s">
         <v>817</v>
       </c>
     </row>
@@ -8829,7 +10257,7 @@
       <c r="C262" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="F262" s="13" t="s">
+      <c r="F262" s="19" t="s">
         <v>821</v>
       </c>
     </row>
@@ -8843,133 +10271,133 @@
       <c r="C263" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="F263" s="13" t="s">
+      <c r="F263" s="19" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="69.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="9" t="s">
         <v>826</v>
       </c>
       <c r="B264" s="0" t="s">
         <v>827</v>
       </c>
-      <c r="C264" s="8" t="s">
+      <c r="C264" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="F264" s="8" t="s">
+      <c r="F264" s="19" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="9" t="s">
         <v>830</v>
       </c>
       <c r="B265" s="0" t="s">
         <v>831</v>
       </c>
-      <c r="C265" s="8" t="s">
+      <c r="C265" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="F265" s="8" t="s">
+      <c r="F265" s="19" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="9" t="s">
         <v>834</v>
       </c>
       <c r="B266" s="0" t="s">
         <v>835</v>
       </c>
-      <c r="C266" s="8" t="s">
+      <c r="C266" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="F266" s="8" t="s">
+      <c r="F266" s="19" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="0" t="s">
+    <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="9" t="s">
         <v>838</v>
       </c>
       <c r="B267" s="0" t="s">
         <v>839</v>
       </c>
-      <c r="C267" s="0" t="s">
+      <c r="C267" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="F267" s="0" t="s">
+      <c r="F267" s="19" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="0" t="s">
+    <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="9" t="s">
         <v>842</v>
       </c>
       <c r="B268" s="0" t="s">
         <v>843</v>
       </c>
-      <c r="C268" s="0" t="s">
+      <c r="C268" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="F268" s="0" t="s">
+      <c r="F268" s="19" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="0" t="s">
+    <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="9" t="s">
         <v>846</v>
       </c>
       <c r="B269" s="0" t="s">
         <v>847</v>
       </c>
-      <c r="C269" s="0" t="s">
+      <c r="C269" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="F269" s="0" t="s">
+      <c r="F269" s="19" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="0" t="s">
+    <row r="270" s="13" customFormat="true" ht="69.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="20" t="s">
         <v>850</v>
       </c>
-      <c r="B270" s="0" t="s">
+      <c r="B270" s="13" t="s">
         <v>851</v>
       </c>
-      <c r="C270" s="0" t="s">
+      <c r="C270" s="15" t="s">
         <v>852</v>
       </c>
-      <c r="F270" s="0" t="s">
+      <c r="F270" s="15" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="0" t="s">
+    <row r="271" s="13" customFormat="true" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="20" t="s">
         <v>854</v>
       </c>
-      <c r="B271" s="0" t="s">
+      <c r="B271" s="13" t="s">
         <v>855</v>
       </c>
-      <c r="C271" s="0" t="s">
+      <c r="C271" s="15" t="s">
         <v>856</v>
       </c>
-      <c r="F271" s="0" t="s">
+      <c r="F271" s="15" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="0" t="s">
+    <row r="272" s="13" customFormat="true" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="20" t="s">
         <v>858</v>
       </c>
-      <c r="B272" s="0" t="s">
+      <c r="B272" s="13" t="s">
         <v>859</v>
       </c>
-      <c r="C272" s="0" t="s">
+      <c r="C272" s="15" t="s">
         <v>860</v>
       </c>
-      <c r="F272" s="0" t="s">
+      <c r="F272" s="15" t="s">
         <v>861</v>
       </c>
     </row>
@@ -8992,139 +10420,139 @@
         <v>866</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>843</v>
+        <v>867</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>844</v>
+        <v>868</v>
       </c>
       <c r="F274" s="0" t="s">
-        <v>845</v>
+        <v>869</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>847</v>
+        <v>871</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>848</v>
+        <v>872</v>
       </c>
       <c r="F275" s="0" t="s">
-        <v>849</v>
+        <v>873</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>851</v>
+        <v>875</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>852</v>
+        <v>876</v>
       </c>
       <c r="F276" s="0" t="s">
-        <v>853</v>
+        <v>877</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>855</v>
+        <v>879</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>856</v>
+        <v>880</v>
       </c>
       <c r="F277" s="0" t="s">
-        <v>857</v>
+        <v>881</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>871</v>
+        <v>883</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="F278" s="0" t="s">
-        <v>873</v>
+        <v>885</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>874</v>
+        <v>886</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
       <c r="F279" s="0" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="F280" s="0" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="F281" s="0" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="F282" s="0" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="F283" s="0" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9197,356 +10625,443 @@
         <v>913</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="0" t="s">
+    <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="21" t="s">
         <v>914</v>
       </c>
       <c r="B289" s="0" t="s">
         <v>915</v>
       </c>
-      <c r="C289" s="6" t="s">
+      <c r="C289" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="F289" s="8" t="s">
+      <c r="F289" s="3" t="s">
         <v>917</v>
       </c>
     </row>
+    <row r="290" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="21" t="s">
+        <v>918</v>
+      </c>
+      <c r="B290" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>921</v>
+      </c>
+    </row>
     <row r="291" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="0" t="s">
-        <v>918</v>
+      <c r="A291" s="21" t="s">
+        <v>922</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="0" t="s">
-        <v>922</v>
+      <c r="A292" s="21" t="s">
+        <v>926</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>925</v>
+        <v>929</v>
+      </c>
+      <c r="I292" s="0" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="0" t="s">
-        <v>926</v>
+      <c r="A293" s="21" t="s">
+        <v>931</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="0" t="s">
-        <v>930</v>
+      <c r="A294" s="21" t="s">
+        <v>935</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>935</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="F295" s="3" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="0" t="s">
-        <v>938</v>
-      </c>
-      <c r="B296" s="0" t="s">
-        <v>939</v>
-      </c>
-      <c r="C296" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="F296" s="3" t="s">
+      <c r="C295" s="6" t="s">
         <v>941</v>
+      </c>
+      <c r="F295" s="8" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="F300" s="3" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="0" t="s">
-        <v>970</v>
-      </c>
-      <c r="B306" s="0" t="s">
-        <v>971</v>
-      </c>
-      <c r="E306" s="0" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="B305" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>974</v>
-      </c>
-      <c r="E307" s="0" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>980</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>976</v>
+        <v>983</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="E308" s="0" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>984</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="E309" s="0" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="10" t="s">
-        <v>982</v>
+        <v>988</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="s">
+        <v>991</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>983</v>
-      </c>
-      <c r="E310" s="0" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="0" t="s">
-        <v>985</v>
-      </c>
-      <c r="B311" s="0" t="s">
-        <v>986</v>
-      </c>
-      <c r="E311" s="0" t="s">
-        <v>987</v>
+        <v>992</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="F310" s="3" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>989</v>
+        <v>996</v>
       </c>
       <c r="E312" s="0" t="s">
-        <v>990</v>
+        <v>997</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>991</v>
+        <v>998</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>992</v>
+        <v>999</v>
       </c>
       <c r="E313" s="0" t="s">
-        <v>993</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>994</v>
+        <v>1001</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>995</v>
+        <v>1002</v>
       </c>
       <c r="E314" s="0" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="316" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="6" t="s">
-        <v>997</v>
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B315" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E315" s="0" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="10" t="s">
+        <v>1007</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>998</v>
-      </c>
-      <c r="C316" s="3" t="s">
-        <v>999</v>
-      </c>
-      <c r="D316" s="0" t="s">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="E316" s="0" t="s">
-        <v>998</v>
-      </c>
-      <c r="F316" s="3" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G316" s="0" t="s">
-        <v>1002</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="6" t="s">
-        <v>1003</v>
+      <c r="A317" s="0" t="s">
+        <v>1010</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C317" s="0" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="E317" s="0" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F317" s="0" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="6" t="s">
-        <v>1007</v>
+      <c r="A318" s="0" t="s">
+        <v>1013</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C318" s="0" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="E318" s="0" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F318" s="0" t="s">
-        <v>1010</v>
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B319" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E319" s="0" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B320" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E320" s="0" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B322" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D322" s="0" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E322" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F322" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G322" s="0" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="6" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B323" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C323" s="0" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E323" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F323" s="0" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B324" s="0" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C324" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E324" s="0" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F324" s="0" t="s">
+        <v>1035</v>
       </c>
     </row>
   </sheetData>
@@ -9579,27 +11094,27 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1011</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1012</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1013</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1014</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1015</v>
+        <v>1040</v>
       </c>
     </row>
   </sheetData>

--- a/RuntimeResources/System/resources.xlsx
+++ b/RuntimeResources/System/resources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="1044">
   <si>
     <t xml:space="preserve">stringName</t>
   </si>
@@ -6630,6 +6630,20 @@
   </si>
   <si>
     <t xml:space="preserve">拍線での音量を設定します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strWarnMIDI20USB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You seem to use MIDI2.0-USB cable to connect MIDI drum device.\n
+This cable is reported as unstable for DTXMania, because MIDI-In signals become unstable. You should not use it.\n
+Click Ok to continue, and this warning will never seen.\n
+Click Cancel to continue. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">あなたがPCとMIDI機器を接続するためにお使いのケーブル(MIDI2.0-USB)は、MIDI入力が不安定なことが多く報告されているため、DTXManiaでのご利用はお勧めしません。\n\n
+Okをクリックすると、続行します。(以後このメッセージを表示しません)\n
+キャンセルをクリックすると、続行します。</t>
   </si>
   <si>
     <t xml:space="preserve">header name must be “languagecode.[title|value|items]”</t>
@@ -6981,10 +6995,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J324"/>
+  <dimension ref="A1:J326"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D279" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F295" activeCellId="0" sqref="F295"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D314" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F327" activeCellId="0" sqref="F327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11062,6 +11076,17 @@
       </c>
       <c r="F324" s="0" t="s">
         <v>1035</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F326" s="3" t="s">
+        <v>1038</v>
       </c>
     </row>
   </sheetData>
@@ -11094,27 +11119,27 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
     </row>
   </sheetData>

--- a/RuntimeResources/System/resources.xlsx
+++ b/RuntimeResources/System/resources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="1047">
   <si>
     <t xml:space="preserve">stringName</t>
   </si>
@@ -6642,6 +6642,20 @@
   </si>
   <si>
     <t xml:space="preserve">あなたがPCとMIDI機器を接続するためにお使いのケーブル(MIDI2.0-USB)は、MIDI入力が不安定なことが多く報告されているため、DTXManiaでのご利用はお勧めしません。\n\n
+Okをクリックすると、続行します。(以後このメッセージを表示しません)\n
+キャンセルをクリックすると、続行します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strWarnSoundDeviceOnUSB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You seem to use USB-connected sound device.\n
+It may increase the CPU load for audio processing, and as the result it may degrade the DTXMania performance… laggy sound, laggy scroll may be encountered. Onboard sound device or PCIExpress sound device will increase the performance.\n\n
+Click Ok to continue, and this warning will never seen.\n
+Click Cancel to continue. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">あなたが使用しているサウンドデバイスは、USBで接続されているようです。これはサウンド処理負荷を大きくするため、DTXManiaでサウンドが途切れ途切れになったり、スクロールががたつく可能性があります。マザーボードに搭載されたサウンドデバイスや、PCIExpress接続のサウンドデバイスの方が、DTXManiaの性能は高くなります。\n\n
 Okをクリックすると、続行します。(以後このメッセージを表示しません)\n
 キャンセルをクリックすると、続行します。</t>
   </si>
@@ -6995,10 +7009,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J326"/>
+  <dimension ref="A1:J327"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D314" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F327" activeCellId="0" sqref="F327"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A314" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C328" activeCellId="0" sqref="C328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11078,7 +11092,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="73.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
         <v>1036</v>
       </c>
@@ -11087,6 +11101,17 @@
       </c>
       <c r="F326" s="3" t="s">
         <v>1038</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="0" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>1041</v>
       </c>
     </row>
   </sheetData>
@@ -11119,27 +11144,27 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
     </row>
   </sheetData>

--- a/RuntimeResources/System/resources.xlsx
+++ b/RuntimeResources/System/resources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="1053">
   <si>
     <t xml:space="preserve">stringName</t>
   </si>
@@ -552,6 +552,15 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">strCfgResetAllAssigns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reset All Assigns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgReturnToList</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgReturnToMenu</t>
   </si>
   <si>
@@ -585,7 +594,7 @@
     <t xml:space="preserve">Input related sub-options.</t>
   </si>
   <si>
-    <t xml:space="preserve">入力関係を設定を行います。</t>
+    <t xml:space="preserve">入力関係の設定を行います。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgEDrumsOption</t>
@@ -3328,6 +3337,19 @@
     <t xml:space="preserve">     曲データの一覧を\n
        取得しています。\n
    しばらくお待ちください。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strEnumeratingSongsNotFound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Songs not found.\n
+     You need to install songs\n
+into the folder of DTXManiaGR.exe,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　曲データが見つかりません。\n
+曲データをDTXManiaGR.exe以下の\n
+フォルダにインストールしてください。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgDrKeyAssign</t>
@@ -7011,8 +7033,8 @@
   </sheetPr>
   <dimension ref="A1:J327"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A314" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C328" activeCellId="0" sqref="C328"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A171" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A180" activeCellId="0" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7577,768 +7599,780 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>105</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>101</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D45" s="6"/>
       <c r="F45" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D46" s="6"/>
       <c r="F46" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D47" s="6"/>
       <c r="F47" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D48" s="6"/>
       <c r="F48" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D49" s="6"/>
       <c r="F49" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D50" s="6"/>
       <c r="F50" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="128.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="128.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="9" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="8" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F96" s="8"/>
     </row>
@@ -8349,16 +8383,16 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="10" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8369,234 +8403,234 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="F105" s="0" t="s">
         <v>337</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="F105" s="0" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B117" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C117" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="C117" s="8" t="s">
-        <v>378</v>
-      </c>
       <c r="F117" s="8" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8604,1196 +8638,1207 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="10" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B146" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D146" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="D146" s="6" t="s">
-        <v>452</v>
-      </c>
       <c r="F146" s="8" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D162" s="6"/>
       <c r="F162" s="0" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="163" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="11" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C163" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="D163" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="F163" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="J163" s="14" t="s">
         <v>507</v>
-      </c>
-      <c r="D163" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="F163" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="J163" s="14" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="10" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="J164" s="4"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="10" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C165" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D165" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="D165" s="6" t="s">
-        <v>513</v>
-      </c>
       <c r="F165" s="6" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="J165" s="4"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="10" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="J166" s="4"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="168" s="13" customFormat="true" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="13" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C168" s="15" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F168" s="15" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="169" s="13" customFormat="true" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="13" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C169" s="15" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="F169" s="15" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="170" s="13" customFormat="true" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="B170" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="C170" s="15" t="s">
         <v>536</v>
       </c>
-      <c r="B170" s="13" t="s">
+      <c r="D170" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="C170" s="15" t="s">
-        <v>533</v>
-      </c>
-      <c r="D170" s="12" t="s">
-        <v>534</v>
-      </c>
       <c r="F170" s="15" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>556</v>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="4" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="B183" s="16" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="4" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B184" s="16" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="4" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="B185" s="16" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9801,1317 +9846,1317 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="F254" s="0" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="F255" s="0" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="18" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="F258" s="19" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="9" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="F259" s="19" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="9" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="F260" s="19" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="9" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="F261" s="19" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="9" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="F262" s="19" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="9" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="F263" s="19" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="9" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="F264" s="19" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="9" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="F265" s="19" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="9" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="F266" s="19" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="9" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="F267" s="19" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="9" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="F268" s="19" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="9" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="F269" s="19" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
     </row>
     <row r="270" s="13" customFormat="true" ht="69.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="20" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="C270" s="15" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="F270" s="15" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
     </row>
     <row r="271" s="13" customFormat="true" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="20" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="B271" s="13" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="C271" s="15" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="F271" s="15" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
     </row>
     <row r="272" s="13" customFormat="true" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="20" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="C272" s="15" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="F272" s="15" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="F273" s="0" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="F274" s="0" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="F275" s="0" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="F276" s="0" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="F277" s="0" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="F278" s="0" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="F279" s="0" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="F280" s="0" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="F281" s="0" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="F282" s="0" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="F283" s="0" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="F284" s="0" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="F285" s="0" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="F286" s="0" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="F287" s="0" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="F288" s="0" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="21" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="21" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="21" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="21" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="I292" s="0" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="21" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="21" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="F295" s="8" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E312" s="0" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="E313" s="0" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="E314" s="0" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="E315" s="0" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="10" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="E316" s="0" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="E317" s="0" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="E318" s="0" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="E319" s="0" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="E320" s="0" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="D322" s="0" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="E322" s="0" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="G322" s="0" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="E323" s="0" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="F323" s="0" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="E324" s="0" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="F324" s="0" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="73.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
     </row>
   </sheetData>
@@ -11144,27 +11189,27 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
     </row>
   </sheetData>

--- a/RuntimeResources/System/resources.xlsx
+++ b/RuntimeResources/System/resources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="1055">
   <si>
     <t xml:space="preserve">stringName</t>
   </si>
@@ -1393,7 +1393,7 @@
 ジャストタイミングからのズレ時間(ms)を表示します。\n
  OFF:    ズレ時間を表示しません。\n
  ON:     ズレ時間を表示します。\n
- UGreat: PERFECT以外の時のみ表示します。</t>
+ Great: PERFECT以外の時のみ表示します。</t>
   </si>
   <si>
     <t xml:space="preserve">关,开,GREAT-</t>
@@ -2054,10 +2054,59 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">//strCfgDrHitSound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HitSound</t>
+    <t xml:space="preserve">strCfgDrStrictHitSoundRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StrictHitSndRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptable hit-time lag(ms) to play hit sound:\n
+For example, if you set it to 10, The chip sound will be playback only if you hit the chip within +-10ms difference.\n
+Set it to 0 if you disable the feature.\n
+\n
+You can use the feature only if DrumChipSound is ON.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">打撃音の再生を許容する入力時間差(ms)：\n
+例えば10に設定すると、ジャストタイミングから±10ms以内にヒットした時のみ、打撃音を再生します。(ドラムのみ)。\n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">この機能をOFFにする場合は、0を設定します。\n
+\n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DrumsChipSoundがONの時のみ有効です。\n</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgDrChipSound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DrumsChipSound</t>
   </si>
   <si>
     <t xml:space="preserve">Turn OFF if you don't want to play hitting chip sound.\n
@@ -2071,12 +2120,6 @@
 電子ドラム本来の音色で演奏したい場合などにOFF にします。\n
 \n
 注意：BD Group が [BD-1] である場合は不具合が生じます。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strCfgDrChipSound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DrumsChipSound</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgGtReturnToMenu</t>
@@ -7034,10 +7077,10 @@
   <dimension ref="A1:J327"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A171" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A180" activeCellId="0" sqref="A180"/>
+      <selection pane="topLeft" activeCell="C116" activeCellId="0" sqref="C116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.51"/>
@@ -7049,7 +7092,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="32.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="13.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8112,7 +8154,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="50.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>246</v>
       </c>
@@ -8605,7 +8647,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="69.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>379</v>
       </c>
@@ -8627,10 +8669,10 @@
         <v>384</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8638,7 +8680,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="10" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>108</v>
@@ -8652,1193 +8694,1193 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>323</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>323</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D146" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B146" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="D146" s="6" t="s">
-        <v>455</v>
-      </c>
       <c r="F146" s="8" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D162" s="6"/>
       <c r="F162" s="0" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="163" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="11" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B163" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="D163" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="F163" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="J163" s="14" t="s">
         <v>509</v>
-      </c>
-      <c r="C163" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="D163" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="F163" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="J163" s="14" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="10" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="J164" s="4"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="10" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B165" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="D165" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="C165" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>516</v>
-      </c>
       <c r="F165" s="6" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="J165" s="4"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="10" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J166" s="4"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="168" s="13" customFormat="true" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="13" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C168" s="15" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F168" s="15" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="169" s="13" customFormat="true" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="13" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C169" s="15" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F169" s="15" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="170" s="13" customFormat="true" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="B170" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C170" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="D170" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="B170" s="13" t="s">
-        <v>540</v>
-      </c>
-      <c r="C170" s="15" t="s">
-        <v>536</v>
-      </c>
-      <c r="D170" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="F170" s="15" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B183" s="16" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="4" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B184" s="16" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="4" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B185" s="16" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9846,1317 +9888,1317 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="F254" s="0" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F255" s="0" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="18" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="F258" s="19" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="9" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="F259" s="19" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="9" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="F260" s="19" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="9" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="F261" s="19" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="9" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="F262" s="19" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="9" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="F263" s="19" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="9" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F264" s="19" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="9" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="F265" s="19" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="9" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="F266" s="19" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="9" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="F267" s="19" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="9" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="F268" s="19" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="9" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="F269" s="19" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="270" s="13" customFormat="true" ht="69.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="20" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C270" s="15" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="F270" s="15" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="271" s="13" customFormat="true" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="20" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B271" s="13" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C271" s="15" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="F271" s="15" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="272" s="13" customFormat="true" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="20" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C272" s="15" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="F272" s="15" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="F273" s="0" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="F274" s="0" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="F275" s="0" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="F276" s="0" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="F277" s="0" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="F278" s="0" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="F279" s="0" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="F280" s="0" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="F281" s="0" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="F282" s="0" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="F283" s="0" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="F284" s="0" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="F285" s="0" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="F286" s="0" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="F287" s="0" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="F288" s="0" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="21" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="21" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="21" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="21" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="I292" s="0" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="21" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="21" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="F295" s="8" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="E312" s="0" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E313" s="0" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="E314" s="0" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E315" s="0" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="10" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E316" s="0" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="E317" s="0" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="E318" s="0" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="E319" s="0" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="E320" s="0" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="D322" s="0" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E322" s="0" t="s">
         <v>1031</v>
       </c>
-      <c r="E322" s="0" t="s">
-        <v>1029</v>
-      </c>
       <c r="F322" s="3" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="G322" s="0" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="E323" s="0" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="F323" s="0" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="E324" s="0" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="F324" s="0" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="73.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
     </row>
   </sheetData>
@@ -11181,35 +11223,34 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="82.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.44"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
   </sheetData>

--- a/RuntimeResources/System/resources.xlsx
+++ b/RuntimeResources/System/resources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="1067">
   <si>
     <t xml:space="preserve">stringName</t>
   </si>
@@ -1494,6 +1494,130 @@
     <t xml:space="preserve">Traceログ出力：\n
 DTXManiaLog.txt にログを出力します。\n
 この設定の変更は、DTXMania の再起動後に有効となります。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgSysLogEnumerateSongs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnumerateSongsLog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For debugging:\n
+Turn ON to put song enumeration logs to DTXManiaLog.txt.\n
+If you have no problems, leave it OFF.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デバッグ用:\n
+ON にすると、DTXManiaLog.txt に曲データ検索と登録の詳細なログを出力します。\n
+通常はOFFのままお使いください。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgSysLogCreateRelease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CreateReleaseLog</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">For debugging:\n
+Turn ON to put new/dispose logs about audio/texture to DTXManiaLog.txt.\n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">If you have no problems, leave it OFF.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">デバッグ用:\n
+ON にすると、DTXManiaLog.txt にサウンドやテクスチャに関する生成/破棄のログを出力します。\n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">通常はOFFのままお使いください。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgSysLogDTX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChipLog</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">For debugging:\n
+Turn ON to put DTX chip logs to DTXManiaLog.txt.\n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">If you have no problems, leave it OFF.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">デバッグ用:\n
+ON にすると、DTXManiaLog.txt にDTXデータをチップのリストに変換した結果の詳細なログを出力します。\n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFA31515"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">通常はOFFのままお使いください。</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">strCfgSysSoundDeviceType</t>
@@ -6747,7 +6871,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -6806,9 +6930,23 @@
     </font>
     <font>
       <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="MS Gothic"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
       <color rgb="FFA31515"/>
       <name val="MS Gothic"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="MS Gothic"/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -6908,7 +7046,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6945,7 +7083,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6973,7 +7119,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6981,19 +7127,19 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7074,13 +7220,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J327"/>
+  <dimension ref="A1:J330"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A171" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C116" activeCellId="0" sqref="C116"/>
+      <selection pane="topLeft" activeCell="F86" activeCellId="0" sqref="F86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.59375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.51"/>
@@ -8233,7 +8379,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="128.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>269</v>
       </c>
@@ -8243,60 +8389,60 @@
       <c r="C84" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="F84" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="F84" s="8" t="s">
+    </row>
+    <row r="85" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="G84" s="6" t="s">
+      <c r="B85" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="H84" s="6"/>
-    </row>
-    <row r="85" customFormat="false" ht="128.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="C85" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="F85" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C85" s="8" t="s">
+    </row>
+    <row r="86" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="B86" s="0" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="6" t="s">
+      <c r="C86" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="F86" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C86" s="8" t="s">
+    </row>
+    <row r="87" customFormat="false" ht="128.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="B87" s="0" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="C87" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="D87" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="F87" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="G87" s="6" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" customFormat="false" ht="128.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>287</v>
       </c>
@@ -8310,8 +8456,8 @@
         <v>290</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+    <row r="89" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="6" t="s">
         <v>291</v>
       </c>
       <c r="B89" s="0" t="s">
@@ -8324,7 +8470,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>295</v>
       </c>
@@ -8338,11 +8484,11 @@
         <v>298</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="6" t="s">
+    <row r="91" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="0" t="s">
         <v>300</v>
       </c>
       <c r="C91" s="8" t="s">
@@ -8352,11 +8498,11 @@
         <v>302</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="9" t="s">
+    <row r="92" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="0" t="s">
         <v>304</v>
       </c>
       <c r="C92" s="8" t="s">
@@ -8366,11 +8512,11 @@
         <v>306</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="0" t="s">
         <v>308</v>
       </c>
       <c r="C93" s="8" t="s">
@@ -8380,8 +8526,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+    <row r="94" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="6" t="s">
         <v>311</v>
       </c>
       <c r="B94" s="6" t="s">
@@ -8394,8 +8540,8 @@
         <v>314</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+    <row r="95" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="11" t="s">
         <v>315</v>
       </c>
       <c r="B95" s="6" t="s">
@@ -8408,82 +8554,82 @@
         <v>318</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="B96" s="6"/>
+      <c r="B96" s="6" t="s">
+        <v>320</v>
+      </c>
       <c r="C96" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="F96" s="8"/>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="6"/>
-      <c r="C97" s="8"/>
-      <c r="F97" s="8"/>
+        <v>321</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="10" t="s">
-        <v>321</v>
+      <c r="A98" s="0" t="s">
+        <v>327</v>
       </c>
       <c r="B98" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B99" s="6"/>
+      <c r="C99" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F99" s="8"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="6"/>
+      <c r="C100" s="8"/>
+      <c r="F100" s="8"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C101" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="F101" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="10"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="F99" s="6"/>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="F101" s="0" t="s">
-        <v>329</v>
-      </c>
-    </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>333</v>
-      </c>
+      <c r="A102" s="12"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="F102" s="6"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
@@ -8503,61 +8649,61 @@
       <c r="A104" s="0" t="s">
         <v>338</v>
       </c>
+      <c r="B104" s="6" t="s">
+        <v>339</v>
+      </c>
       <c r="C104" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="F105" s="0" t="s">
-        <v>337</v>
+        <v>342</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="F107" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C108" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="F108" s="6" t="s">
+      <c r="C108" s="0" t="s">
         <v>353</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8609,137 +8755,137 @@
       <c r="B112" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="F112" s="0" t="s">
+      <c r="F112" s="6" t="s">
         <v>369</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>371</v>
+        <v>374</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>375</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="69.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="C115" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="F115" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="F116" s="8" t="s">
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="B117" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="C117" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="F117" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="F117" s="8" t="s">
+    </row>
+    <row r="118" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="6"/>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="10" t="s">
+      <c r="B118" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="C118" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="69.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="6"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C123" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F120" s="6" t="s">
+      <c r="F123" s="6" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="F122" s="0" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="F123" s="0" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="F124" s="0" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>400</v>
+        <v>335</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>401</v>
@@ -8776,65 +8922,65 @@
         <v>410</v>
       </c>
     </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="F128" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>323</v>
+        <v>416</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="F131" s="0" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>400</v>
+        <v>335</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>404</v>
@@ -8843,12 +8989,12 @@
         <v>405</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>408</v>
@@ -8857,615 +9003,615 @@
         <v>409</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="F135" s="0" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="B136" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>432</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="F136" s="0" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="F137" s="0" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="C139" s="0" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="B140" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="F140" s="8" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="B141" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="C141" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="D141" s="6" t="s">
+      <c r="C139" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="F141" s="8" t="s">
+      <c r="F139" s="3" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>440</v>
       </c>
       <c r="B142" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="C142" s="8" t="s">
+      <c r="C142" s="0" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="D142" s="6" t="s">
+      <c r="B143" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="F142" s="8" t="s">
+      <c r="C143" s="8" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="143" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+      <c r="D143" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="F143" s="8" t="s">
         <v>446</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="D144" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="F144" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="C144" s="8" t="s">
+    </row>
+    <row r="145" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="F144" s="8" t="s">
+      <c r="B145" s="0" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="145" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+      <c r="C145" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="D145" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="F145" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="D145" s="6" t="s">
+    </row>
+    <row r="146" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="F145" s="8" t="s">
+      <c r="B146" s="0" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="146" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+      <c r="C146" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="B146" s="0" t="s">
+      <c r="D146" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="F146" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="D146" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="F146" s="8" t="s">
+    </row>
+    <row r="147" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="147" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+      <c r="B147" s="0" t="s">
         <v>463</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="C147" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="C147" s="8" t="s">
+      <c r="F147" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="D147" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="F147" s="8" t="s">
+    </row>
+    <row r="148" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="149" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="C149" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D149" s="6" t="s">
         <v>469</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
-        <v>476</v>
-      </c>
-      <c r="B153" s="0" t="s">
-        <v>477</v>
+        <v>481</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="B154" s="0" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>480</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="F157" s="0" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
-        <v>488</v>
-      </c>
-      <c r="B158" s="0" t="s">
         <v>489</v>
       </c>
-      <c r="C158" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="F158" s="6" t="s">
+    </row>
+    <row r="159" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="159" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+      <c r="B159" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="C159" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="C159" s="8" t="s">
+      <c r="D159" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="F159" s="8" t="s">
+      <c r="F159" s="3" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="0" t="s">
         <v>497</v>
       </c>
-      <c r="C160" s="8" t="s">
+      <c r="C160" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="D160" s="6" t="s">
+      <c r="F160" s="0" t="s">
         <v>499</v>
-      </c>
-      <c r="F160" s="8" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="B161" s="0" t="s">
         <v>501</v>
       </c>
-      <c r="B161" s="0" t="s">
+      <c r="C161" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="F161" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="F161" s="0" t="s">
+    </row>
+    <row r="162" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+      <c r="B162" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="B162" s="0" t="s">
+      <c r="C162" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="F162" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="D162" s="6"/>
-      <c r="F162" s="0" t="s">
+    </row>
+    <row r="163" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="J162" s="4" t="s">
+      <c r="B163" s="6" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="163" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="11" t="s">
+      <c r="C163" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="D163" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="C163" s="12" t="s">
+      <c r="F163" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="D163" s="12" t="s">
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
         <v>513</v>
       </c>
-      <c r="F163" s="12" t="s">
+      <c r="B164" s="0" t="s">
         <v>514</v>
       </c>
-      <c r="J163" s="14" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="10" t="s">
+      <c r="C164" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="F164" s="0" t="s">
         <v>516</v>
       </c>
-      <c r="C164" s="6" t="s">
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="D164" s="6" t="s">
+      <c r="B165" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="F164" s="6" t="s">
+      <c r="C165" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="J164" s="4"/>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="B165" s="10" t="s">
+      <c r="D165" s="6"/>
+      <c r="F165" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="J165" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="D165" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="F165" s="6" t="s">
+    </row>
+    <row r="166" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="J165" s="4"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="10" t="s">
+      <c r="B166" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="B166" s="10" t="s">
+      <c r="C166" s="14" t="s">
         <v>524</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="D166" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="D166" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="F166" s="6" t="s">
+      <c r="F166" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="J166" s="4"/>
+      <c r="J166" s="16" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+      <c r="A167" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="B167" s="0" t="s">
+      <c r="B167" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="C167" s="0" t="s">
+      <c r="C167" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="F167" s="0" t="s">
+      <c r="D167" s="6" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="168" s="13" customFormat="true" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="13" t="s">
+      <c r="F167" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="B168" s="13" t="s">
+      <c r="J167" s="4"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="B168" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="C168" s="15" t="s">
+      <c r="C168" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="D168" s="12" t="s">
+      <c r="D168" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="F168" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="F168" s="15" t="s">
+      <c r="J168" s="4"/>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="12" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="169" s="13" customFormat="true" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="13" t="s">
+      <c r="B169" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="B169" s="13" t="s">
+      <c r="C169" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="C169" s="15" t="s">
+      <c r="D169" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="F169" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="D169" s="12" t="s">
+      <c r="J169" s="4"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
         <v>539</v>
       </c>
-      <c r="F169" s="15" t="s">
+      <c r="B170" s="0" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="170" s="13" customFormat="true" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="13" t="s">
+      <c r="C170" s="0" t="s">
         <v>541</v>
       </c>
-      <c r="B170" s="13" t="s">
+      <c r="F170" s="0" t="s">
         <v>542</v>
       </c>
-      <c r="C170" s="15" t="s">
-        <v>538</v>
-      </c>
-      <c r="D170" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="F170" s="15" t="s">
+    </row>
+    <row r="171" s="15" customFormat="true" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="15" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="172" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+      <c r="B171" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="B172" s="0" t="s">
+      <c r="C171" s="17" t="s">
         <v>545</v>
       </c>
-      <c r="C172" s="8" t="s">
+      <c r="D171" s="14" t="s">
         <v>546</v>
       </c>
-      <c r="F172" s="3" t="s">
+      <c r="F171" s="17" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
+    <row r="172" s="15" customFormat="true" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="B173" s="0" t="s">
+      <c r="B172" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="C173" s="8" t="s">
+      <c r="C172" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="F173" s="3" t="s">
+      <c r="D172" s="14" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
+      <c r="F172" s="17" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" s="15" customFormat="true" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="B173" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="D173" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="F173" s="17" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>554</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>555</v>
+        <v>557</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>558</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>561</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>559</v>
-      </c>
-      <c r="C178" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="F178" s="8" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>565</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>562</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="B183" s="16" t="s">
-        <v>566</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="F183" s="6" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="B184" s="16" t="s">
+      <c r="B179" s="0" t="s">
         <v>570</v>
       </c>
-      <c r="C184" s="6" t="s">
+    </row>
+    <row r="181" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
         <v>571</v>
       </c>
-      <c r="F184" s="6" t="s">
+      <c r="C181" s="8" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="4" t="s">
+      <c r="F181" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="B185" s="16" t="s">
+    </row>
+    <row r="182" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="186" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
+      <c r="C182" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="B186" s="0" t="s">
+      <c r="F182" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C186" s="3" t="s">
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="F186" s="3" t="s">
+      <c r="B186" s="18" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="187" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
+      <c r="C186" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="B187" s="0" t="s">
+      <c r="F186" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="C187" s="3" t="s">
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="F187" s="3" t="s">
+      <c r="B187" s="18" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="188" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
+      <c r="C187" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="B188" s="0" t="s">
+      <c r="F187" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="C188" s="3" t="s">
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="F188" s="3" t="s">
+      <c r="B188" s="18" t="s">
         <v>586</v>
       </c>
     </row>
@@ -9684,152 +9830,152 @@
         <v>647</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>620</v>
+        <v>648</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>624</v>
+        <v>652</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>628</v>
+        <v>656</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B207" s="0" t="s">
         <v>632</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B208" s="0" t="s">
         <v>636</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B209" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B210" s="0" t="s">
         <v>644</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>668</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>669</v>
+        <v>671</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>648</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>672</v>
-      </c>
-      <c r="B214" s="0" t="s">
-        <v>673</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="F214" s="6" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
-        <v>676</v>
-      </c>
-      <c r="B215" s="0" t="s">
-        <v>677</v>
-      </c>
-      <c r="C215" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="F215" s="6" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
         <v>680</v>
       </c>
-      <c r="B216" s="0" t="s">
+      <c r="B214" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="C216" s="6" t="s">
+      <c r="C214" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="F216" s="6" t="s">
+      <c r="F214" s="3" t="s">
         <v>683</v>
       </c>
     </row>
@@ -9847,86 +9993,86 @@
         <v>687</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
         <v>688</v>
       </c>
       <c r="B218" s="0" t="s">
         <v>689</v>
       </c>
-      <c r="C218" s="8" t="s">
+      <c r="C218" s="6" t="s">
         <v>690</v>
       </c>
       <c r="F218" s="6" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
         <v>692</v>
       </c>
-      <c r="C223" s="0" t="s">
+      <c r="B219" s="0" t="s">
         <v>693</v>
       </c>
-      <c r="F223" s="0" t="s">
+      <c r="C219" s="6" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
+      <c r="F219" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="C224" s="0" t="s">
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
         <v>696</v>
       </c>
-      <c r="F224" s="0" t="s">
+      <c r="B220" s="0" t="s">
         <v>697</v>
       </c>
+      <c r="C220" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="F220" s="6" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="F221" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="C226" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="F226" s="0" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C227" s="17"/>
-    </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
-        <v>698</v>
-      </c>
-      <c r="B228" s="0" t="s">
-        <v>699</v>
-      </c>
-      <c r="C228" s="0" t="s">
-        <v>700</v>
-      </c>
-      <c r="F228" s="0" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
-        <v>702</v>
-      </c>
-      <c r="B229" s="0" t="s">
-        <v>703</v>
-      </c>
-      <c r="C229" s="0" t="s">
-        <v>704</v>
-      </c>
-      <c r="F229" s="0" t="s">
-        <v>705</v>
+      <c r="A227" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="C227" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="F227" s="0" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="B230" s="0" t="s">
-        <v>707</v>
-      </c>
-      <c r="C230" s="0" t="s">
-        <v>708</v>
-      </c>
-      <c r="F230" s="0" t="s">
-        <v>709</v>
-      </c>
+      <c r="C230" s="19"/>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
@@ -10087,49 +10233,49 @@
         <v>754</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>707</v>
+        <v>755</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>766</v>
+        <v>719</v>
       </c>
       <c r="C245" s="0" t="s">
         <v>767</v>
@@ -10143,213 +10289,213 @@
         <v>769</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>723</v>
+        <v>770</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>727</v>
+        <v>774</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>780</v>
+        <v>735</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>707</v>
+        <v>739</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>762</v>
+        <v>792</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B253" s="0" t="s">
         <v>719</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>723</v>
+        <v>799</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="F254" s="0" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>727</v>
+        <v>774</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="F255" s="0" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>803</v>
+        <v>731</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>807</v>
+        <v>735</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="18" t="s">
         <v>810</v>
       </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
+        <v>811</v>
+      </c>
       <c r="B258" s="0" t="s">
-        <v>811</v>
-      </c>
-      <c r="C258" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="C258" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="F258" s="19" t="s">
+      <c r="F258" s="0" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="9" t="s">
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
         <v>814</v>
       </c>
       <c r="B259" s="0" t="s">
         <v>815</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="C259" s="0" t="s">
         <v>816</v>
       </c>
-      <c r="F259" s="19" t="s">
+      <c r="F259" s="0" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="9" t="s">
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
         <v>818</v>
       </c>
       <c r="B260" s="0" t="s">
         <v>819</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="C260" s="0" t="s">
         <v>820</v>
       </c>
-      <c r="F260" s="19" t="s">
+      <c r="F260" s="0" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="9" t="s">
+      <c r="A261" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B261" s="0" t="s">
@@ -10358,12 +10504,12 @@
       <c r="C261" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="F261" s="19" t="s">
+      <c r="F261" s="21" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="9" t="s">
+      <c r="A262" s="11" t="s">
         <v>826</v>
       </c>
       <c r="B262" s="0" t="s">
@@ -10372,12 +10518,12 @@
       <c r="C262" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="F262" s="19" t="s">
+      <c r="F262" s="21" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="9" t="s">
+      <c r="A263" s="11" t="s">
         <v>830</v>
       </c>
       <c r="B263" s="0" t="s">
@@ -10386,12 +10532,12 @@
       <c r="C263" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="F263" s="19" t="s">
+      <c r="F263" s="21" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="9" t="s">
+      <c r="A264" s="11" t="s">
         <v>834</v>
       </c>
       <c r="B264" s="0" t="s">
@@ -10400,12 +10546,12 @@
       <c r="C264" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="F264" s="19" t="s">
+      <c r="F264" s="21" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="9" t="s">
+      <c r="A265" s="11" t="s">
         <v>838</v>
       </c>
       <c r="B265" s="0" t="s">
@@ -10414,12 +10560,12 @@
       <c r="C265" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="F265" s="19" t="s">
+      <c r="F265" s="21" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="9" t="s">
+      <c r="A266" s="11" t="s">
         <v>842</v>
       </c>
       <c r="B266" s="0" t="s">
@@ -10428,12 +10574,12 @@
       <c r="C266" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="F266" s="19" t="s">
+      <c r="F266" s="21" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="9" t="s">
+      <c r="A267" s="11" t="s">
         <v>846</v>
       </c>
       <c r="B267" s="0" t="s">
@@ -10442,12 +10588,12 @@
       <c r="C267" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="F267" s="19" t="s">
+      <c r="F267" s="21" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="9" t="s">
+      <c r="A268" s="11" t="s">
         <v>850</v>
       </c>
       <c r="B268" s="0" t="s">
@@ -10456,12 +10602,12 @@
       <c r="C268" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="F268" s="19" t="s">
+      <c r="F268" s="21" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="9" t="s">
+      <c r="A269" s="11" t="s">
         <v>854</v>
       </c>
       <c r="B269" s="0" t="s">
@@ -10470,91 +10616,91 @@
       <c r="C269" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="F269" s="19" t="s">
+      <c r="F269" s="21" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="270" s="13" customFormat="true" ht="69.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="20" t="s">
+    <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="11" t="s">
         <v>858</v>
       </c>
-      <c r="B270" s="13" t="s">
+      <c r="B270" s="0" t="s">
         <v>859</v>
       </c>
-      <c r="C270" s="15" t="s">
+      <c r="C270" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="F270" s="15" t="s">
+      <c r="F270" s="21" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="271" s="13" customFormat="true" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="20" t="s">
+    <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="11" t="s">
         <v>862</v>
       </c>
-      <c r="B271" s="13" t="s">
+      <c r="B271" s="0" t="s">
         <v>863</v>
       </c>
-      <c r="C271" s="15" t="s">
+      <c r="C271" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="F271" s="15" t="s">
+      <c r="F271" s="21" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="272" s="13" customFormat="true" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="20" t="s">
+    <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="11" t="s">
         <v>866</v>
       </c>
-      <c r="B272" s="13" t="s">
+      <c r="B272" s="0" t="s">
         <v>867</v>
       </c>
-      <c r="C272" s="15" t="s">
+      <c r="C272" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="F272" s="15" t="s">
+      <c r="F272" s="21" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="0" t="s">
+    <row r="273" s="15" customFormat="true" ht="69.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="22" t="s">
         <v>870</v>
       </c>
-      <c r="B273" s="0" t="s">
+      <c r="B273" s="15" t="s">
         <v>871</v>
       </c>
-      <c r="C273" s="0" t="s">
+      <c r="C273" s="17" t="s">
         <v>872</v>
       </c>
-      <c r="F273" s="0" t="s">
+      <c r="F273" s="17" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="0" t="s">
+    <row r="274" s="15" customFormat="true" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="22" t="s">
         <v>874</v>
       </c>
-      <c r="B274" s="0" t="s">
+      <c r="B274" s="15" t="s">
         <v>875</v>
       </c>
-      <c r="C274" s="0" t="s">
+      <c r="C274" s="17" t="s">
         <v>876</v>
       </c>
-      <c r="F274" s="0" t="s">
+      <c r="F274" s="17" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="0" t="s">
+    <row r="275" s="15" customFormat="true" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="22" t="s">
         <v>878</v>
       </c>
-      <c r="B275" s="0" t="s">
+      <c r="B275" s="15" t="s">
         <v>879</v>
       </c>
-      <c r="C275" s="0" t="s">
+      <c r="C275" s="17" t="s">
         <v>880</v>
       </c>
-      <c r="F275" s="0" t="s">
+      <c r="F275" s="17" t="s">
         <v>881</v>
       </c>
     </row>
@@ -10619,46 +10765,46 @@
         <v>898</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>875</v>
+        <v>899</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>876</v>
+        <v>900</v>
       </c>
       <c r="F280" s="0" t="s">
-        <v>877</v>
+        <v>901</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>879</v>
+        <v>903</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>880</v>
+        <v>904</v>
       </c>
       <c r="F281" s="0" t="s">
-        <v>881</v>
+        <v>905</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>883</v>
+        <v>907</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>884</v>
+        <v>908</v>
       </c>
       <c r="F282" s="0" t="s">
-        <v>885</v>
+        <v>909</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="B283" s="0" t="s">
         <v>887</v>
@@ -10672,44 +10818,44 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>902</v>
+        <v>911</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="F284" s="0" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="F285" s="0" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="F286" s="0" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10740,50 +10886,50 @@
         <v>921</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="21" t="s">
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
         <v>922</v>
       </c>
       <c r="B289" s="0" t="s">
         <v>923</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="C289" s="0" t="s">
         <v>924</v>
       </c>
-      <c r="F289" s="3" t="s">
+      <c r="F289" s="0" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="21" t="s">
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="s">
         <v>926</v>
       </c>
       <c r="B290" s="0" t="s">
         <v>927</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="C290" s="0" t="s">
         <v>928</v>
       </c>
-      <c r="F290" s="3" t="s">
+      <c r="F290" s="0" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="21" t="s">
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
         <v>930</v>
       </c>
       <c r="B291" s="0" t="s">
         <v>931</v>
       </c>
-      <c r="C291" s="3" t="s">
+      <c r="C291" s="0" t="s">
         <v>932</v>
       </c>
-      <c r="F291" s="3" t="s">
+      <c r="F291" s="0" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="21" t="s">
+    <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="23" t="s">
         <v>934</v>
       </c>
       <c r="B292" s="0" t="s">
@@ -10795,91 +10941,91 @@
       <c r="F292" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="I292" s="0" t="s">
+    </row>
+    <row r="293" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="23" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="293" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="21" t="s">
+      <c r="B293" s="0" t="s">
         <v>939</v>
       </c>
-      <c r="B293" s="0" t="s">
+      <c r="C293" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="F293" s="3" t="s">
         <v>941</v>
       </c>
-      <c r="F293" s="3" t="s">
+    </row>
+    <row r="294" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="23" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="294" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="21" t="s">
+      <c r="B294" s="0" t="s">
         <v>943</v>
       </c>
-      <c r="B294" s="0" t="s">
+      <c r="C294" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="F294" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="F294" s="3" t="s">
+    </row>
+    <row r="295" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="23" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="295" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="0" t="s">
+      <c r="B295" s="0" t="s">
         <v>947</v>
       </c>
-      <c r="B295" s="0" t="s">
+      <c r="C295" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="C295" s="6" t="s">
+      <c r="F295" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="F295" s="8" t="s">
+      <c r="I295" s="0" t="s">
         <v>950</v>
       </c>
     </row>
+    <row r="296" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="23" t="s">
+        <v>951</v>
+      </c>
+      <c r="B296" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>954</v>
+      </c>
+    </row>
     <row r="297" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="0" t="s">
-        <v>951</v>
+      <c r="A297" s="23" t="s">
+        <v>955</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>956</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>957</v>
-      </c>
-      <c r="F298" s="3" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="0" t="s">
-        <v>959</v>
-      </c>
-      <c r="B299" s="0" t="s">
         <v>960</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="C298" s="6" t="s">
         <v>961</v>
       </c>
-      <c r="F299" s="3" t="s">
+      <c r="F298" s="8" t="s">
         <v>962</v>
       </c>
     </row>
@@ -10967,45 +11113,45 @@
         <v>986</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="308" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="309" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="0" t="s">
-        <v>995</v>
-      </c>
-      <c r="B309" s="0" t="s">
-        <v>996</v>
-      </c>
-      <c r="C309" s="3" t="s">
-        <v>997</v>
-      </c>
-      <c r="F309" s="3" t="s">
         <v>998</v>
       </c>
     </row>
@@ -11023,182 +11169,224 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B311" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E312" s="0" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1008</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F312" s="3" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E313" s="0" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="0" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B314" s="0" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E314" s="0" t="s">
-        <v>1011</v>
+        <v>1012</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F313" s="3" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="E315" s="0" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="10" t="s">
-        <v>1015</v>
+      <c r="A316" s="0" t="s">
+        <v>1018</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="E316" s="0" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="E317" s="0" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="E318" s="0" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="0" t="s">
-        <v>1024</v>
+      <c r="A319" s="12" t="s">
+        <v>1027</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="E319" s="0" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="E320" s="0" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="6" t="s">
-        <v>1030</v>
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B321" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E321" s="0" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="s">
+        <v>1036</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C322" s="3" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D322" s="0" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="E322" s="0" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F322" s="3" t="s">
-        <v>1034</v>
-      </c>
-      <c r="G322" s="0" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="6" t="s">
-        <v>1036</v>
+      <c r="A323" s="0" t="s">
+        <v>1039</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C323" s="0" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="E323" s="0" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F323" s="0" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="6" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B324" s="0" t="s">
         <v>1041</v>
       </c>
-      <c r="C324" s="0" t="s">
+    </row>
+    <row r="325" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="6" t="s">
         <v>1042</v>
       </c>
-      <c r="E324" s="0" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F324" s="0" t="s">
+      <c r="B325" s="0" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="326" customFormat="false" ht="73.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A326" s="0" t="s">
+      <c r="C325" s="3" t="s">
         <v>1044</v>
       </c>
-      <c r="C326" s="3" t="s">
+      <c r="D325" s="0" t="s">
         <v>1045</v>
       </c>
-      <c r="F326" s="3" t="s">
+      <c r="E325" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F325" s="3" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="327" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="0" t="s">
+      <c r="G325" s="0" t="s">
         <v>1047</v>
       </c>
-      <c r="C327" s="3" t="s">
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="6" t="s">
         <v>1048</v>
       </c>
-      <c r="F327" s="3" t="s">
+      <c r="B326" s="0" t="s">
         <v>1049</v>
+      </c>
+      <c r="C326" s="0" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E326" s="0" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F326" s="0" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B327" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C327" s="0" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E327" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F327" s="0" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="73.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F329" s="3" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F330" s="3" t="s">
+        <v>1061</v>
       </c>
     </row>
   </sheetData>
@@ -11223,34 +11411,34 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="82.08"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1050</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1051</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1052</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1053</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1054</v>
+        <v>1066</v>
       </c>
     </row>
   </sheetData>

--- a/RuntimeResources/System/resources.xlsx
+++ b/RuntimeResources/System/resources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="1070">
   <si>
     <t xml:space="preserve">stringName</t>
   </si>
@@ -6849,6 +6849,22 @@
 キャンセルをクリックすると、続行します。</t>
   </si>
   <si>
+    <t xml:space="preserve">strErrorNoActiveSoundDevice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No audio output devices enabled.\n
+Please enable one or more audio output devices before start DTXMania.\n
+(If the audio device is already ready,  please check the audio
+ output connections. Is the speaker or headphone connected?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">音声出力可能なサウンドデバイスが見つかりません。\n
+サウンドデバイスから音を出力できるようにしてから、
+DTXManiaを起動してください。\n
+(もしサウンドデバイスが正常ならば、スピーカーやヘッドホンが
+正しく接続されているか確認して下さい)</t>
+  </si>
+  <si>
     <t xml:space="preserve">header name must be “languagecode.[title|value|items]”</t>
   </si>
   <si>
@@ -6871,7 +6887,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -6997,6 +7013,12 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FFA31515"/>
+      <name val="MS Gothic"/>
+      <family val="0"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -7046,7 +7068,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7143,6 +7165,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7220,13 +7246,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J330"/>
+  <dimension ref="A1:J331"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A171" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F86" activeCellId="0" sqref="F86"/>
+      <selection pane="topLeft" activeCell="F332" activeCellId="0" sqref="F332"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.59375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.57421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.51"/>
@@ -11387,6 +11413,17 @@
       </c>
       <c r="F330" s="3" t="s">
         <v>1061</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="24" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F331" s="3" t="s">
+        <v>1064</v>
       </c>
     </row>
   </sheetData>
@@ -11411,34 +11448,34 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.3515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="82.08"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
     </row>
   </sheetData>

--- a/RuntimeResources/System/resources.xlsx
+++ b/RuntimeResources/System/resources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="1082">
   <si>
     <t xml:space="preserve">stringName</t>
   </si>
@@ -643,6 +643,22 @@
   </si>
   <si>
     <t xml:space="preserve">曲データの一覧情報を取得し直します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgSysEnumSongsInBoot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnumSongs@Boot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enumerate Songs in starting DTXMania.\n
+If you set Off, cached song list will be used.\n
+So updated songs will not be used.\n
+Run ‘Reload Songs’to update DTXMania’s cache.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTXManiaの起動時に、曲の一覧情報を取得します。\n
+Offにした場合は、過去に使用した一覧情報をそのまま使うため、新しく追加/修正した曲データが反映されません。’Reload Songs’を実行すると、それらの曲データを反映できます。</t>
   </si>
   <si>
     <t xml:space="preserve">strCfgSysDark</t>
@@ -3893,6 +3909,38 @@
 画面キャプチャのキーの割り当てを設定します。</t>
   </si>
   <si>
+    <t xml:space="preserve">strCfgKeyAssignUp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Up key / button for Select Music :\n
+To assign key for Up.\n
+Note: key repeat supported.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上キー/ボタン設定:\n
+選曲画面などで使う、上ボタンへのキーの割り当てを設定します。\n
+他のボタンとは異なり、キーリピートがかかります。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strCfgKeyAssignDown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Down key / button for Select Music :\n
+To assign key for Down.\n
+Note: key repeat supported.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下キー/ボタン設定:\n
+選曲画面などで使う、下ボタンへのキーの割り当てを設定します。\n
+他のボタンとは異なり、キーリピートがかかります。</t>
+  </si>
+  <si>
     <t xml:space="preserve">strCfgSysMenuDesc</t>
   </si>
   <si>
@@ -6356,11 +6404,11 @@
     <t xml:space="preserve">LCVelocityMin</t>
   </si>
   <si>
-    <t xml:space="preserve">Minimum velocity value for LC (left cymbal) to accept.\n
+    <t xml:space="preserve">Minimum velocity threshold for LC (left cymbal) to accept.\n
 To accept lighter hit, specify lower value.</t>
   </si>
   <si>
-    <t xml:space="preserve">LC(左シンバル)の入力ベロシティの切り捨て下限値。\n
+    <t xml:space="preserve">LC(左シンバル)の入力ベロシティの切り捨て上限値。\n
 小さな値にすればするほど、より弱い入力を受け付けます。</t>
   </si>
   <si>
@@ -6377,7 +6425,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">Minimum velocity value for HH (hi-hat) to accept.\n
+      <t xml:space="preserve">Minimum velocity threshold for HH (hi-hat) to accept.\n
 </t>
     </r>
     <r>
@@ -6391,7 +6439,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">HH(ハイハット)の入力ベロシティの切り捨て下限値。\n
+    <t xml:space="preserve">HH(ハイハット)の入力ベロシティの切り捨て上限値。\n
 小さな値にすればするほど、より弱い入力を受け付けます。</t>
   </si>
   <si>
@@ -6408,7 +6456,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">Minimum velocity value for SD (snare drum) to accept.\n
+      <t xml:space="preserve">Minimum velocity threshold for SD (snare drum) to accept.\n
 </t>
     </r>
     <r>
@@ -6422,7 +6470,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">SD(スネア)の入力ベロシティの切り捨て下限値。\n
+    <t xml:space="preserve">SD(スネア)の入力ベロシティの切り捨て上限値。\n
 小さな値にすればするほど、より弱い入力を受け付けます。</t>
   </si>
   <si>
@@ -6439,7 +6487,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">Minimum velocity value for BD (bass drum) to accept.\n
+      <t xml:space="preserve">Minimum velocity threshold for BD (bass drum) to accept.\n
 </t>
     </r>
     <r>
@@ -6453,7 +6501,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">BD(バスドラム)の入力ベロシティの切り捨て下限値。\n
+    <t xml:space="preserve">BD(バスドラム)の入力ベロシティの切り捨て上限値。\n
 小さな値にすればするほど、より弱い入力を受け付けます。</t>
   </si>
   <si>
@@ -6470,7 +6518,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">Minimum velocity value for HT (high tom) to accept.\n
+      <t xml:space="preserve">Minimum velocity threshold for HT (high tom) to accept.\n
 </t>
     </r>
     <r>
@@ -6484,7 +6532,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">HT(ハイタム)の入力ベロシティの切り捨て下限値。\n
+    <t xml:space="preserve">HT(ハイタム)の入力ベロシティの切り捨て上限値。\n
 小さな値にすればするほど、より弱い入力を受け付けます。</t>
   </si>
   <si>
@@ -6501,7 +6549,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">Minimum velocity value for LT (low tom) to accept.\n
+      <t xml:space="preserve">Minimum velocity threshold for LT (low tom) to accept.\n
 </t>
     </r>
     <r>
@@ -6515,7 +6563,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">LT(ロータム)の入力ベロシティの切り捨て下限値。\n
+    <t xml:space="preserve">LT(ロータム)の入力ベロシティの切り捨て上限値。\n
 小さな値にすればするほど、より弱い入力を受け付けます。</t>
   </si>
   <si>
@@ -6532,7 +6580,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">Minimum velocity value for FT (floor tom) to accept.\n
+      <t xml:space="preserve">Minimum velocity threshold for FT (floor tom) to accept.\n
 </t>
     </r>
     <r>
@@ -6546,7 +6594,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">FT(フロアタム)の入力ベロシティの切り捨て下限値。\n
+    <t xml:space="preserve">FT(フロアタム)の入力ベロシティの切り捨て上限値。\n
 小さな値にすればするほど、より弱い入力を受け付けます。</t>
   </si>
   <si>
@@ -6563,7 +6611,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">Minimum velocity value for CY (right cymbal) to accept.\n
+      <t xml:space="preserve">Minimum velocity threshold for CY (right cymbal) to accept.\n
 </t>
     </r>
     <r>
@@ -6577,7 +6625,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">CY(右シンバル)の入力ベロシティの切り捨て下限値。\n
+    <t xml:space="preserve">CY(右シンバル)の入力ベロシティの切り捨て上限値。\n
 小さな値にすればするほど、より弱い入力を受け付けます。</t>
   </si>
   <si>
@@ -6594,7 +6642,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">Minimum velocity value for RD (ride cymbal) to accept.\n
+      <t xml:space="preserve">Minimum velocity threshold for RD (ride cymbal) to accept.\n
 </t>
     </r>
     <r>
@@ -6608,7 +6656,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">RD(ライドシンバル)の入力ベロシティの切り捨て下限値。\n
+    <t xml:space="preserve">RD(ライドシンバル)の入力ベロシティの切り捨て上限値。\n
 小さな値にすればするほど、より弱い入力を受け付けます。</t>
   </si>
   <si>
@@ -6887,7 +6935,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -7013,12 +7061,6 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="9.5"/>
-      <color rgb="FFA31515"/>
-      <name val="MS Gothic"/>
-      <family val="0"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -7068,7 +7110,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7097,11 +7139,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7162,10 +7204,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7242,17 +7280,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J331"/>
+  <dimension ref="A1:J334"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A171" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F332" activeCellId="0" sqref="F332"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.57421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.51"/>
@@ -7938,7 +7976,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>135</v>
       </c>
@@ -7948,104 +7986,106 @@
       <c r="C52" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F52" s="8" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="J52" s="4" t="s">
+      <c r="B53" s="6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="C53" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="D53" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="F53" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="J53" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="F54" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F54" s="8" t="s">
+    </row>
+    <row r="55" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="B55" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="C55" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="D55" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>154</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
+    <row r="57" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
         <v>158</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    <row r="58" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6" t="s">
         <v>162</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>166</v>
       </c>
@@ -8055,49 +8095,49 @@
       <c r="C59" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="0" t="s">
         <v>171</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>178</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="7" t="s">
         <v>181</v>
       </c>
     </row>
@@ -8108,66 +8148,66 @@
       <c r="B63" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>186</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>190</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>194</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>198</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="7" t="s">
         <v>201</v>
       </c>
     </row>
@@ -8178,67 +8218,66 @@
       <c r="B68" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>206</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>210</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>214</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="7" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="7" t="s">
         <v>221</v>
       </c>
     </row>
@@ -8246,55 +8285,56 @@
       <c r="A73" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="6" t="s">
         <v>223</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="E73" s="6"/>
+      <c r="F73" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>226</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="7" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>230</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="7" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>234</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="7" t="s">
         <v>237</v>
       </c>
     </row>
@@ -8305,103 +8345,103 @@
       <c r="B77" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="7" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>242</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F78" s="7" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="50.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>246</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="F79" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F79" s="8" t="s">
+    </row>
+    <row r="80" customFormat="false" ht="50.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="J79" s="0" t="s">
+      <c r="B80" s="0" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="C80" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="D80" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="F80" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="J80" s="0" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>256</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="F81" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F81" s="8" t="s">
+    </row>
+    <row r="82" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="B82" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="C82" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="D82" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>265</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F83" s="7" t="s">
         <v>268</v>
       </c>
     </row>
@@ -8412,264 +8452,264 @@
       <c r="B84" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="7" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="0" t="s">
         <v>273</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="7" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="9" t="s">
         <v>277</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="7" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="128.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+    <row r="87" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="10" t="s">
         <v>281</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="F87" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F87" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="H87" s="6"/>
     </row>
     <row r="88" customFormat="false" ht="128.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C88" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="D88" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="F88" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="G88" s="6" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="6" t="s">
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" customFormat="false" ht="128.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
         <v>291</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F89" s="7" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+    <row r="90" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="6" t="s">
         <v>295</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="7" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>299</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>303</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="7" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>307</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="7" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="6" t="s">
+    <row r="94" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F94" s="8" t="s">
+      <c r="F94" s="7" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="11" t="s">
+    <row r="95" customFormat="false" ht="117.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="6" t="s">
         <v>315</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F95" s="7" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+    <row r="96" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="11" t="s">
         <v>319</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="7" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>323</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="7" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>327</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="7" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="B99" s="6"/>
-      <c r="C99" s="8" t="s">
+      <c r="B99" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="F99" s="8"/>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>335</v>
+      </c>
       <c r="B100" s="6"/>
-      <c r="C100" s="8"/>
-      <c r="F100" s="8"/>
+      <c r="C100" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F100" s="7"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="6"/>
+      <c r="C101" s="7"/>
+      <c r="F101" s="7"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C102" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="F102" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="12"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="F102" s="6"/>
-    </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>337</v>
-      </c>
+      <c r="A103" s="12"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="F103" s="6"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
@@ -8678,10 +8718,10 @@
       <c r="B104" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="F104" s="0" t="s">
+      <c r="F104" s="6" t="s">
         <v>341</v>
       </c>
     </row>
@@ -8692,10 +8732,10 @@
       <c r="B105" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="F105" s="6" t="s">
+      <c r="F105" s="0" t="s">
         <v>345</v>
       </c>
     </row>
@@ -8717,33 +8757,33 @@
       <c r="A107" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="B107" s="6" t="s">
         <v>351</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="F108" s="0" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="C109" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="C109" s="0" t="s">
         <v>357</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8823,109 +8863,109 @@
       <c r="B115" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="F115" s="0" t="s">
+      <c r="F115" s="6" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B116" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C116" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="F117" s="6" t="s">
+      <c r="F116" s="0" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C118" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="F118" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="F118" s="8" t="s">
+    </row>
+    <row r="119" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="119" customFormat="false" ht="69.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="B119" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="C119" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="D119" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="F119" s="8" t="s">
+      <c r="F119" s="7" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="69.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C120" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="F120" s="8" t="s">
+      <c r="F120" s="7" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="6"/>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="12" t="s">
+    <row r="121" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B121" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="6"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C123" s="6" t="s">
+      <c r="C124" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F123" s="6" t="s">
+      <c r="F124" s="6" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="F125" s="0" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>404</v>
+        <v>339</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>405</v>
@@ -8990,37 +9030,37 @@
         <v>422</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="B132" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="C132" s="6" t="s">
+      <c r="B131" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="F132" s="0" t="s">
+      <c r="C131" s="6" t="s">
         <v>425</v>
+      </c>
+      <c r="F131" s="0" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>404</v>
+        <v>339</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>408</v>
@@ -9029,12 +9069,12 @@
         <v>409</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>412</v>
@@ -9043,12 +9083,12 @@
         <v>413</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>416</v>
@@ -9057,12 +9097,12 @@
         <v>417</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>420</v>
@@ -9071,244 +9111,244 @@
         <v>421</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="B139" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="C139" s="3" t="s">
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="F139" s="3" t="s">
+      <c r="B138" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="F138" s="0" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+    <row r="140" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="B140" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="C142" s="0" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C140" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="D143" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="F143" s="8" t="s">
+      <c r="C143" s="0" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="122.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="144" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+      <c r="B144" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="C144" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="C144" s="8" t="s">
+      <c r="D144" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="D144" s="6" t="s">
+      <c r="F144" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="F144" s="8" t="s">
+    </row>
+    <row r="145" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="145" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+      <c r="B145" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="C145" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="D145" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="D145" s="6" t="s">
+      <c r="F145" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="F145" s="8" t="s">
+    </row>
+    <row r="146" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="146" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+      <c r="B146" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="B146" s="0" t="s">
+      <c r="C146" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="C146" s="8" t="s">
+      <c r="D146" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="D146" s="6" t="s">
+      <c r="F146" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="F146" s="8" t="s">
+    </row>
+    <row r="147" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="147" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+      <c r="B147" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="C147" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="C147" s="8" t="s">
+      <c r="D147" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="F147" s="8" t="s">
+      <c r="F147" s="7" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>466</v>
       </c>
       <c r="B148" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="C148" s="8" t="s">
+      <c r="C148" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="D148" s="6" t="s">
+      <c r="F148" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="F148" s="8" t="s">
+    </row>
+    <row r="149" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="149" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+      <c r="B149" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="C149" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="D149" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="D149" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="F149" s="8" t="s">
+      <c r="F149" s="7" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>475</v>
       </c>
       <c r="B150" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="C150" s="8" t="s">
+      <c r="C150" s="3" t="s">
         <v>477</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="F150" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="F150" s="7" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+    <row r="151" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="B152" s="0" t="s">
+      <c r="B151" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="C151" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="F152" s="8" t="s">
+      <c r="D151" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="F151" s="7" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+    <row r="153" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="155" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="B155" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="F155" s="3" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>488</v>
       </c>
       <c r="B156" s="0" t="s">
         <v>489</v>
       </c>
+      <c r="C156" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
-        <v>491</v>
-      </c>
-      <c r="B159" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="C159" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="D159" s="6" t="s">
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="F159" s="3" t="s">
+      <c r="B158" s="0" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+      <c r="B160" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="B160" s="0" t="s">
+      <c r="C160" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="D160" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="F160" s="0" t="s">
+      <c r="F160" s="3" t="s">
         <v>499</v>
       </c>
     </row>
@@ -9322,52 +9362,52 @@
       <c r="C161" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="F161" s="6" t="s">
+      <c r="F161" s="0" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
         <v>504</v>
       </c>
       <c r="B162" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="C162" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="F162" s="8" t="s">
+      <c r="F162" s="6" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C163" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="D163" s="6" t="s">
+      <c r="F163" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="F163" s="8" t="s">
+    </row>
+    <row r="164" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+      <c r="B164" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="B164" s="0" t="s">
+      <c r="C164" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="D164" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="F164" s="0" t="s">
+      <c r="F164" s="7" t="s">
         <v>516</v>
       </c>
     </row>
@@ -9381,55 +9421,51 @@
       <c r="C165" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="D165" s="6"/>
       <c r="F165" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="J165" s="4" t="s">
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="166" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="13" t="s">
+      <c r="B166" s="0" t="s">
         <v>522</v>
       </c>
-      <c r="B166" s="13" t="s">
+      <c r="C166" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="C166" s="14" t="s">
+      <c r="D166" s="6"/>
+      <c r="F166" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="D166" s="14" t="s">
+      <c r="J166" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="F166" s="14" t="s">
+    </row>
+    <row r="167" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="J166" s="16" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="12" t="s">
+      <c r="B167" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="B167" s="12" t="s">
+      <c r="C167" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="D167" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="D167" s="6" t="s">
+      <c r="F167" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="F167" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="J167" s="4"/>
+      <c r="J167" s="16" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="12" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B168" s="12" t="s">
         <v>532</v>
@@ -9438,16 +9474,16 @@
         <v>533</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J168" s="4"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="12" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B169" s="12" t="s">
         <v>536</v>
@@ -9456,7 +9492,7 @@
         <v>537</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="F169" s="6" t="s">
         <v>538</v>
@@ -9464,158 +9500,162 @@
       <c r="J169" s="4"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+      <c r="A170" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="B170" s="0" t="s">
+      <c r="B170" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="C170" s="0" t="s">
+      <c r="C170" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="F170" s="0" t="s">
+      <c r="D170" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="F170" s="6" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="171" s="15" customFormat="true" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="15" t="s">
+      <c r="J170" s="4"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
         <v>543</v>
       </c>
-      <c r="B171" s="15" t="s">
+      <c r="B171" s="0" t="s">
         <v>544</v>
       </c>
-      <c r="C171" s="17" t="s">
+      <c r="C171" s="0" t="s">
         <v>545</v>
       </c>
-      <c r="D171" s="14" t="s">
+      <c r="F171" s="0" t="s">
         <v>546</v>
       </c>
-      <c r="F171" s="17" t="s">
+    </row>
+    <row r="172" s="15" customFormat="true" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="15" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="172" s="15" customFormat="true" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="15" t="s">
+      <c r="B172" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="B172" s="15" t="s">
+      <c r="C172" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="C172" s="17" t="s">
+      <c r="D172" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="D172" s="14" t="s">
+      <c r="F172" s="17" t="s">
         <v>551</v>
-      </c>
-      <c r="F172" s="17" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="173" s="15" customFormat="true" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="B173" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="B173" s="15" t="s">
+      <c r="C173" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="C173" s="17" t="s">
-        <v>550</v>
-      </c>
       <c r="D173" s="14" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="F173" s="17" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="174" s="15" customFormat="true" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B174" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="D174" s="14" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="175" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
-        <v>556</v>
-      </c>
-      <c r="B175" s="0" t="s">
-        <v>557</v>
-      </c>
-      <c r="C175" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="F175" s="3" t="s">
+      <c r="F174" s="17" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
         <v>560</v>
       </c>
       <c r="B176" s="0" t="s">
         <v>561</v>
       </c>
-      <c r="C176" s="8" t="s">
+      <c r="C176" s="7" t="s">
         <v>562</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="178" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B177" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>565</v>
-      </c>
-      <c r="B178" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="F178" s="3" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
         <v>569</v>
       </c>
       <c r="B179" s="0" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="181" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
+      <c r="C179" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="C181" s="8" t="s">
+      <c r="F179" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="F181" s="8" t="s">
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
         <v>573</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>574</v>
-      </c>
-      <c r="C182" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="F182" s="3" t="s">
+      <c r="C182" s="7" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="4" t="s">
+      <c r="F182" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="B186" s="18" t="s">
+    </row>
+    <row r="183" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
         <v>578</v>
       </c>
-      <c r="C186" s="6" t="s">
+      <c r="C183" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="F186" s="6" t="s">
+      <c r="F183" s="3" t="s">
         <v>580</v>
       </c>
     </row>
@@ -9640,18 +9680,18 @@
       <c r="B188" s="18" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="189" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
+      <c r="C188" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="B189" s="0" t="s">
+      <c r="F188" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="C189" s="3" t="s">
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="F189" s="3" t="s">
+      <c r="B189" s="18" t="s">
         <v>590</v>
       </c>
     </row>
@@ -9898,105 +9938,105 @@
         <v>659</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>632</v>
+        <v>660</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B208" s="0" t="s">
         <v>636</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B209" s="0" t="s">
         <v>640</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B210" s="0" t="s">
         <v>644</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B211" s="0" t="s">
         <v>648</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B212" s="0" t="s">
         <v>652</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B213" s="0" t="s">
         <v>656</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>680</v>
-      </c>
-      <c r="B214" s="6" t="s">
         <v>681</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>660</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>682</v>
@@ -10005,45 +10045,45 @@
         <v>683</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>685</v>
-      </c>
-      <c r="C217" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="F217" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
-        <v>688</v>
-      </c>
-      <c r="B218" s="0" t="s">
-        <v>689</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="F218" s="6" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
-        <v>692</v>
-      </c>
-      <c r="B219" s="0" t="s">
         <v>693</v>
       </c>
-      <c r="C219" s="6" t="s">
+      <c r="C217" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="F219" s="6" t="s">
+      <c r="F217" s="3" t="s">
         <v>695</v>
       </c>
     </row>
@@ -10061,86 +10101,86 @@
         <v>699</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
         <v>700</v>
       </c>
       <c r="B221" s="0" t="s">
         <v>701</v>
       </c>
-      <c r="C221" s="8" t="s">
+      <c r="C221" s="6" t="s">
         <v>702</v>
       </c>
       <c r="F221" s="6" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
         <v>704</v>
       </c>
-      <c r="C226" s="0" t="s">
+      <c r="B222" s="0" t="s">
         <v>705</v>
       </c>
-      <c r="F226" s="0" t="s">
+      <c r="C222" s="6" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
+      <c r="F222" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="C227" s="0" t="s">
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
         <v>708</v>
       </c>
-      <c r="F227" s="0" t="s">
+      <c r="B223" s="0" t="s">
         <v>709</v>
       </c>
+      <c r="C223" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="F223" s="6" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="F224" s="6" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="F229" s="0" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C230" s="19"/>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
-        <v>710</v>
-      </c>
-      <c r="B231" s="0" t="s">
-        <v>711</v>
-      </c>
-      <c r="C231" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="F231" s="0" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
-        <v>714</v>
-      </c>
-      <c r="B232" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="C232" s="0" t="s">
-        <v>716</v>
-      </c>
-      <c r="F232" s="0" t="s">
-        <v>717</v>
+      <c r="A230" s="0" t="s">
+        <v>719</v>
+      </c